--- a/MSTR.xlsx
+++ b/MSTR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4BB54A-57C0-4F52-833E-691D3D7E1EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4051A0B2-B8E1-4916-9A33-6015A29860FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -11533,6 +11533,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MSTRvsBTC!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Delta MC BTC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -13643,6 +13654,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="994851232"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -13657,6 +13669,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -16320,6 +16363,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="994860160"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -16332,37 +16376,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -19901,8 +19914,8 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19931,14 +19944,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>185736</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20383,11 +20396,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596D9E16-B52A-4557-A315-6FB674626433}">
   <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20481,7 +20494,10 @@
       <c r="E3" s="8">
         <v>29573</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="8">
+        <f>X3-E3-D3-C3</f>
+        <v>27538</v>
+      </c>
       <c r="G3" s="8">
         <v>21280</v>
       </c>
@@ -20491,7 +20507,10 @@
       <c r="I3" s="8">
         <v>25830</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="8">
+        <f>Y3-I3-H3-G3</f>
+        <v>32543</v>
+      </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -20500,6 +20519,12 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
+      <c r="X3" s="8">
+        <v>86743</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>101804</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -20514,7 +20539,10 @@
       <c r="E4" s="8">
         <v>8305</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8">
+        <f t="shared" ref="F4:F21" si="0">X4-E4-D4-C4</f>
+        <v>8735</v>
+      </c>
       <c r="G4" s="8">
         <v>10026</v>
       </c>
@@ -20524,7 +20552,10 @@
       <c r="I4" s="8">
         <v>10853</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="8">
+        <f t="shared" ref="J4:J21" si="1">Y4-I4-H4-G4</f>
+        <v>11848</v>
+      </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -20533,6 +20564,12 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
+      <c r="X4" s="8">
+        <v>33082</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>43069</v>
+      </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -20547,7 +20584,10 @@
       <c r="E5" s="8">
         <v>71352</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>73006</v>
+      </c>
       <c r="G5" s="8">
         <v>70649</v>
       </c>
@@ -20557,7 +20597,10 @@
       <c r="I5" s="8">
         <v>70387</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="8">
+        <f t="shared" si="1"/>
+        <v>69146</v>
+      </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -20566,6 +20609,12 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
+      <c r="X5" s="8">
+        <v>284434</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>281209</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -20580,7 +20629,10 @@
       <c r="E6" s="8">
         <v>18178</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>22880</v>
+      </c>
       <c r="G6" s="8">
         <v>20947</v>
       </c>
@@ -20590,7 +20642,10 @@
       <c r="I6" s="8">
         <v>20924</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="8">
+        <f t="shared" si="1"/>
+        <v>20978</v>
+      </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -20599,6 +20654,12 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
+      <c r="X6" s="8">
+        <v>76476</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>84680</v>
+      </c>
     </row>
     <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
@@ -20618,63 +20679,63 @@
       </c>
       <c r="F7" s="9">
         <f>SUM(F3:F6)</f>
-        <v>0</v>
+        <v>132159</v>
       </c>
       <c r="G7" s="9">
         <f>SUM(G3:G6)</f>
         <v>122902</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" ref="G7:R7" si="0">SUM(H3:H6)</f>
+        <f t="shared" ref="H7:R7" si="2">SUM(H3:H6)</f>
         <v>125351</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>127994</v>
       </c>
       <c r="J7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>134515</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="9">
-        <f t="shared" si="0"/>
+      <c r="L7" s="9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="9">
-        <f t="shared" si="0"/>
+      <c r="M7" s="9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="9">
-        <f t="shared" si="0"/>
+      <c r="N7" s="9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N7" s="9">
-        <f t="shared" si="0"/>
+      <c r="O7" s="9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O7" s="9">
-        <f t="shared" si="0"/>
+      <c r="P7" s="9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P7" s="9">
-        <f t="shared" si="0"/>
+      <c r="Q7" s="9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="9">
-        <f t="shared" si="0"/>
+      <c r="R7" s="9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
-        <f t="shared" ref="X7" si="1">SUM(X3:X6)</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2">
-        <f t="shared" ref="Y7" si="2">SUM(Y3:Y6)</f>
-        <v>0</v>
+      <c r="X7" s="9">
+        <f>SUM(X3:X6)</f>
+        <v>480735</v>
+      </c>
+      <c r="Y7" s="9">
+        <f>SUM(Y3:Y6)</f>
+        <v>510762</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" ref="Z7" si="3">SUM(Z3:Z6)</f>
@@ -20698,7 +20759,10 @@
       <c r="E8" s="4">
         <v>545</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
       <c r="G8" s="4">
         <v>488</v>
       </c>
@@ -20708,7 +20772,10 @@
       <c r="I8" s="4">
         <v>393</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="8">
+        <f t="shared" si="1"/>
+        <v>421</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -20717,6 +20784,12 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
+      <c r="X8" s="4">
+        <v>2293</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>1721</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -20731,7 +20804,10 @@
       <c r="E9" s="4">
         <v>3656</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>3593</v>
+      </c>
       <c r="G9" s="4">
         <v>3628</v>
       </c>
@@ -20741,7 +20817,10 @@
       <c r="I9" s="4">
         <v>4282</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="8">
+        <f t="shared" si="1"/>
+        <v>5181</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -20750,6 +20829,12 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
+      <c r="X9" s="4">
+        <v>14833</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>16901</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -20764,7 +20849,10 @@
       <c r="E10" s="4">
         <v>5679</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>4624</v>
+      </c>
       <c r="G10" s="4">
         <v>4812</v>
       </c>
@@ -20774,7 +20862,10 @@
       <c r="I10" s="4">
         <v>4679</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="8">
+        <f t="shared" si="1"/>
+        <v>4901</v>
+      </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -20783,6 +20874,12 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
+      <c r="X10" s="4">
+        <v>23977</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>19254</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -20797,7 +20894,10 @@
       <c r="E11" s="4">
         <v>11856</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>12404</v>
+      </c>
       <c r="G11" s="4">
         <v>13621</v>
       </c>
@@ -20807,7 +20907,10 @@
       <c r="I11" s="4">
         <v>12975</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="8">
+        <f t="shared" si="1"/>
+        <v>13490</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -20816,6 +20919,12 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
+      <c r="X11" s="4">
+        <v>49952</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>54033</v>
+      </c>
     </row>
     <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
@@ -20835,7 +20944,7 @@
       </c>
       <c r="F12" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>21341</v>
       </c>
       <c r="G12" s="9">
         <f>SUM(G8:G11)</f>
@@ -20851,7 +20960,7 @@
       </c>
       <c r="J12" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>23993</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="5"/>
@@ -20884,6 +20993,14 @@
       <c r="R12" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="X12" s="9">
+        <f t="shared" ref="X12:Y12" si="6">SUM(X8:X11)</f>
+        <v>91055</v>
+      </c>
+      <c r="Y12" s="9">
+        <f t="shared" si="6"/>
+        <v>91909</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -20899,7 +21016,10 @@
       <c r="E13" s="4">
         <v>35330</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>43678</v>
+      </c>
       <c r="G13" s="4">
         <v>38198</v>
       </c>
@@ -20909,7 +21029,10 @@
       <c r="I13" s="4">
         <v>38209</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="8">
+        <f t="shared" si="1"/>
+        <v>43413</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -20918,6 +21041,12 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
+      <c r="X13" s="4">
+        <v>148910</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>160141</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -20932,7 +21061,10 @@
       <c r="E14" s="4">
         <v>26638</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="8">
+        <f t="shared" si="0"/>
+        <v>25189</v>
+      </c>
       <c r="G14" s="4">
         <v>29483</v>
       </c>
@@ -20942,7 +21074,10 @@
       <c r="I14" s="4">
         <v>28211</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="8">
+        <f t="shared" si="1"/>
+        <v>30875</v>
+      </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -20951,6 +21086,12 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
+      <c r="X14" s="4">
+        <v>103561</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>117117</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -20965,7 +21106,10 @@
       <c r="E15" s="4">
         <v>19733</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
+        <v>21505</v>
+      </c>
       <c r="G15" s="4">
         <v>21729</v>
       </c>
@@ -20975,7 +21119,10 @@
       <c r="I15" s="4">
         <v>23751</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="J15" s="8">
+        <f t="shared" si="1"/>
+        <v>27104</v>
+      </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -20984,6 +21131,12 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
+      <c r="X15" s="4">
+        <v>80136</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>95501</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -20998,7 +21151,10 @@
       <c r="E16" s="4">
         <v>44242</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="8">
+        <f t="shared" si="0"/>
+        <v>26456</v>
+      </c>
       <c r="G16" s="4">
         <v>194095</v>
       </c>
@@ -21008,7 +21164,10 @@
       <c r="I16" s="4">
         <v>65165</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="8">
+        <f t="shared" si="1"/>
+        <v>146587</v>
+      </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -21017,8 +21176,14 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
+      <c r="X16" s="4">
+        <v>70698</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>830621</v>
+      </c>
     </row>
-    <row r="17" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
@@ -21031,63 +21196,71 @@
         <v>6328</v>
       </c>
       <c r="E17" s="9">
-        <f t="shared" ref="E17:R17" si="6">E7-E12-E13-E14-E15-E16</f>
+        <f t="shared" ref="E17:R17" si="7">E7-E12-E13-E14-E15-E16</f>
         <v>-20271</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-6010</v>
       </c>
       <c r="G17" s="9">
         <f>G7-G12-G13-G14-G15-G16</f>
         <v>-183152</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-414247</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-49671</v>
       </c>
       <c r="J17" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v>-137457</v>
+      </c>
+      <c r="K17" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K17" s="9">
-        <f t="shared" si="6"/>
+      <c r="L17" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L17" s="9">
-        <f t="shared" si="6"/>
+      <c r="M17" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M17" s="9">
-        <f t="shared" si="6"/>
+      <c r="N17" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N17" s="9">
-        <f t="shared" si="6"/>
+      <c r="O17" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O17" s="9">
-        <f t="shared" si="6"/>
+      <c r="P17" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P17" s="9">
-        <f t="shared" si="6"/>
+      <c r="Q17" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="9">
-        <f t="shared" si="6"/>
+      <c r="R17" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R17" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="X17" s="9">
+        <f t="shared" ref="X17:Y17" si="8">X7-X12-X13-X14-X15-X16</f>
+        <v>-13625</v>
+      </c>
+      <c r="Y17" s="9">
+        <f t="shared" si="8"/>
+        <v>-784527</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>64</v>
       </c>
@@ -21100,7 +21273,10 @@
       <c r="E18" s="4">
         <v>209</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="8">
+        <f t="shared" si="0"/>
+        <v>-625</v>
+      </c>
       <c r="G18" s="4">
         <v>-2396</v>
       </c>
@@ -21110,7 +21286,10 @@
       <c r="I18" s="4">
         <v>-10723</v>
       </c>
-      <c r="J18" s="4"/>
+      <c r="J18" s="8">
+        <f t="shared" si="1"/>
+        <v>-11629</v>
+      </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
@@ -21119,8 +21298,14 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
+      <c r="X18" s="4">
+        <v>710</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>-29149</v>
+      </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>13</v>
       </c>
@@ -21133,7 +21318,10 @@
       <c r="E19" s="4">
         <v>-2971</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="8">
+        <f t="shared" si="0"/>
+        <v>-77</v>
+      </c>
       <c r="G19" s="4">
         <v>1264</v>
       </c>
@@ -21143,7 +21331,10 @@
       <c r="I19" s="4">
         <v>1264</v>
       </c>
-      <c r="J19" s="4"/>
+      <c r="J19" s="8">
+        <f t="shared" si="1"/>
+        <v>656</v>
+      </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -21152,8 +21343,14 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
+      <c r="X19" s="4">
+        <v>-7038</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>2287</v>
+      </c>
     </row>
-    <row r="20" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
@@ -21166,63 +21363,71 @@
         <v>4896</v>
       </c>
       <c r="E20" s="9">
-        <f t="shared" ref="E20:R20" si="7">E17+E18+E19</f>
+        <f t="shared" ref="E20:R20" si="9">E17+E18+E19</f>
         <v>-23033</v>
       </c>
       <c r="F20" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-6712</v>
       </c>
       <c r="G20" s="9">
         <f>G17+G18+G19</f>
         <v>-184284</v>
       </c>
       <c r="H20" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-419545</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-59130</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
+        <v>-148430</v>
+      </c>
+      <c r="K20" s="9">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K20" s="9">
-        <f t="shared" si="7"/>
+      <c r="L20" s="9">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L20" s="9">
-        <f t="shared" si="7"/>
+      <c r="M20" s="9">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M20" s="9">
-        <f t="shared" si="7"/>
+      <c r="N20" s="9">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N20" s="9">
-        <f t="shared" si="7"/>
+      <c r="O20" s="9">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O20" s="9">
-        <f t="shared" si="7"/>
+      <c r="P20" s="9">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P20" s="9">
-        <f t="shared" si="7"/>
+      <c r="Q20" s="9">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="9">
-        <f t="shared" si="7"/>
+      <c r="R20" s="9">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R20" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="X20" s="9">
+        <f t="shared" ref="X20:Y20" si="10">X17+X18+X19</f>
+        <v>-19953</v>
+      </c>
+      <c r="Y20" s="9">
+        <f t="shared" si="10"/>
+        <v>-811389</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>15</v>
       </c>
@@ -21235,7 +21440,10 @@
       <c r="E21" s="4">
         <v>-8804</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="8">
+        <f t="shared" si="0"/>
+        <v>-6643</v>
+      </c>
       <c r="G21" s="4">
         <v>-74264</v>
       </c>
@@ -21245,7 +21453,10 @@
       <c r="I21" s="4">
         <v>-22984</v>
       </c>
-      <c r="J21" s="4"/>
+      <c r="J21" s="8">
+        <f t="shared" si="1"/>
+        <v>-58463</v>
+      </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -21254,8 +21465,14 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
+      <c r="X21" s="4">
+        <v>-12429</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>-275909</v>
+      </c>
     </row>
-    <row r="22" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
@@ -21268,63 +21485,71 @@
         <v>3387</v>
       </c>
       <c r="E22" s="9">
-        <f t="shared" ref="E22:R22" si="8">E20-E21</f>
+        <f t="shared" ref="E22:R22" si="11">E20-E21</f>
         <v>-14229</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>-69</v>
       </c>
       <c r="G22" s="9">
         <f>G20-G21</f>
         <v>-110020</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-299347</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-36146</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
+        <v>-89967</v>
+      </c>
+      <c r="K22" s="9">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K22" s="9">
-        <f t="shared" si="8"/>
+      <c r="L22" s="9">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L22" s="9">
-        <f t="shared" si="8"/>
+      <c r="M22" s="9">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M22" s="9">
-        <f t="shared" si="8"/>
+      <c r="N22" s="9">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N22" s="9">
-        <f t="shared" si="8"/>
+      <c r="O22" s="9">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O22" s="9">
-        <f t="shared" si="8"/>
+      <c r="P22" s="9">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P22" s="9">
-        <f t="shared" si="8"/>
+      <c r="Q22" s="9">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="9">
-        <f t="shared" si="8"/>
+      <c r="R22" s="9">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R22" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="X22" s="9">
+        <f t="shared" ref="X22:Y22" si="12">X20-X21</f>
+        <v>-7524</v>
+      </c>
+      <c r="Y22" s="9">
+        <f t="shared" si="12"/>
+        <v>-535480</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>1</v>
       </c>
@@ -21376,8 +21601,14 @@
       <c r="R23">
         <v>16870</v>
       </c>
+      <c r="X23" s="4">
+        <v>10020</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>10020</v>
+      </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>17</v>
       </c>
@@ -21390,63 +21621,71 @@
         <v>0.34770557437634741</v>
       </c>
       <c r="E24" s="10">
-        <f t="shared" ref="E24:R24" si="9">E22/E23</f>
+        <f t="shared" ref="E24:R24" si="13">E22/E23</f>
         <v>-1.4797212978369385</v>
       </c>
       <c r="F24" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>-7.1251548946716231E-3</v>
       </c>
       <c r="G24" s="10">
         <f>G22/G23</f>
         <v>-11.404581735254483</v>
       </c>
       <c r="H24" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-30.714857377385595</v>
       </c>
       <c r="I24" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-3.6149614961496148</v>
       </c>
       <c r="J24" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
+        <v>-8.9787425149700599</v>
+      </c>
+      <c r="K24" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K24" s="10">
-        <f t="shared" si="9"/>
+      <c r="L24" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L24" s="10">
-        <f t="shared" si="9"/>
+      <c r="M24" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M24" s="10">
-        <f t="shared" si="9"/>
+      <c r="N24" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N24" s="10">
-        <f t="shared" si="9"/>
+      <c r="O24" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O24" s="10">
-        <f t="shared" si="9"/>
+      <c r="P24" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="P24" s="10">
-        <f t="shared" si="9"/>
+      <c r="Q24" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="10">
-        <f t="shared" si="9"/>
+      <c r="R24" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R24" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="X24" s="10">
+        <f t="shared" ref="X24:Y24" si="14">X22/X23</f>
+        <v>-0.75089820359281434</v>
+      </c>
+      <c r="Y24" s="10">
+        <f t="shared" si="14"/>
+        <v>-53.441117764471059</v>
       </c>
     </row>
-    <row r="28" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
@@ -21455,7 +21694,7 @@
         <v>343077</v>
       </c>
       <c r="G28" s="9">
-        <f t="shared" ref="G28:R28" si="10">G29+G30+G33-G39-G40-G41-G42</f>
+        <f t="shared" ref="G28:R28" si="15">G29+G30+G33-G39-G40-G41-G42</f>
         <v>0</v>
       </c>
       <c r="H28" s="9">
@@ -21463,47 +21702,47 @@
         <v>-317282</v>
       </c>
       <c r="I28" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J28" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K28" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L28" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M28" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N28" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O28" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P28" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q28" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R28" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -21528,7 +21767,7 @@
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>69</v>
       </c>
@@ -21553,7 +21792,7 @@
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>18</v>
       </c>
@@ -21578,7 +21817,7 @@
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>19</v>
       </c>
@@ -21738,59 +21977,59 @@
         <v>0</v>
       </c>
       <c r="E38" s="11">
-        <f t="shared" ref="E38:R38" si="11">SUM(E29:E37)</f>
+        <f t="shared" ref="E38:R38" si="16">SUM(E29:E37)</f>
         <v>0</v>
       </c>
       <c r="F38" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1465612</v>
       </c>
       <c r="G38" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H38" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2624359</v>
       </c>
       <c r="I38" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J38" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K38" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L38" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M38" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N38" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O38" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P38" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q38" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R38" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -22004,59 +22243,59 @@
         <v>0</v>
       </c>
       <c r="E47" s="11">
-        <f t="shared" ref="E47:R47" si="12">SUM(E39:E46)</f>
+        <f t="shared" ref="E47:R47" si="17">SUM(E39:E46)</f>
         <v>0</v>
       </c>
       <c r="F47" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>912567</v>
       </c>
       <c r="G47" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H47" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2546940</v>
       </c>
       <c r="I47" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J47" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K47" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L47" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M47" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N47" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O47" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P47" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q47" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R47" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -22171,51 +22410,51 @@
         <v>2042223331.05</v>
       </c>
       <c r="G52" s="8">
-        <f t="shared" ref="G52:R52" si="13">G50*G51</f>
+        <f t="shared" ref="G52:R52" si="18">G50*G51</f>
         <v>5351820497.2799997</v>
       </c>
       <c r="H52" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3653119244.9500003</v>
       </c>
       <c r="I52" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4964768291.5199995</v>
       </c>
       <c r="J52" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>5707055348.2700005</v>
       </c>
       <c r="K52" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>5892701318.2200003</v>
       </c>
       <c r="L52" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2450665198.98</v>
       </c>
       <c r="M52" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2532466300</v>
       </c>
       <c r="N52" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2193712400</v>
       </c>
       <c r="O52" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3985581600</v>
       </c>
       <c r="P52" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4625059902.8299999</v>
       </c>
       <c r="Q52" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4277436725.1500001</v>
       </c>
       <c r="R52" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>8044816201.500001</v>
       </c>
     </row>
@@ -22239,43 +22478,43 @@
         <v>912513244.95000029</v>
       </c>
       <c r="I53" s="12">
-        <f t="shared" ref="I53:R53" si="14">I52-I55</f>
+        <f t="shared" ref="I53:R53" si="19">I52-I55</f>
         <v>1804297291.5199995</v>
       </c>
       <c r="J53" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1955526348.2700005</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1926172318.2200003</v>
       </c>
       <c r="L53" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-1525863801.02</v>
       </c>
       <c r="M53" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-1450040700</v>
       </c>
       <c r="N53" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-1845237600</v>
       </c>
       <c r="O53" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-232643400</v>
       </c>
       <c r="P53" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>59831902.829999924</v>
       </c>
       <c r="Q53" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-449472274.8499999</v>
       </c>
       <c r="R53" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>2149816201.500001</v>
       </c>
     </row>
@@ -22290,55 +22529,55 @@
         <v>11111.111111111111</v>
       </c>
       <c r="F54" s="8">
-        <f t="shared" ref="F54:R54" si="15">F55/F50</f>
+        <f t="shared" ref="F54:R54" si="20">F55/F50</f>
         <v>15964.46664490769</v>
       </c>
       <c r="G54" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>24214.079232639117</v>
       </c>
       <c r="H54" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>26079.897226055098</v>
       </c>
       <c r="I54" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>27713.219690991038</v>
       </c>
       <c r="J54" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>30159.167463884041</v>
       </c>
       <c r="K54" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>30696.412264545186</v>
       </c>
       <c r="L54" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>30659.67355183926</v>
       </c>
       <c r="M54" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>30634.669230769232</v>
       </c>
       <c r="N54" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>30482.641509433961</v>
       </c>
       <c r="O54" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>30130.178571428572</v>
       </c>
       <c r="P54" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>29968.739537723279</v>
       </c>
       <c r="Q54" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>29870.826882365953</v>
       </c>
       <c r="R54" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>31165.741475019826</v>
       </c>
     </row>
@@ -22368,7 +22607,7 @@
         <v>3160471000</v>
       </c>
       <c r="J55" s="8">
-        <f t="shared" ref="J55:R55" si="16">I55+J59</f>
+        <f t="shared" ref="J55:R55" si="21">I55+J59</f>
         <v>3751529000</v>
       </c>
       <c r="K55" s="8">
@@ -22380,27 +22619,27 @@
         <v>3976529000</v>
       </c>
       <c r="M55" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>3982507000</v>
       </c>
       <c r="N55" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>4038950000</v>
       </c>
       <c r="O55" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>4218225000</v>
       </c>
       <c r="P55" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>4565228000</v>
       </c>
       <c r="Q55" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>4726909000</v>
       </c>
       <c r="R55" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>5895000000</v>
       </c>
     </row>
@@ -22412,55 +22651,55 @@
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8">
-        <f t="shared" ref="F58:M58" si="17">F50-E50</f>
+        <f t="shared" ref="F58:M58" si="22">F50-E50</f>
         <v>32219</v>
       </c>
       <c r="G58" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>20857</v>
       </c>
       <c r="H58" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>13759</v>
       </c>
       <c r="I58" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>8957</v>
       </c>
       <c r="J58" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>10349</v>
       </c>
       <c r="K58" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>4827</v>
       </c>
       <c r="L58" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>481</v>
       </c>
       <c r="M58" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>301</v>
       </c>
       <c r="N58" s="8">
-        <f t="shared" ref="N58:R58" si="18">N50-M50</f>
+        <f t="shared" ref="N58:R58" si="23">N50-M50</f>
         <v>2500</v>
       </c>
       <c r="O58" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>7500</v>
       </c>
       <c r="P58" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>12333</v>
       </c>
       <c r="Q58" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>5912</v>
       </c>
       <c r="R58" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>30905</v>
       </c>
     </row>
@@ -22517,55 +22756,55 @@
         <v>87</v>
       </c>
       <c r="F60" s="10">
-        <f t="shared" ref="F60:L60" si="19">F59/F58</f>
+        <f t="shared" ref="F60:L60" si="24">F59/F58</f>
         <v>21726.310562090694</v>
       </c>
       <c r="G60" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>52086.829361844946</v>
       </c>
       <c r="H60" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>38464.350606875501</v>
       </c>
       <c r="I60" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>46875.628000446581</v>
       </c>
       <c r="J60" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>57112.571262923957</v>
       </c>
       <c r="K60" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>44541.122850631866</v>
       </c>
       <c r="L60" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>20790.02079002079</v>
       </c>
       <c r="M60" s="10">
-        <f t="shared" ref="M60:R60" si="20">M59/M58</f>
+        <f t="shared" ref="M60:R60" si="25">M59/M58</f>
         <v>19860.465116279069</v>
       </c>
       <c r="N60" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>22577.200000000001</v>
       </c>
       <c r="O60" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>23903.333333333332</v>
       </c>
       <c r="P60" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>28136.138814562557</v>
       </c>
       <c r="Q60" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>27347.936400541272</v>
       </c>
       <c r="R60" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>37796.18184759748</v>
       </c>
     </row>
@@ -22581,8 +22820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85EA0FE-1A7B-4E67-A576-244712A3E077}">
   <dimension ref="A1:K191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB35" sqref="AB35"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="AB63" sqref="AB63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23044,7 +23283,7 @@
         <v>1534617401.536</v>
       </c>
       <c r="H13" s="4">
-        <f>$H$12+16796</f>
+        <f t="shared" ref="H13:H24" si="5">$H$12+16796</f>
         <v>38250</v>
       </c>
       <c r="I13" s="4">
@@ -23082,7 +23321,7 @@
         <v>1405186128.0800002</v>
       </c>
       <c r="H14" s="4">
-        <f>$H$12+16796</f>
+        <f t="shared" si="5"/>
         <v>38250</v>
       </c>
       <c r="I14" s="4">
@@ -23120,7 +23359,7 @@
         <v>1408359427.3119998</v>
       </c>
       <c r="H15" s="4">
-        <f>$H$12+16796</f>
+        <f t="shared" si="5"/>
         <v>38250</v>
       </c>
       <c r="I15" s="4">
@@ -23158,7 +23397,7 @@
         <v>1595245281.2639999</v>
       </c>
       <c r="H16" s="4">
-        <f>$H$12+16796</f>
+        <f t="shared" si="5"/>
         <v>38250</v>
       </c>
       <c r="I16" s="4">
@@ -23196,7 +23435,7 @@
         <v>1594954770.948</v>
       </c>
       <c r="H17" s="4">
-        <f>$H$12+16796</f>
+        <f t="shared" si="5"/>
         <v>38250</v>
       </c>
       <c r="I17" s="4">
@@ -23234,7 +23473,7 @@
         <v>1784761229.052</v>
       </c>
       <c r="H18" s="4">
-        <f>$H$12+16796</f>
+        <f t="shared" si="5"/>
         <v>38250</v>
       </c>
       <c r="I18" s="4">
@@ -23272,7 +23511,7 @@
         <v>1617905947.7880001</v>
       </c>
       <c r="H19" s="4">
-        <f>$H$12+16796</f>
+        <f t="shared" si="5"/>
         <v>38250</v>
       </c>
       <c r="I19" s="4">
@@ -23310,7 +23549,7 @@
         <v>1797544031.5799999</v>
       </c>
       <c r="H20" s="4">
-        <f>$H$12+16796</f>
+        <f t="shared" si="5"/>
         <v>38250</v>
       </c>
       <c r="I20" s="4">
@@ -23348,7 +23587,7 @@
         <v>1861942718.7360001</v>
       </c>
       <c r="H21" s="4">
-        <f>$H$12+16796</f>
+        <f t="shared" si="5"/>
         <v>38250</v>
       </c>
       <c r="I21" s="4">
@@ -23386,7 +23625,7 @@
         <v>2150913249.684</v>
       </c>
       <c r="H22" s="4">
-        <f>$H$12+16796</f>
+        <f t="shared" si="5"/>
         <v>38250</v>
       </c>
       <c r="I22" s="4">
@@ -23424,7 +23663,7 @@
         <v>2626881936.8400002</v>
       </c>
       <c r="H23" s="4">
-        <f>$H$12+16796</f>
+        <f t="shared" si="5"/>
         <v>38250</v>
       </c>
       <c r="I23" s="4">
@@ -23462,7 +23701,7 @@
         <v>3176352000</v>
       </c>
       <c r="H24" s="4">
-        <f>$H$12+16796</f>
+        <f t="shared" si="5"/>
         <v>38250</v>
       </c>
       <c r="I24" s="4">
@@ -24162,7 +24401,7 @@
         <v>6929406000</v>
       </c>
       <c r="H42" s="8">
-        <f>H$41+253</f>
+        <f t="shared" ref="H42:H47" si="6">H$41+253</f>
         <v>91579</v>
       </c>
       <c r="I42" s="4">
@@ -24203,7 +24442,7 @@
         <v>6760020471.2700005</v>
       </c>
       <c r="H43" s="8">
-        <f>H$41+253</f>
+        <f t="shared" si="6"/>
         <v>91579</v>
       </c>
       <c r="I43" s="4">
@@ -24244,7 +24483,7 @@
         <v>5974687625.5880003</v>
       </c>
       <c r="H44" s="8">
-        <f>H$41+253</f>
+        <f t="shared" si="6"/>
         <v>91579</v>
       </c>
       <c r="I44" s="4">
@@ -24285,7 +24524,7 @@
         <v>6404681096.8580008</v>
       </c>
       <c r="H45" s="8">
-        <f>H$41+253</f>
+        <f t="shared" si="6"/>
         <v>91579</v>
       </c>
       <c r="I45" s="4">
@@ -24326,7 +24565,7 @@
         <v>6047003374.4119997</v>
       </c>
       <c r="H46" s="8">
-        <f>H$41+253</f>
+        <f t="shared" si="6"/>
         <v>91579</v>
       </c>
       <c r="I46" s="4">
@@ -24367,7 +24606,7 @@
         <v>5080687240.5079994</v>
       </c>
       <c r="H47" s="8">
-        <f>H$41+253</f>
+        <f t="shared" si="6"/>
         <v>91579</v>
       </c>
       <c r="I47" s="4">
@@ -24613,7 +24852,7 @@
         <v>5360787183.0479994</v>
       </c>
       <c r="H53" s="8">
-        <f>H$52+13005</f>
+        <f t="shared" ref="H53:H62" si="7">H$52+13005</f>
         <v>105084</v>
       </c>
       <c r="I53" s="4">
@@ -24654,7 +24893,7 @@
         <v>6194654913.8100004</v>
       </c>
       <c r="H54" s="8">
-        <f>H$52+13005</f>
+        <f t="shared" si="7"/>
         <v>105084</v>
       </c>
       <c r="I54" s="4">
@@ -24695,7 +24934,7 @@
         <v>6285971070.0270004</v>
       </c>
       <c r="H55" s="8">
-        <f>H$52+13005</f>
+        <f t="shared" si="7"/>
         <v>105084</v>
       </c>
       <c r="I55" s="4">
@@ -24736,7 +24975,7 @@
         <v>5230377179.9729996</v>
       </c>
       <c r="H56" s="8">
-        <f>H$52+13005</f>
+        <f t="shared" si="7"/>
         <v>105084</v>
       </c>
       <c r="I56" s="4">
@@ -24777,7 +25016,7 @@
         <v>5396560509.9779997</v>
       </c>
       <c r="H57" s="8">
-        <f>H$52+13005</f>
+        <f t="shared" si="7"/>
         <v>105084</v>
       </c>
       <c r="I57" s="4">
@@ -24818,7 +25057,7 @@
         <v>6259474089.9899998</v>
       </c>
       <c r="H58" s="8">
-        <f>H$52+13005</f>
+        <f t="shared" si="7"/>
         <v>105084</v>
       </c>
       <c r="I58" s="4">
@@ -24859,7 +25098,7 @@
         <v>7486450990.0290003</v>
       </c>
       <c r="H59" s="8">
-        <f>H$52+13005</f>
+        <f t="shared" si="7"/>
         <v>105084</v>
       </c>
       <c r="I59" s="4">
@@ -24900,7 +25139,7 @@
         <v>7279272000</v>
       </c>
       <c r="H60" s="8">
-        <f>H$52+13005</f>
+        <f t="shared" si="7"/>
         <v>105084</v>
       </c>
       <c r="I60" s="4">
@@ -24941,7 +25180,7 @@
         <v>7164883420.0019999</v>
       </c>
       <c r="H61" s="8">
-        <f>H$52+13005</f>
+        <f t="shared" si="7"/>
         <v>105084</v>
       </c>
       <c r="I61" s="4">
@@ -24982,7 +25221,7 @@
         <v>7071292919.9879999</v>
       </c>
       <c r="H62" s="8">
-        <f>H$52+13005</f>
+        <f t="shared" si="7"/>
         <v>105084</v>
       </c>
       <c r="I62" s="4">
@@ -25105,7 +25344,7 @@
         <v>6142285490.0220003</v>
       </c>
       <c r="H65" s="8">
-        <f>H$64+5050</f>
+        <f t="shared" ref="H65:H75" si="8">H$64+5050</f>
         <v>114041</v>
       </c>
       <c r="I65" s="4">
@@ -25146,7 +25385,7 @@
         <v>5993300759.9849997</v>
       </c>
       <c r="H66" s="8">
-        <f>H$64+5050</f>
+        <f t="shared" si="8"/>
         <v>114041</v>
       </c>
       <c r="I66" s="4">
@@ -25183,19 +25422,19 @@
         <v>9999000</v>
       </c>
       <c r="G67" s="4">
-        <f t="shared" ref="G67:G130" si="5">F67*D67</f>
+        <f t="shared" ref="G67:G130" si="9">F67*D67</f>
         <v>6123987759.9779997</v>
       </c>
       <c r="H67" s="8">
-        <f>H$64+5050</f>
+        <f t="shared" si="8"/>
         <v>114041</v>
       </c>
       <c r="I67" s="4">
-        <f t="shared" ref="I67:I130" si="6">H67*B67</f>
+        <f t="shared" ref="I67:I130" si="10">H67*B67</f>
         <v>5496770854.328125</v>
       </c>
       <c r="J67" s="14">
-        <f t="shared" ref="J67:J130" si="7">G67/I67-1</f>
+        <f t="shared" ref="J67:J130" si="11">G67/I67-1</f>
         <v>0.11410643126154829</v>
       </c>
       <c r="K67">
@@ -25224,19 +25463,19 @@
         <v>10020000</v>
       </c>
       <c r="G68" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7102376470.1400003</v>
       </c>
       <c r="H68" s="8">
-        <f>H$64+5050</f>
+        <f t="shared" si="8"/>
         <v>114041</v>
       </c>
       <c r="I68" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6246205540.953125</v>
       </c>
       <c r="J68" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.13707056605380785</v>
       </c>
       <c r="K68">
@@ -25251,33 +25490,33 @@
         <v>61553.617187999997</v>
       </c>
       <c r="C69" s="14">
-        <f t="shared" ref="C69:C132" si="8">C68+B69/B68-1</f>
+        <f t="shared" ref="C69:C132" si="12">C68+B69/B68-1</f>
         <v>2.3017666097469816</v>
       </c>
       <c r="D69" s="10">
         <v>749.84997599999997</v>
       </c>
       <c r="E69" s="14">
-        <f t="shared" ref="E69:E132" si="9">E68+D69/D68-1</f>
+        <f t="shared" ref="E69:E132" si="13">E68+D69/D68-1</f>
         <v>2.3930457864123333</v>
       </c>
       <c r="F69" s="4">
         <v>10020000</v>
       </c>
       <c r="G69" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7513496759.5199995</v>
       </c>
       <c r="H69" s="8">
-        <f>H$64+5050</f>
+        <f t="shared" si="8"/>
         <v>114041</v>
       </c>
       <c r="I69" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7019636057.7367077</v>
       </c>
       <c r="J69" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7.0354174735167696E-2</v>
       </c>
       <c r="K69">
@@ -25292,33 +25531,33 @@
         <v>60930.835937999997</v>
       </c>
       <c r="C70" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.2916489062154755</v>
       </c>
       <c r="D70" s="10">
         <v>718.52002000000005</v>
       </c>
       <c r="E70" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.3512641540821884</v>
       </c>
       <c r="F70" s="4">
         <v>10020000</v>
       </c>
       <c r="G70" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7199570600.4000006</v>
       </c>
       <c r="H70" s="8">
-        <f>H$64+5050</f>
+        <f t="shared" si="8"/>
         <v>114041</v>
       </c>
       <c r="I70" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6948613461.2054577</v>
       </c>
       <c r="J70" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.6116146134139271E-2</v>
       </c>
       <c r="K70">
@@ -25333,33 +25572,33 @@
         <v>61318.957030999998</v>
       </c>
       <c r="C71" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.2980187694714944</v>
       </c>
       <c r="D71" s="10">
         <v>715.05999799999995</v>
       </c>
       <c r="E71" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.346448669608979</v>
       </c>
       <c r="F71" s="4">
         <v>10020000</v>
       </c>
       <c r="G71" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7164901179.9599991</v>
       </c>
       <c r="H71" s="8">
-        <f>H$64+5050</f>
+        <f t="shared" si="8"/>
         <v>114041</v>
       </c>
       <c r="I71" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6992875178.7722712</v>
       </c>
       <c r="J71" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.4600181869388171E-2</v>
       </c>
       <c r="K71">
@@ -25374,33 +25613,33 @@
         <v>63326.988280999998</v>
       </c>
       <c r="C72" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.3307660852646324</v>
       </c>
       <c r="D72" s="10">
         <v>797.51000999999997</v>
       </c>
       <c r="E72" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.461753696083135</v>
       </c>
       <c r="F72" s="4">
         <v>10020000</v>
       </c>
       <c r="G72" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7991050300.1999998</v>
       </c>
       <c r="H72" s="8">
-        <f>H$64+5050</f>
+        <f t="shared" si="8"/>
         <v>114041</v>
       </c>
       <c r="I72" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7221873070.5535212</v>
       </c>
       <c r="J72" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.10650661153028618</v>
       </c>
       <c r="K72">
@@ -25415,33 +25654,33 @@
         <v>65466.839844000002</v>
       </c>
       <c r="C73" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.3645566005107526</v>
       </c>
       <c r="D73" s="10">
         <v>811.72997999999995</v>
       </c>
       <c r="E73" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.4795841556657052</v>
       </c>
       <c r="F73" s="4">
         <v>10020000</v>
       </c>
       <c r="G73" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8133534399.5999994</v>
       </c>
       <c r="H73" s="8">
-        <f>H$64+5050</f>
+        <f t="shared" si="8"/>
         <v>114041</v>
       </c>
       <c r="I73" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7465903882.6496038</v>
       </c>
       <c r="J73" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8.9423936799124304E-2</v>
       </c>
       <c r="K73">
@@ -25456,33 +25695,33 @@
         <v>58730.476562999997</v>
       </c>
       <c r="C74" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.2616592665772375</v>
       </c>
       <c r="D74" s="10">
         <v>718.30999799999995</v>
       </c>
       <c r="E74" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.3644966459004504</v>
       </c>
       <c r="F74" s="4">
         <v>10020000</v>
       </c>
       <c r="G74" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7197466179.9599991</v>
       </c>
       <c r="H74" s="8">
-        <f>H$64+5050</f>
+        <f t="shared" si="8"/>
         <v>114041</v>
       </c>
       <c r="I74" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6697682277.7210827</v>
       </c>
       <c r="J74" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7.4620425621170217E-2</v>
       </c>
       <c r="K74">
@@ -25497,33 +25736,33 @@
         <v>57248.457030999998</v>
       </c>
       <c r="C75" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.2364250165127033</v>
       </c>
       <c r="D75" s="10">
         <v>663</v>
       </c>
       <c r="E75" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.2874964674900142</v>
       </c>
       <c r="F75" s="4">
         <v>10020000</v>
       </c>
       <c r="G75" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6643260000</v>
       </c>
       <c r="H75" s="8">
-        <f>H$64+5050</f>
+        <f t="shared" si="8"/>
         <v>114041</v>
       </c>
       <c r="I75" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6528671288.2722712</v>
       </c>
       <c r="J75" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.75516129803579E-2</v>
       </c>
       <c r="K75">
@@ -25538,21 +25777,21 @@
         <v>49368.847655999998</v>
       </c>
       <c r="C76" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.0987862086976179</v>
       </c>
       <c r="D76" s="10">
         <v>630.98999000000003</v>
       </c>
       <c r="E76" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.2392159094206328</v>
       </c>
       <c r="F76" s="4">
         <v>10020000</v>
       </c>
       <c r="G76" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6322519699.8000002</v>
       </c>
       <c r="H76" s="8">
@@ -25560,11 +25799,11 @@
         <v>121043</v>
       </c>
       <c r="I76" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5975753426.8252077</v>
       </c>
       <c r="J76" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.8028879072914208E-2</v>
       </c>
       <c r="K76">
@@ -25579,21 +25818,21 @@
         <v>50098.335937999997</v>
       </c>
       <c r="C77" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.1135624961062902</v>
       </c>
       <c r="D77" s="10">
         <v>600.84002699999996</v>
       </c>
       <c r="E77" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.1914339105334553</v>
       </c>
       <c r="F77" s="4">
         <v>10020000</v>
       </c>
       <c r="G77" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6020417070.54</v>
       </c>
       <c r="H77" s="8">
@@ -25601,11 +25840,11 @@
         <v>121043</v>
       </c>
       <c r="I77" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6064052876.9433336</v>
       </c>
       <c r="J77" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-7.1958156185024658E-3</v>
       </c>
       <c r="K77">
@@ -25620,21 +25859,21 @@
         <v>46707.015625</v>
       </c>
       <c r="C78" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.0458692234754992</v>
       </c>
       <c r="D78" s="10">
         <v>571.580017</v>
       </c>
       <c r="E78" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.1427354072960867</v>
       </c>
       <c r="F78" s="4">
         <v>10020000</v>
       </c>
       <c r="G78" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5727231770.3400002</v>
       </c>
       <c r="H78" s="8">
@@ -25642,11 +25881,11 @@
         <v>122477</v>
       </c>
       <c r="I78" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5720535152.703125</v>
       </c>
       <c r="J78" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.170627827312698E-3</v>
       </c>
       <c r="K78">
@@ -25661,21 +25900,21 @@
         <v>50809.515625</v>
       </c>
       <c r="C79" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.1337039940148554</v>
       </c>
       <c r="D79" s="10">
         <v>597.21002199999998</v>
       </c>
       <c r="E79" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.1875760319465458</v>
       </c>
       <c r="F79" s="4">
         <v>10020000</v>
       </c>
       <c r="G79" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5984044420.4399996</v>
       </c>
       <c r="H79" s="8">
@@ -25683,11 +25922,11 @@
         <v>122477</v>
       </c>
       <c r="I79" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6222997045.203125</v>
       </c>
       <c r="J79" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-3.8398318853022362E-2</v>
       </c>
       <c r="K79">
@@ -25702,21 +25941,21 @@
         <v>47345.21875</v>
       </c>
       <c r="C80" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.0655219451921849</v>
       </c>
       <c r="D80" s="10">
         <v>544.48999000000003</v>
       </c>
       <c r="E80" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0992988261765464</v>
       </c>
       <c r="F80" s="4">
         <v>10020000</v>
       </c>
       <c r="G80" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5455789699.8000002</v>
       </c>
       <c r="H80" s="8">
@@ -25724,11 +25963,11 @@
         <v>122477</v>
       </c>
       <c r="I80" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5798700356.84375</v>
       </c>
       <c r="J80" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-5.9135778009125617E-2</v>
       </c>
       <c r="K80">
@@ -25743,21 +25982,21 @@
         <v>41911.601562999997</v>
       </c>
       <c r="C81" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.9507560336501668</v>
       </c>
       <c r="D81" s="10">
         <v>482.95001200000002</v>
       </c>
       <c r="E81" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.9862756684872744</v>
       </c>
       <c r="F81" s="4">
         <v>11289000</v>
       </c>
       <c r="G81" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5452022685.4680004</v>
       </c>
       <c r="H81" s="8">
@@ -25765,11 +26004,11 @@
         <v>124391</v>
       </c>
       <c r="I81" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5213426030.0231323</v>
       </c>
       <c r="J81" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.5765808140526998E-2</v>
       </c>
       <c r="K81">
@@ -25784,21 +26023,21 @@
         <v>43113.878905999998</v>
       </c>
       <c r="C82" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.9794420608637244</v>
       </c>
       <c r="D82" s="10">
         <v>499.55999800000001</v>
       </c>
       <c r="E82" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0206684329293219</v>
       </c>
       <c r="F82" s="4">
         <v>11289000</v>
       </c>
       <c r="G82" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5639532817.4219999</v>
       </c>
       <c r="H82" s="8">
@@ -25806,11 +26045,11 @@
         <v>124391</v>
       </c>
       <c r="I82" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5362978510.9962454</v>
       </c>
       <c r="J82" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.1567297138839452E-2</v>
       </c>
       <c r="K82">
@@ -25825,21 +26064,21 @@
         <v>36276.804687999997</v>
       </c>
       <c r="C83" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.8208603143011688</v>
       </c>
       <c r="D83" s="10">
         <v>375.89001500000001</v>
       </c>
       <c r="E83" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.7731106150593652</v>
       </c>
       <c r="F83" s="4">
         <v>11289000</v>
       </c>
       <c r="G83" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4243422379.335</v>
       </c>
       <c r="H83" s="8">
@@ -25847,11 +26086,11 @@
         <v>124391</v>
       </c>
       <c r="I83" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4512508011.9450073</v>
       </c>
       <c r="J83" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-5.9631059246368912E-2</v>
       </c>
       <c r="K83">
@@ -25866,21 +26105,21 @@
         <v>37917.601562999997</v>
       </c>
       <c r="C84" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.866090231575078</v>
       </c>
       <c r="D84" s="10">
         <v>338.95001200000002</v>
       </c>
       <c r="E84" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.6748371799429789</v>
       </c>
       <c r="F84" s="4">
         <v>11289000</v>
       </c>
       <c r="G84" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3826406685.4679999</v>
       </c>
       <c r="H84" s="8">
@@ -25888,11 +26127,11 @@
         <v>124391</v>
       </c>
       <c r="I84" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4716608376.0231323</v>
       </c>
       <c r="J84" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.18873767325701041</v>
       </c>
       <c r="K84">
@@ -25907,21 +26146,21 @@
         <v>42412.433594000002</v>
       </c>
       <c r="C85" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.9846323293270114</v>
       </c>
       <c r="D85" s="10">
         <v>391.64001500000001</v>
       </c>
       <c r="E85" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.8302878397293547</v>
       </c>
       <c r="F85" s="4">
         <v>11289000</v>
       </c>
       <c r="G85" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4421224129.335</v>
       </c>
       <c r="H85" s="8">
@@ -25929,11 +26168,11 @@
         <v>124391</v>
       </c>
       <c r="I85" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5275725027.1912546</v>
       </c>
       <c r="J85" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.16196842963803648</v>
       </c>
       <c r="K85">
@@ -25948,33 +26187,33 @@
         <v>42197.515625</v>
       </c>
       <c r="C86" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.9795649952745178</v>
       </c>
       <c r="D86" s="10">
         <v>411.01001000000002</v>
       </c>
       <c r="E86" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.8797465116171086</v>
       </c>
       <c r="F86" s="4">
         <v>11289000</v>
       </c>
       <c r="G86" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4639892002.8900003</v>
       </c>
       <c r="H86" s="8">
-        <f>H$85+660</f>
+        <f t="shared" ref="H86:H94" si="14">H$85+660</f>
         <v>125051</v>
       </c>
       <c r="I86" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5276841526.421875</v>
       </c>
       <c r="J86" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.12070658562372594</v>
       </c>
       <c r="K86">
@@ -25989,33 +26228,33 @@
         <v>38431.378905999998</v>
       </c>
       <c r="C87" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.8903147950383516</v>
       </c>
       <c r="D87" s="10">
         <v>395.97000100000002</v>
       </c>
       <c r="E87" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.8431537069795767</v>
       </c>
       <c r="F87" s="4">
         <v>11289000</v>
       </c>
       <c r="G87" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4470105341.2890005</v>
       </c>
       <c r="H87" s="8">
-        <f>H$85+660</f>
+        <f t="shared" si="14"/>
         <v>125051</v>
       </c>
       <c r="I87" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4805882363.5742054</v>
       </c>
       <c r="J87" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-6.986792369913164E-2</v>
       </c>
       <c r="K87">
@@ -26030,33 +26269,33 @@
         <v>37709.785155999998</v>
       </c>
       <c r="C88" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.871538634241078</v>
       </c>
       <c r="D88" s="10">
         <v>405</v>
       </c>
       <c r="E88" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.8659584623327481</v>
       </c>
       <c r="F88" s="4">
         <v>11289000</v>
       </c>
       <c r="G88" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4572045000</v>
       </c>
       <c r="H88" s="8">
-        <f>H$85+660</f>
+        <f t="shared" si="14"/>
         <v>125051</v>
       </c>
       <c r="I88" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4715646343.5429554</v>
       </c>
       <c r="J88" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-3.0452102019818739E-2</v>
       </c>
       <c r="K88">
@@ -26071,33 +26310,33 @@
         <v>38419.984375</v>
       </c>
       <c r="C89" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.8903719215711972</v>
       </c>
       <c r="D89" s="10">
         <v>410.35998499999999</v>
       </c>
       <c r="E89" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.8791929931969458</v>
       </c>
       <c r="F89" s="4">
         <v>11289000</v>
       </c>
       <c r="G89" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4632553870.665</v>
       </c>
       <c r="H89" s="8">
-        <f>H$85+660</f>
+        <f t="shared" si="14"/>
         <v>125051</v>
       </c>
       <c r="I89" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4804457466.078125</v>
       </c>
       <c r="J89" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-3.5780022328608441E-2</v>
       </c>
       <c r="K89">
@@ -26112,33 +26351,33 @@
         <v>37849.664062999997</v>
       </c>
       <c r="C90" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.8755275555133308</v>
       </c>
       <c r="D90" s="10">
         <v>390.82000699999998</v>
       </c>
       <c r="E90" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.8315763182913747</v>
       </c>
       <c r="F90" s="4">
         <v>11289000</v>
       </c>
       <c r="G90" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4411967059.0229998</v>
       </c>
       <c r="H90" s="8">
-        <f>H$85+660</f>
+        <f t="shared" si="14"/>
         <v>125051</v>
       </c>
       <c r="I90" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4733138340.7422123</v>
       </c>
       <c r="J90" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-6.7855883052184152E-2</v>
       </c>
       <c r="K90">
@@ -26153,33 +26392,33 @@
         <v>41247.824219000002</v>
       </c>
       <c r="C91" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.9653080130186824</v>
       </c>
       <c r="D91" s="10">
         <v>454.27999899999998</v>
       </c>
       <c r="E91" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.9939528365436758</v>
       </c>
       <c r="F91" s="4">
         <v>11289000</v>
       </c>
       <c r="G91" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5128366908.7109995</v>
       </c>
       <c r="H91" s="8">
-        <f>H$85+660</f>
+        <f t="shared" si="14"/>
         <v>125051</v>
       </c>
       <c r="I91" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5158081666.4101696</v>
       </c>
       <c r="J91" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-5.760815671584818E-3</v>
       </c>
       <c r="K91">
@@ -26194,33 +26433,33 @@
         <v>46820.492187999997</v>
       </c>
       <c r="C92" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.100410120208934</v>
       </c>
       <c r="D92" s="10">
         <v>472.42001299999998</v>
       </c>
       <c r="E92" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0338841873403899</v>
       </c>
       <c r="F92" s="4">
         <v>11289000</v>
       </c>
       <c r="G92" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5333149526.757</v>
       </c>
       <c r="H92" s="8">
-        <f>H$85+660</f>
+        <f t="shared" si="14"/>
         <v>125051</v>
       </c>
       <c r="I92" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5854949368.6015873</v>
       </c>
       <c r="J92" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-8.9121153573564649E-2</v>
       </c>
       <c r="K92">
@@ -26235,33 +26474,33 @@
         <v>46453.566405999998</v>
       </c>
       <c r="C93" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.0925732572275142</v>
       </c>
       <c r="D93" s="10">
         <v>490.98001099999999</v>
       </c>
       <c r="E93" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0731712570860994</v>
       </c>
       <c r="F93" s="4">
         <v>11289000</v>
       </c>
       <c r="G93" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5542673344.1789999</v>
       </c>
       <c r="H93" s="8">
-        <f>H$85+660</f>
+        <f t="shared" si="14"/>
         <v>125051</v>
       </c>
       <c r="I93" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5809064932.6367054</v>
       </c>
       <c r="J93" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-4.5857911995621614E-2</v>
       </c>
       <c r="K93">
@@ -26276,33 +26515,33 @@
         <v>42207.671875</v>
       </c>
       <c r="C94" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.0011724271192022</v>
       </c>
       <c r="D94" s="10">
         <v>453.23998999999998</v>
       </c>
       <c r="E94" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.9963045412229965</v>
       </c>
       <c r="F94" s="4">
         <v>11300000</v>
       </c>
       <c r="G94" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5121611887</v>
       </c>
       <c r="H94" s="8">
-        <f>H$85+660</f>
+        <f t="shared" si="14"/>
         <v>125051</v>
       </c>
       <c r="I94" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5278111575.640625</v>
       </c>
       <c r="J94" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-2.9650697299181239E-2</v>
       </c>
       <c r="K94">
@@ -26317,33 +26556,33 @@
         <v>39716.953125</v>
       </c>
       <c r="C95" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.9421613838809875</v>
       </c>
       <c r="D95" s="10">
         <v>449.19000199999999</v>
       </c>
       <c r="E95" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.9873689042771039</v>
       </c>
       <c r="F95" s="4">
         <v>11300000</v>
       </c>
       <c r="G95" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5075847022.6000004</v>
       </c>
       <c r="H95" s="8">
-        <f>H$94+4167</f>
+        <f t="shared" ref="H95:H106" si="15">H$94+4167</f>
         <v>129218</v>
       </c>
       <c r="I95" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5132145248.90625</v>
       </c>
       <c r="J95" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-1.0969725831171284E-2</v>
       </c>
       <c r="K95">
@@ -26358,33 +26597,33 @@
         <v>39469.292969000002</v>
       </c>
       <c r="C96" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.9359257556035478</v>
       </c>
       <c r="D96" s="10">
         <v>409.07998700000002</v>
       </c>
       <c r="E96" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.8980748086351444</v>
       </c>
       <c r="F96" s="4">
         <v>11300000</v>
       </c>
       <c r="G96" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4622603853.1000004</v>
       </c>
       <c r="H96" s="8">
-        <f>H$94+4167</f>
+        <f t="shared" si="15"/>
         <v>129218</v>
       </c>
       <c r="I96" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5100143098.8682423</v>
       </c>
       <c r="J96" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-9.3632519031517258E-2</v>
       </c>
       <c r="K96">
@@ -26399,33 +26638,33 @@
         <v>38469.09375</v>
       </c>
       <c r="C97" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.9105845563126058</v>
       </c>
       <c r="D97" s="10">
         <v>354.17001299999998</v>
       </c>
       <c r="E97" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.7638468440684005</v>
       </c>
       <c r="F97" s="4">
         <v>11300000</v>
       </c>
       <c r="G97" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4002121146.8999996</v>
       </c>
       <c r="H97" s="8">
-        <f>H$94+4167</f>
+        <f t="shared" si="15"/>
         <v>129218</v>
       </c>
       <c r="I97" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4970899356.1875</v>
       </c>
       <c r="J97" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.19488992632321533</v>
       </c>
       <c r="K97">
@@ -26440,33 +26679,33 @@
         <v>34059.265625</v>
       </c>
       <c r="C98" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.7959515432851023</v>
       </c>
       <c r="D98" s="10">
         <v>294.23998999999998</v>
       </c>
       <c r="E98" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.5946342602802863</v>
       </c>
       <c r="F98" s="4">
         <v>11300000</v>
       </c>
       <c r="G98" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3324911886.9999995</v>
       </c>
       <c r="H98" s="8">
-        <f>H$94+4167</f>
+        <f t="shared" si="15"/>
         <v>129218</v>
       </c>
       <c r="I98" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4401070185.53125</v>
       </c>
       <c r="J98" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.24452195787951247</v>
       </c>
       <c r="K98">
@@ -26481,33 +26720,33 @@
         <v>31305.113281000002</v>
       </c>
       <c r="C99" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.7150880163281848</v>
       </c>
       <c r="D99" s="10">
         <v>204.570007</v>
       </c>
       <c r="E99" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.2898830842079922</v>
       </c>
       <c r="F99" s="4">
         <v>11300000</v>
       </c>
       <c r="G99" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2311641079.0999999</v>
       </c>
       <c r="H99" s="8">
-        <f>H$94+4167</f>
+        <f t="shared" si="15"/>
         <v>129218</v>
       </c>
       <c r="I99" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4045184127.9442582</v>
       </c>
       <c r="J99" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.42854490525385203</v>
       </c>
       <c r="K99">
@@ -26522,33 +26761,33 @@
         <v>30323.722656000002</v>
       </c>
       <c r="C100" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.6837388045815009</v>
       </c>
       <c r="D100" s="10">
         <v>202.75</v>
       </c>
       <c r="E100" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.2809863401217489</v>
       </c>
       <c r="F100" s="4">
         <v>11300000</v>
       </c>
       <c r="G100" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2291075000</v>
       </c>
       <c r="H100" s="8">
-        <f>H$94+4167</f>
+        <f t="shared" si="15"/>
         <v>129218</v>
       </c>
       <c r="I100" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3918370794.1630082</v>
       </c>
       <c r="J100" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.41529908210501809</v>
       </c>
       <c r="K100">
@@ -26563,33 +26802,33 @@
         <v>29445.957031000002</v>
       </c>
       <c r="C101" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.6547923050056541</v>
       </c>
       <c r="D101" s="10">
         <v>219.38999899999999</v>
       </c>
       <c r="E101" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.3630578518356824</v>
       </c>
       <c r="F101" s="4">
         <v>11300000</v>
       </c>
       <c r="G101" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2479106988.6999998</v>
       </c>
       <c r="H101" s="8">
-        <f>H$94+4167</f>
+        <f t="shared" si="15"/>
         <v>129218</v>
       </c>
       <c r="I101" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3804947675.6317582</v>
       </c>
       <c r="J101" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.34845175281198082</v>
       </c>
       <c r="K101">
@@ -26604,33 +26843,33 @@
         <v>29906.662109000001</v>
       </c>
       <c r="C102" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.670438088822936</v>
       </c>
       <c r="D102" s="10">
         <v>227.220001</v>
       </c>
       <c r="E102" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.3987477284740431</v>
       </c>
       <c r="F102" s="4">
         <v>11300000</v>
       </c>
       <c r="G102" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2567586011.3000002</v>
       </c>
       <c r="H102" s="8">
-        <f>H$94+4167</f>
+        <f t="shared" si="15"/>
         <v>129218</v>
       </c>
       <c r="I102" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3864479064.4007621</v>
       </c>
       <c r="J102" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.33559324076759156</v>
       </c>
       <c r="K102">
@@ -26645,33 +26884,33 @@
         <v>26762.648438</v>
       </c>
       <c r="C103" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.5653105537091507</v>
       </c>
       <c r="D103" s="10">
         <v>203.36000100000001</v>
       </c>
       <c r="E103" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.2937393669962169</v>
       </c>
       <c r="F103" s="4">
         <v>11300000</v>
       </c>
       <c r="G103" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2297968011.3000002</v>
       </c>
       <c r="H103" s="8">
-        <f>H$94+4167</f>
+        <f t="shared" si="15"/>
         <v>129218</v>
       </c>
       <c r="I103" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3458215905.8614841</v>
       </c>
       <c r="J103" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.33550475914327038</v>
       </c>
       <c r="K103">
@@ -26686,33 +26925,33 @@
         <v>20553.271484000001</v>
       </c>
       <c r="C104" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.3332940188589086</v>
       </c>
       <c r="D104" s="10">
         <v>167.60000600000001</v>
       </c>
       <c r="E104" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.1178936017318866</v>
       </c>
       <c r="F104" s="4">
         <v>11300000</v>
       </c>
       <c r="G104" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1893880067.8000002</v>
       </c>
       <c r="H104" s="8">
-        <f>H$94+4167</f>
+        <f t="shared" si="15"/>
         <v>129218</v>
       </c>
       <c r="I104" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2655852634.6195121</v>
       </c>
       <c r="J104" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.28690318012643612</v>
       </c>
       <c r="K104">
@@ -26727,33 +26966,33 @@
         <v>21027.294922000001</v>
       </c>
       <c r="C105" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.3563571812546864</v>
       </c>
       <c r="D105" s="10">
         <v>205.44000199999999</v>
       </c>
       <c r="E105" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.343669226107461</v>
       </c>
       <c r="F105" s="4">
         <v>11300000</v>
       </c>
       <c r="G105" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2321472022.5999999</v>
       </c>
       <c r="H105" s="8">
-        <f>H$94+4167</f>
+        <f t="shared" si="15"/>
         <v>129218</v>
       </c>
       <c r="I105" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2717104995.2309961</v>
       </c>
       <c r="J105" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.14560827547165189</v>
       </c>
       <c r="K105">
@@ -26768,33 +27007,33 @@
         <v>19297.076172000001</v>
       </c>
       <c r="C106" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.2740727620548711</v>
       </c>
       <c r="D106" s="10">
         <v>166.770004</v>
       </c>
       <c r="E106" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.1554390974882063</v>
       </c>
       <c r="F106" s="4">
         <v>11300000</v>
       </c>
       <c r="G106" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1884501045.2</v>
       </c>
       <c r="H106" s="8">
-        <f>H$94+4167</f>
+        <f t="shared" si="15"/>
         <v>129218</v>
       </c>
       <c r="I106" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2493529588.7934961</v>
       </c>
       <c r="J106" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.24424355994435054</v>
       </c>
       <c r="K106">
@@ -26809,33 +27048,33 @@
         <v>20860.449218999998</v>
       </c>
       <c r="C107" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.3550888202942248</v>
       </c>
       <c r="D107" s="10">
         <v>221.279999</v>
       </c>
       <c r="E107" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.4822964081110448</v>
       </c>
       <c r="F107" s="4">
         <v>11308000</v>
       </c>
       <c r="G107" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2502234228.6919999</v>
       </c>
       <c r="H107" s="8">
-        <f>H$106+480</f>
+        <f t="shared" ref="H107:H118" si="16">H$106+480</f>
         <v>129698</v>
       </c>
       <c r="I107" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2705558542.8058619</v>
       </c>
       <c r="J107" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-7.5150587539310809E-2</v>
       </c>
       <c r="K107">
@@ -26850,33 +27089,33 @@
         <v>20779.34375</v>
       </c>
       <c r="C108" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.3512008182599193</v>
       </c>
       <c r="D108" s="10">
         <v>213.979996</v>
       </c>
       <c r="E108" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.4493065173256605</v>
       </c>
       <c r="F108" s="4">
         <v>11308000</v>
       </c>
       <c r="G108" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2419685794.7680001</v>
       </c>
       <c r="H108" s="8">
-        <f>H$106+480</f>
+        <f t="shared" si="16"/>
         <v>129698</v>
       </c>
       <c r="I108" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2695039325.6875</v>
       </c>
       <c r="J108" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.10217050574920927</v>
       </c>
       <c r="K108">
@@ -26891,33 +27130,33 @@
         <v>22609.164063</v>
       </c>
       <c r="C109" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.4392603996891933</v>
       </c>
       <c r="D109" s="10">
         <v>281.92001299999998</v>
       </c>
       <c r="E109" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.7668129117084326</v>
       </c>
       <c r="F109" s="4">
         <v>11308000</v>
       </c>
       <c r="G109" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3187951507.0039997</v>
       </c>
       <c r="H109" s="8">
-        <f>H$106+480</f>
+        <f t="shared" si="16"/>
         <v>129698</v>
       </c>
       <c r="I109" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2932363360.6429739</v>
       </c>
       <c r="J109" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8.7161144417308378E-2</v>
       </c>
       <c r="K109">
@@ -26932,33 +27171,33 @@
         <v>23336.896484000001</v>
       </c>
       <c r="C110" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.4714478975981029</v>
       </c>
       <c r="D110" s="10">
         <v>286.05999800000001</v>
       </c>
       <c r="E110" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.7814978748507975</v>
       </c>
       <c r="F110" s="4">
         <v>11308000</v>
       </c>
       <c r="G110" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3234766457.3840003</v>
       </c>
       <c r="H110" s="8">
-        <f>H$106+480</f>
+        <f t="shared" si="16"/>
         <v>129698</v>
       </c>
       <c r="I110" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3026748800.1818323</v>
       </c>
       <c r="J110" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.8726435834275845E-2</v>
       </c>
       <c r="K110">
@@ -26973,33 +27212,33 @@
         <v>23175.890625</v>
       </c>
       <c r="C111" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.4645487000501176</v>
       </c>
       <c r="D111" s="10">
         <v>319.14999399999999</v>
       </c>
       <c r="E111" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.8971728948862796</v>
       </c>
       <c r="F111" s="4">
         <v>11308000</v>
       </c>
       <c r="G111" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3608948132.152</v>
       </c>
       <c r="H111" s="8">
-        <f>H$106+480</f>
+        <f t="shared" si="16"/>
         <v>129698</v>
       </c>
       <c r="I111" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3005866662.28125</v>
       </c>
       <c r="J111" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.20063480441046977</v>
       </c>
       <c r="K111">
@@ -27014,33 +27253,33 @@
         <v>24319.333984000001</v>
       </c>
       <c r="C112" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.5138863232509521</v>
       </c>
       <c r="D112" s="10">
         <v>352.83999599999999</v>
       </c>
       <c r="E112" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0027345512653172</v>
       </c>
       <c r="F112" s="4">
         <v>11308000</v>
       </c>
       <c r="G112" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3989914674.7679996</v>
       </c>
       <c r="H112" s="8">
-        <f>H$106+480</f>
+        <f t="shared" si="16"/>
         <v>129698</v>
       </c>
       <c r="I112" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3154168979.0568323</v>
       </c>
       <c r="J112" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.26496541601302348</v>
       </c>
       <c r="K112">
@@ -27055,33 +27294,33 @@
         <v>21534.121093999998</v>
       </c>
       <c r="C113" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.399359630544958</v>
       </c>
       <c r="D113" s="10">
         <v>283</v>
       </c>
       <c r="E113" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.8047978184919726</v>
       </c>
       <c r="F113" s="4">
         <v>11308000</v>
       </c>
       <c r="G113" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3200164000</v>
       </c>
       <c r="H113" s="8">
-        <f>H$106+480</f>
+        <f t="shared" si="16"/>
         <v>129698</v>
       </c>
       <c r="I113" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2792932437.6496119</v>
       </c>
       <c r="J113" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.14580788165899672</v>
       </c>
       <c r="K113">
@@ -27096,33 +27335,33 @@
         <v>19616.814452999999</v>
       </c>
       <c r="C114" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.3103238796716981</v>
       </c>
       <c r="D114" s="10">
         <v>249.199997</v>
       </c>
       <c r="E114" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.6853631789160008</v>
       </c>
       <c r="F114" s="4">
         <v>11308000</v>
       </c>
       <c r="G114" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2817953566.0759997</v>
       </c>
       <c r="H114" s="8">
-        <f>H$106+480</f>
+        <f t="shared" si="16"/>
         <v>129698</v>
       </c>
       <c r="I114" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2544261600.9251938</v>
       </c>
       <c r="J114" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.10757225792005065</v>
       </c>
       <c r="K114">
@@ -27137,33 +27376,33 @@
         <v>19986.712890999999</v>
       </c>
       <c r="C115" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.3291800726018113</v>
       </c>
       <c r="D115" s="10">
         <v>218.05999800000001</v>
       </c>
       <c r="E115" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.5604033098354249</v>
       </c>
       <c r="F115" s="4">
         <v>11308000</v>
       </c>
       <c r="G115" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2465822457.3840003</v>
       </c>
       <c r="H115" s="8">
-        <f>H$106+480</f>
+        <f t="shared" si="16"/>
         <v>129698</v>
       </c>
       <c r="I115" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2592236688.5369177</v>
       </c>
       <c r="J115" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-4.8766469401475332E-2</v>
       </c>
       <c r="K115">
@@ -27178,33 +27417,33 @@
         <v>21769.255859000001</v>
       </c>
       <c r="C116" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.4183664724726315</v>
       </c>
       <c r="D116" s="10">
         <v>261.97000100000002</v>
       </c>
       <c r="E116" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.7617699217896265</v>
       </c>
       <c r="F116" s="4">
         <v>11308000</v>
       </c>
       <c r="G116" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2962356771.3080001</v>
       </c>
       <c r="H116" s="8">
-        <f>H$106+480</f>
+        <f t="shared" si="16"/>
         <v>129698</v>
       </c>
       <c r="I116" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2823428946.4005823</v>
       </c>
       <c r="J116" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.9205355454235322E-2</v>
       </c>
       <c r="K116">
@@ -27219,33 +27458,33 @@
         <v>19419.505859000001</v>
       </c>
       <c r="C117" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.3104275509394663</v>
       </c>
       <c r="D117" s="10">
         <v>206.33999600000001</v>
       </c>
       <c r="E117" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.5494173440606982</v>
       </c>
       <c r="F117" s="4">
         <v>11308000</v>
       </c>
       <c r="G117" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2333292674.7680001</v>
       </c>
       <c r="H117" s="8">
-        <f>H$106+480</f>
+        <f t="shared" si="16"/>
         <v>129698</v>
       </c>
       <c r="I117" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2518671070.9005823</v>
       </c>
       <c r="J117" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-7.3601669656013446E-2</v>
       </c>
       <c r="K117">
@@ -27260,33 +27499,33 @@
         <v>18802.097656000002</v>
       </c>
       <c r="C118" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.2786343525191337</v>
       </c>
       <c r="D118" s="10">
         <v>191.449997</v>
       </c>
       <c r="E118" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.4772548971834576</v>
       </c>
       <c r="F118" s="4">
         <v>11308000</v>
       </c>
       <c r="G118" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2164916566.0759997</v>
       </c>
       <c r="H118" s="8">
-        <f>H$106+480</f>
+        <f t="shared" si="16"/>
         <v>129698</v>
       </c>
       <c r="I118" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2438594461.7878881</v>
       </c>
       <c r="J118" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.11222771969687728</v>
       </c>
       <c r="K118">
@@ -27301,33 +27540,33 @@
         <v>19044.107422000001</v>
       </c>
       <c r="C119" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.291505776252154</v>
       </c>
       <c r="D119" s="10">
         <v>212.259995</v>
       </c>
       <c r="E119" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.5859516761131536</v>
       </c>
       <c r="F119" s="4">
         <v>11308000</v>
       </c>
       <c r="G119" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2400236023.46</v>
       </c>
       <c r="H119" s="8">
-        <f>H$118+301</f>
+        <f t="shared" ref="H119:H131" si="17">H$118+301</f>
         <v>129999</v>
       </c>
       <c r="I119" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2475714920.7525783</v>
       </c>
       <c r="J119" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-3.0487717571954454E-2</v>
       </c>
       <c r="K119">
@@ -27342,33 +27581,33 @@
         <v>19446.425781000002</v>
       </c>
       <c r="C120" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.3126313848241384</v>
       </c>
       <c r="D120" s="10">
         <v>220.300003</v>
       </c>
       <c r="E120" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.6238297887551516</v>
       </c>
       <c r="F120" s="4">
         <v>11321000</v>
       </c>
       <c r="G120" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2494016333.9629998</v>
       </c>
       <c r="H120" s="8">
-        <f>H$118+301</f>
+        <f t="shared" si="17"/>
         <v>129999</v>
       </c>
       <c r="I120" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2528015905.1042194</v>
       </c>
       <c r="J120" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-1.3449112828986753E-2</v>
       </c>
       <c r="K120">
@@ -27383,33 +27622,33 @@
         <v>19268.09375</v>
       </c>
       <c r="C121" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.3034609576716978</v>
       </c>
       <c r="D121" s="10">
         <v>209.30999800000001</v>
       </c>
       <c r="E121" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.5739432483541513</v>
       </c>
       <c r="F121" s="4">
         <v>11321000</v>
       </c>
       <c r="G121" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2369598487.3580003</v>
       </c>
       <c r="H121" s="8">
-        <f>H$118+301</f>
+        <f t="shared" si="17"/>
         <v>129999</v>
       </c>
       <c r="I121" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2504832919.40625</v>
       </c>
       <c r="J121" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-5.3989402247358598E-2</v>
       </c>
       <c r="K121">
@@ -27424,33 +27663,33 @@
         <v>19567.007813</v>
       </c>
       <c r="C122" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.3189743793354261</v>
       </c>
       <c r="D122" s="10">
         <v>232.61999499999999</v>
       </c>
       <c r="E122" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.6853091516685259</v>
       </c>
       <c r="F122" s="4">
         <v>11321000</v>
       </c>
       <c r="G122" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2633490963.395</v>
       </c>
       <c r="H122" s="8">
-        <f>H$118+301</f>
+        <f t="shared" si="17"/>
         <v>129999</v>
       </c>
       <c r="I122" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2543691448.6821871</v>
       </c>
       <c r="J122" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.530283311654614E-2</v>
       </c>
       <c r="K122">
@@ -27465,33 +27704,33 @@
         <v>20635.603515999999</v>
       </c>
       <c r="C123" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.3735864954654171</v>
       </c>
       <c r="D123" s="10">
         <v>279.98998999999998</v>
       </c>
       <c r="E123" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.8889459671537985</v>
       </c>
       <c r="F123" s="4">
         <v>11321000</v>
       </c>
       <c r="G123" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3169766676.79</v>
       </c>
       <c r="H123" s="8">
-        <f>H$118+301</f>
+        <f t="shared" si="17"/>
         <v>129999</v>
       </c>
       <c r="I123" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2682607821.4764838</v>
       </c>
       <c r="J123" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.18159898417256848</v>
       </c>
       <c r="K123">
@@ -27506,33 +27745,33 @@
         <v>20926.486327999999</v>
       </c>
       <c r="C124" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.3876826575560708</v>
       </c>
       <c r="D124" s="10">
         <v>277.10000600000001</v>
       </c>
       <c r="E124" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.8786242267230069</v>
       </c>
       <c r="F124" s="4">
         <v>11321000</v>
       </c>
       <c r="G124" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3137049167.9260001</v>
       </c>
       <c r="H124" s="8">
-        <f>H$118+301</f>
+        <f t="shared" si="17"/>
         <v>129999</v>
       </c>
       <c r="I124" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2720422296.1536717</v>
       </c>
       <c r="J124" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.15314786691808302</v>
       </c>
       <c r="K124">
@@ -27547,33 +27786,33 @@
         <v>16353.365234000001</v>
       </c>
       <c r="C125" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.1691499797657681</v>
       </c>
       <c r="D125" s="10">
         <v>175.179993</v>
       </c>
       <c r="E125" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.5108147327022814</v>
       </c>
       <c r="F125" s="4">
         <v>11321000</v>
       </c>
       <c r="G125" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1983212700.753</v>
       </c>
       <c r="H125" s="8">
-        <f>H$118+301</f>
+        <f t="shared" si="17"/>
         <v>129999</v>
       </c>
       <c r="I125" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2125921127.0547662</v>
       </c>
       <c r="J125" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-6.7127808499402475E-2</v>
       </c>
       <c r="K125">
@@ -27588,33 +27827,33 @@
         <v>16291.832031</v>
       </c>
       <c r="C126" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.1653872555729476</v>
       </c>
       <c r="D126" s="10">
         <v>170.11999499999999</v>
       </c>
       <c r="E126" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.4819301671000895</v>
       </c>
       <c r="F126" s="4">
         <v>11321000</v>
       </c>
       <c r="G126" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1925928463.395</v>
       </c>
       <c r="H126" s="8">
-        <f>H$118+301</f>
+        <f t="shared" si="17"/>
         <v>129999</v>
       </c>
       <c r="I126" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2117921872.197969</v>
       </c>
       <c r="J126" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-9.0651790003811183E-2</v>
       </c>
       <c r="K126">
@@ -27629,33 +27868,33 @@
         <v>16444.626952999999</v>
       </c>
       <c r="C127" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.174765876817585</v>
       </c>
       <c r="D127" s="10">
         <v>183</v>
       </c>
       <c r="E127" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.5576414613544776</v>
       </c>
       <c r="F127" s="4">
         <v>11321000</v>
       </c>
       <c r="G127" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2071743000</v>
       </c>
       <c r="H127" s="8">
-        <f>H$118+301</f>
+        <f t="shared" si="17"/>
         <v>129999</v>
       </c>
       <c r="I127" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2137785059.263047</v>
       </c>
       <c r="J127" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-3.0892749940825914E-2</v>
       </c>
       <c r="K127">
@@ -27670,33 +27909,33 @@
         <v>17130.486327999999</v>
       </c>
       <c r="C128" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.2164730786264335</v>
       </c>
       <c r="D128" s="10">
         <v>206.94000199999999</v>
       </c>
       <c r="E128" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.6884611444145867</v>
       </c>
       <c r="F128" s="4">
         <v>11321000</v>
       </c>
       <c r="G128" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2342767762.6419997</v>
       </c>
       <c r="H128" s="8">
-        <f>H$118+301</f>
+        <f t="shared" si="17"/>
         <v>129999</v>
       </c>
       <c r="I128" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2226946092.1536717</v>
       </c>
       <c r="J128" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.2009193620092153E-2</v>
       </c>
       <c r="K128">
@@ -27711,33 +27950,33 @@
         <v>17104.193359000001</v>
       </c>
       <c r="C129" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.214938214496101</v>
       </c>
       <c r="D129" s="10">
         <v>203.25</v>
       </c>
       <c r="E129" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.670629879485924</v>
       </c>
       <c r="F129" s="4">
         <v>11321000</v>
       </c>
       <c r="G129" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2300993250</v>
       </c>
       <c r="H129" s="8">
-        <f>H$118+301</f>
+        <f t="shared" si="17"/>
         <v>129999</v>
       </c>
       <c r="I129" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2223528032.4766412</v>
       </c>
       <c r="J129" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.4838876052790457E-2</v>
       </c>
       <c r="K129">
@@ -27752,33 +27991,33 @@
         <v>16757.976563</v>
       </c>
       <c r="C130" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.1946965820067312</v>
       </c>
       <c r="D130" s="10">
         <v>173.75</v>
       </c>
       <c r="E130" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.5254884280714096</v>
       </c>
       <c r="F130" s="4">
         <v>11321000</v>
       </c>
       <c r="G130" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1967023750</v>
       </c>
       <c r="H130" s="8">
-        <f>H$118+301</f>
+        <f t="shared" si="17"/>
         <v>129999</v>
       </c>
       <c r="I130" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2178520195.2134371</v>
       </c>
       <c r="J130" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-9.7082618595011994E-2</v>
       </c>
       <c r="K130">
@@ -27793,33 +28032,33 @@
         <v>16841.986327999999</v>
       </c>
       <c r="C131" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.1997097030529487</v>
       </c>
       <c r="D131" s="10">
         <v>162.66999799999999</v>
       </c>
       <c r="E131" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.4617186323879565</v>
       </c>
       <c r="F131" s="4">
         <v>11321000</v>
       </c>
       <c r="G131" s="4">
-        <f t="shared" ref="G131:G191" si="10">F131*D131</f>
+        <f t="shared" ref="G131:G191" si="18">F131*D131</f>
         <v>1841587047.3579998</v>
       </c>
       <c r="H131" s="8">
-        <f>H$118+301</f>
+        <f t="shared" si="17"/>
         <v>129999</v>
       </c>
       <c r="I131" s="4">
-        <f t="shared" ref="I131:I162" si="11">H131*B131</f>
+        <f t="shared" ref="I131:I162" si="19">H131*B131</f>
         <v>2189441380.6536717</v>
       </c>
       <c r="J131" s="14">
-        <f t="shared" ref="J131:J191" si="12">G131/I131-1</f>
+        <f t="shared" ref="J131:J191" si="20">G131/I131-1</f>
         <v>-0.15887812131869805</v>
       </c>
       <c r="K131">
@@ -27834,33 +28073,33 @@
         <v>16625.080077999999</v>
       </c>
       <c r="C132" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.1868308035113078</v>
       </c>
       <c r="D132" s="10">
         <v>141.570007</v>
       </c>
       <c r="E132" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.332008229366989</v>
       </c>
       <c r="F132" s="4">
         <v>11321000</v>
       </c>
       <c r="G132" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1602714049.247</v>
       </c>
       <c r="H132" s="8">
-        <f>H$131+2395-704+810</f>
+        <f t="shared" ref="H132:H144" si="21">H$131+2395-704+810</f>
         <v>132500</v>
       </c>
       <c r="I132" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2202823110.335</v>
       </c>
       <c r="J132" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>-0.27242725858125616</v>
       </c>
       <c r="K132">
@@ -27875,33 +28114,33 @@
         <v>17091.144531000002</v>
       </c>
       <c r="C133" s="14">
-        <f t="shared" ref="C133:C191" si="13">C132+B133/B132-1</f>
+        <f t="shared" ref="C133:C191" si="22">C132+B133/B132-1</f>
         <v>1.2148646205403608</v>
       </c>
       <c r="D133" s="10">
         <v>160.449997</v>
       </c>
       <c r="E133" s="14">
-        <f t="shared" ref="E133:E191" si="14">E132+D133/D132-1</f>
+        <f t="shared" ref="E133:E191" si="23">E132+D133/D132-1</f>
         <v>1.46536974004347</v>
       </c>
       <c r="F133" s="4">
         <v>11834000</v>
       </c>
       <c r="G133" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1898765264.4979999</v>
       </c>
       <c r="H133" s="8">
-        <f>H$131+2395-704+810</f>
+        <f t="shared" si="21"/>
         <v>132500</v>
       </c>
       <c r="I133" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2264576650.3575001</v>
       </c>
       <c r="J133" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>-0.1615363232689655</v>
       </c>
       <c r="K133">
@@ -27916,33 +28155,33 @@
         <v>20880.798827999999</v>
       </c>
       <c r="C134" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.4365966578609921</v>
       </c>
       <c r="D134" s="10">
         <v>216.970001</v>
       </c>
       <c r="E134" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>1.817629042360565</v>
       </c>
       <c r="F134" s="4">
         <v>11834000</v>
       </c>
       <c r="G134" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2567622991.8340001</v>
       </c>
       <c r="H134" s="8">
-        <f>H$131+2395-704+810</f>
+        <f t="shared" si="21"/>
         <v>132500</v>
       </c>
       <c r="I134" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2766705844.71</v>
       </c>
       <c r="J134" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>-7.1956638706876075E-2</v>
       </c>
       <c r="K134">
@@ -27957,33 +28196,33 @@
         <v>22720.416015999999</v>
       </c>
       <c r="C135" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.5246975587486142</v>
       </c>
       <c r="D135" s="10">
         <v>240.029999</v>
       </c>
       <c r="E135" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>1.9239110071193704</v>
       </c>
       <c r="F135" s="4">
         <v>11834000</v>
       </c>
       <c r="G135" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2840515008.1659999</v>
       </c>
       <c r="H135" s="8">
-        <f>H$131+2395-704+810</f>
+        <f t="shared" si="21"/>
         <v>132500</v>
       </c>
       <c r="I135" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3010455122.1199999</v>
       </c>
       <c r="J135" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>-5.644997419337916E-2</v>
       </c>
       <c r="K135">
@@ -27998,33 +28237,33 @@
         <v>23774.566406000002</v>
       </c>
       <c r="C136" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.5710941735490502</v>
       </c>
       <c r="D136" s="10">
         <v>258.35998499999999</v>
       </c>
       <c r="E136" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.0002764034296874</v>
       </c>
       <c r="F136" s="4">
         <v>11834000</v>
       </c>
       <c r="G136" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3057432062.4899998</v>
       </c>
       <c r="H136" s="8">
-        <f>H$131+2395-704+810</f>
+        <f t="shared" si="21"/>
         <v>132500</v>
       </c>
       <c r="I136" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3150130048.7950001</v>
       </c>
       <c r="J136" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>-2.9426717268532965E-2</v>
       </c>
       <c r="K136">
@@ -28039,33 +28278,33 @@
         <v>22955.666015999999</v>
       </c>
       <c r="C137" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.5366497855414805</v>
       </c>
       <c r="D137" s="10">
         <v>284.76001000000002</v>
       </c>
       <c r="E137" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.1024595065909608</v>
       </c>
       <c r="F137" s="4">
         <v>11834000</v>
       </c>
       <c r="G137" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3369849958.3400002</v>
       </c>
       <c r="H137" s="8">
-        <f>H$131+2395-704+810</f>
+        <f t="shared" si="21"/>
         <v>132500</v>
       </c>
       <c r="I137" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3041625747.1199999</v>
       </c>
       <c r="J137" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.10791078144008459</v>
       </c>
       <c r="K137">
@@ -28080,33 +28319,33 @@
         <v>21788.203125</v>
       </c>
       <c r="C138" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.4857924987092761</v>
       </c>
       <c r="D138" s="10">
         <v>243.36999499999999</v>
       </c>
       <c r="E138" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>1.9571089884476303</v>
       </c>
       <c r="F138" s="4">
         <v>11834000</v>
       </c>
       <c r="G138" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2880040520.8299999</v>
       </c>
       <c r="H138" s="8">
-        <f>H$131+2395-704+810</f>
+        <f t="shared" si="21"/>
         <v>132500</v>
       </c>
       <c r="I138" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2886936914.0625</v>
       </c>
       <c r="J138" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>-2.3888271333215583E-3</v>
       </c>
       <c r="K138">
@@ -28121,33 +28360,33 @@
         <v>24327.642577999999</v>
       </c>
       <c r="C139" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.6023436176074757</v>
       </c>
       <c r="D139" s="10">
         <v>294.04998799999998</v>
       </c>
       <c r="E139" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.1653515575449425</v>
       </c>
       <c r="F139" s="4">
         <v>11834000</v>
       </c>
       <c r="G139" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3479787557.9919996</v>
       </c>
       <c r="H139" s="8">
-        <f>H$131+2395-704+810</f>
+        <f t="shared" si="21"/>
         <v>132500</v>
       </c>
       <c r="I139" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3223412641.585</v>
       </c>
       <c r="J139" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>7.9535245689467793E-2</v>
       </c>
       <c r="K139">
@@ -28162,33 +28401,33 @@
         <v>23561.212890999999</v>
       </c>
       <c r="C140" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.5708391393357872</v>
       </c>
       <c r="D140" s="10">
         <v>255.800003</v>
       </c>
       <c r="E140" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.0352716848669679</v>
       </c>
       <c r="F140" s="4">
         <v>11834000</v>
       </c>
       <c r="G140" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3027137235.5019999</v>
       </c>
       <c r="H140" s="8">
-        <f>H$131+2395-704+810</f>
+        <f t="shared" si="21"/>
         <v>132500</v>
       </c>
       <c r="I140" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3121860708.0574999</v>
       </c>
       <c r="J140" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>-3.0341991976457927E-2</v>
       </c>
       <c r="K140">
@@ -28203,33 +28442,33 @@
         <v>22435.513672000001</v>
       </c>
       <c r="C141" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.5230614962998468</v>
       </c>
       <c r="D141" s="10">
         <v>246.91000399999999</v>
       </c>
       <c r="E141" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.0005179753449238</v>
       </c>
       <c r="F141" s="4">
         <v>11834000</v>
       </c>
       <c r="G141" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2921932987.336</v>
       </c>
       <c r="H141" s="8">
-        <f>H$131+2395-704+810</f>
+        <f t="shared" si="21"/>
         <v>132500</v>
       </c>
       <c r="I141" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2972705561.54</v>
       </c>
       <c r="J141" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>-1.7079583952370081E-2</v>
       </c>
       <c r="K141">
@@ -28244,33 +28483,33 @@
         <v>22163.949218999998</v>
       </c>
       <c r="C142" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.5109572736388377</v>
       </c>
       <c r="D142" s="10">
         <v>192.009995</v>
       </c>
       <c r="E142" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>1.7781697184472405</v>
       </c>
       <c r="F142" s="4">
         <v>11834000</v>
       </c>
       <c r="G142" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2272246280.8299999</v>
       </c>
       <c r="H142" s="8">
-        <f>H$131+2395-704+810</f>
+        <f t="shared" si="21"/>
         <v>132500</v>
       </c>
       <c r="I142" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2936723271.5174999</v>
       </c>
       <c r="J142" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>-0.22626476152250574</v>
       </c>
       <c r="K142">
@@ -28285,33 +28524,33 @@
         <v>28038.675781000002</v>
       </c>
       <c r="C143" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.7760150259352518</v>
       </c>
       <c r="D143" s="10">
         <v>267.66000400000001</v>
       </c>
       <c r="E143" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.1721596719389846</v>
       </c>
       <c r="F143" s="4">
         <v>11834000</v>
       </c>
       <c r="G143" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3167488487.336</v>
       </c>
       <c r="H143" s="8">
-        <f>H$131+2395-704+810</f>
+        <f t="shared" si="21"/>
         <v>132500</v>
       </c>
       <c r="I143" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3715124540.9825001</v>
       </c>
       <c r="J143" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>-0.14740718584407742</v>
       </c>
       <c r="K143">
@@ -28326,33 +28565,33 @@
         <v>27994.330077999999</v>
       </c>
       <c r="C144" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.7744334354440898</v>
       </c>
       <c r="D144" s="10">
         <v>256.67001299999998</v>
       </c>
       <c r="E144" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.131100153012877</v>
       </c>
       <c r="F144" s="4">
         <v>11834000</v>
       </c>
       <c r="G144" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3037432933.842</v>
       </c>
       <c r="H144" s="8">
-        <f>H$131+2395-704+810</f>
+        <f t="shared" si="21"/>
         <v>132500</v>
       </c>
       <c r="I144" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3709248735.335</v>
       </c>
       <c r="J144" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>-0.18111910239212503</v>
       </c>
       <c r="K144">
@@ -28367,21 +28606,21 @@
         <v>28199.308593999998</v>
       </c>
       <c r="C145" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.7817555794435664</v>
       </c>
       <c r="D145" s="10">
         <v>292.32000699999998</v>
       </c>
       <c r="E145" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.2699944226757691</v>
       </c>
       <c r="F145" s="4">
         <v>11834000</v>
       </c>
       <c r="G145" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3459314962.8379998</v>
       </c>
       <c r="H145" s="8">
@@ -28389,11 +28628,11 @@
         <v>138955</v>
       </c>
       <c r="I145" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3918434925.6792698</v>
       </c>
       <c r="J145" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>-0.11716921973935301</v>
       </c>
       <c r="K145">
@@ -28408,21 +28647,21 @@
         <v>28333.050781000002</v>
       </c>
       <c r="C146" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.78649832647065</v>
       </c>
       <c r="D146" s="10">
         <v>290.10000600000001</v>
       </c>
       <c r="E146" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.2624000023595436</v>
       </c>
       <c r="F146" s="4">
         <v>13247000</v>
       </c>
       <c r="G146" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3842954779.4819999</v>
       </c>
       <c r="H146" s="8">
@@ -28430,11 +28669,11 @@
         <v>138955</v>
       </c>
       <c r="I146" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3937019071.2738552</v>
       </c>
       <c r="J146" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>-2.3892262163063394E-2</v>
       </c>
       <c r="K146">
@@ -28449,33 +28688,33 @@
         <v>30315.355468999998</v>
       </c>
       <c r="C147" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.8564627190566161</v>
       </c>
       <c r="D147" s="10">
         <v>333.75</v>
       </c>
       <c r="E147" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.4128653353385436</v>
       </c>
       <c r="F147" s="4">
         <v>13247000</v>
       </c>
       <c r="G147" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>4421186250</v>
       </c>
       <c r="H147" s="8">
-        <f>H$146+1045</f>
+        <f t="shared" ref="H147:H158" si="24">H$146+1045</f>
         <v>140000</v>
       </c>
       <c r="I147" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>4244149765.6599998</v>
       </c>
       <c r="J147" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>4.1713062477772844E-2</v>
       </c>
       <c r="K147">
@@ -28490,33 +28729,33 @@
         <v>27591.384765999999</v>
       </c>
       <c r="C148" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.7666082324158281</v>
       </c>
       <c r="D148" s="10">
         <v>291.01998900000001</v>
       </c>
       <c r="E148" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.2848353398329255</v>
       </c>
       <c r="F148" s="4">
         <v>13247000</v>
       </c>
       <c r="G148" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3855141794.283</v>
       </c>
       <c r="H148" s="8">
-        <f>H$146+1045</f>
+        <f t="shared" si="24"/>
         <v>140000</v>
       </c>
       <c r="I148" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3862793867.2399998</v>
       </c>
       <c r="J148" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>-1.9809684958590479E-3</v>
       </c>
       <c r="K148">
@@ -28531,33 +28770,33 @@
         <v>29268.806640999999</v>
       </c>
       <c r="C149" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.8274033642740535</v>
       </c>
       <c r="D149" s="10">
         <v>328.38000499999998</v>
       </c>
       <c r="E149" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.4132114562927471</v>
       </c>
       <c r="F149" s="4">
         <v>13247000</v>
       </c>
       <c r="G149" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>4350049926.2349997</v>
       </c>
       <c r="H149" s="8">
-        <f>H$146+1045</f>
+        <f t="shared" si="24"/>
         <v>140000</v>
       </c>
       <c r="I149" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>4097632929.7399998</v>
       </c>
       <c r="J149" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>6.1600685279297629E-2</v>
       </c>
       <c r="K149">
@@ -28572,33 +28811,33 @@
         <v>28454.978515999999</v>
       </c>
       <c r="C150" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.7995980582709046</v>
       </c>
       <c r="D150" s="10">
         <v>326.72000100000002</v>
       </c>
       <c r="E150" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.4081563251193376</v>
       </c>
       <c r="F150" s="4">
         <v>13247000</v>
       </c>
       <c r="G150" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>4328059853.2470007</v>
       </c>
       <c r="H150" s="8">
-        <f>H$146+1045</f>
+        <f t="shared" si="24"/>
         <v>140000</v>
       </c>
       <c r="I150" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3983696992.2399998</v>
       </c>
       <c r="J150" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>8.6443035621885711E-2</v>
       </c>
       <c r="K150">
@@ -28613,33 +28852,33 @@
         <v>26930.638672000001</v>
       </c>
       <c r="C151" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.7460278247476961</v>
       </c>
       <c r="D151" s="10">
         <v>271</v>
       </c>
       <c r="E151" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.2376127378597381</v>
       </c>
       <c r="F151" s="4">
         <v>13247000</v>
       </c>
       <c r="G151" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3589937000</v>
       </c>
       <c r="H151" s="8">
-        <f>H$146+1045</f>
+        <f t="shared" si="24"/>
         <v>140000</v>
       </c>
       <c r="I151" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3770289414.0799999</v>
       </c>
       <c r="J151" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>-4.78351644323326E-2</v>
       </c>
       <c r="K151">
@@ -28654,33 +28893,33 @@
         <v>26753.826172000001</v>
       </c>
       <c r="C152" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.7394623473316764</v>
       </c>
       <c r="D152" s="10">
         <v>288.27999899999998</v>
       </c>
       <c r="E152" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.3013765718080776</v>
       </c>
       <c r="F152" s="4">
         <v>13247000</v>
       </c>
       <c r="G152" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3818845146.7529998</v>
       </c>
       <c r="H152" s="8">
-        <f>H$146+1045</f>
+        <f t="shared" si="24"/>
         <v>140000</v>
       </c>
       <c r="I152" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3745535664.0799999</v>
       </c>
       <c r="J152" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1.9572496232259651E-2</v>
       </c>
       <c r="K152">
@@ -28695,33 +28934,33 @@
         <v>28085.646484000001</v>
       </c>
       <c r="C153" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.7892429022114813</v>
       </c>
       <c r="D153" s="10">
         <v>285.10000600000001</v>
       </c>
       <c r="E153" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.2903456539121745</v>
       </c>
       <c r="F153" s="4">
         <v>13247000</v>
       </c>
       <c r="G153" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3776719779.4819999</v>
       </c>
       <c r="H153" s="8">
-        <f>H$146+1045</f>
+        <f t="shared" si="24"/>
         <v>140000</v>
       </c>
       <c r="I153" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3931990507.7600002</v>
       </c>
       <c r="J153" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>-3.9489090314832942E-2</v>
       </c>
       <c r="K153">
@@ -28736,33 +28975,33 @@
         <v>27119.066406000002</v>
       </c>
       <c r="C154" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.7548274552125793</v>
       </c>
       <c r="D154" s="10">
         <v>302.13000499999998</v>
       </c>
       <c r="E154" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.3500790760152945</v>
       </c>
       <c r="F154" s="4">
         <v>13247000</v>
       </c>
       <c r="G154" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>4002316176.2349997</v>
       </c>
       <c r="H154" s="8">
-        <f>H$146+1045</f>
+        <f t="shared" si="24"/>
         <v>140000</v>
       </c>
       <c r="I154" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3796669296.8400002</v>
       </c>
       <c r="J154" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>5.4165075574573063E-2</v>
       </c>
       <c r="K154">
@@ -28777,33 +29016,33 @@
         <v>25940.167968999998</v>
       </c>
       <c r="C155" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.7113562523565999</v>
       </c>
       <c r="D155" s="10">
         <v>282.32998700000002</v>
       </c>
       <c r="E155" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.2845443139184285</v>
       </c>
       <c r="F155" s="4">
         <v>13247000</v>
       </c>
       <c r="G155" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3740025337.789</v>
       </c>
       <c r="H155" s="8">
-        <f>H$146+1045</f>
+        <f t="shared" si="24"/>
         <v>140000</v>
       </c>
       <c r="I155" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3631623515.6599998</v>
       </c>
       <c r="J155" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>2.984941078323744E-2</v>
       </c>
       <c r="K155">
@@ -28818,33 +29057,33 @@
         <v>26336.212890999999</v>
       </c>
       <c r="C156" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.7266238837178656</v>
       </c>
       <c r="D156" s="10">
         <v>293.39001500000001</v>
       </c>
       <c r="E156" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.3237184311190928</v>
       </c>
       <c r="F156" s="4">
         <v>13247000</v>
       </c>
       <c r="G156" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3886537528.7049999</v>
       </c>
       <c r="H156" s="8">
-        <f>H$146+1045</f>
+        <f t="shared" si="24"/>
         <v>140000</v>
       </c>
       <c r="I156" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3687069804.7399998</v>
       </c>
       <c r="J156" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>5.4099253479977349E-2</v>
       </c>
       <c r="K156">
@@ -28859,33 +29098,33 @@
         <v>30480.261718999998</v>
       </c>
       <c r="C157" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.8839756200951245</v>
       </c>
       <c r="D157" s="10">
         <v>329.10998499999999</v>
       </c>
       <c r="E157" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.4454675301809679</v>
       </c>
       <c r="F157" s="4">
         <v>13247000</v>
       </c>
       <c r="G157" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>4359719971.2950001</v>
       </c>
       <c r="H157" s="8">
-        <f>H$146+1045</f>
+        <f t="shared" si="24"/>
         <v>140000</v>
       </c>
       <c r="I157" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>4267236640.6599998</v>
       </c>
       <c r="J157" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>2.1672885387648888E-2</v>
       </c>
       <c r="K157">
@@ -28900,33 +29139,33 @@
         <v>30620.769531000002</v>
       </c>
       <c r="C158" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.8885854168644354</v>
       </c>
       <c r="D158" s="10">
         <v>342.42001299999998</v>
       </c>
       <c r="E158" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.4859100223770039</v>
       </c>
       <c r="F158" s="4">
         <v>13247000</v>
       </c>
       <c r="G158" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>4536037912.2109995</v>
       </c>
       <c r="H158" s="8">
-        <f>H$146+1045</f>
+        <f t="shared" si="24"/>
         <v>140000</v>
       </c>
       <c r="I158" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>4286907734.3400002</v>
       </c>
       <c r="J158" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>5.8114191699382367E-2</v>
       </c>
       <c r="K158">
@@ -28941,21 +29180,21 @@
         <v>30171.234375</v>
       </c>
       <c r="C159" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.873904689930225</v>
       </c>
       <c r="D159" s="10">
         <v>380.73998999999998</v>
       </c>
       <c r="E159" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.5978193020486917</v>
       </c>
       <c r="F159" s="13">
         <v>14221000</v>
       </c>
       <c r="G159" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>5414503397.79</v>
       </c>
       <c r="H159" s="8">
@@ -28963,11 +29202,11 @@
         <v>152333</v>
       </c>
       <c r="I159" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>4596074646.046875</v>
       </c>
       <c r="J159" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.17807124878771563</v>
       </c>
       <c r="K159">
@@ -28982,21 +29221,21 @@
         <v>30249.132813</v>
       </c>
       <c r="C160" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.8764865676562668</v>
       </c>
       <c r="D160" s="10">
         <v>458.85998499999999</v>
       </c>
       <c r="E160" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.8029986818138699</v>
       </c>
       <c r="F160" s="13">
         <v>14221000</v>
       </c>
       <c r="G160" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>6525447846.6849995</v>
       </c>
       <c r="H160" s="8">
@@ -29004,11 +29243,11 @@
         <v>152333</v>
       </c>
       <c r="I160" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>4607941148.8027287</v>
       </c>
       <c r="J160" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.41613090010502685</v>
       </c>
       <c r="K160">
@@ -29023,21 +29262,21 @@
         <v>30084.539063</v>
       </c>
       <c r="C161" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.8710452959670083</v>
       </c>
       <c r="D161" s="10">
         <v>436.64999399999999</v>
       </c>
       <c r="E161" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.7545961369722227</v>
       </c>
       <c r="F161" s="13">
         <v>14221000</v>
       </c>
       <c r="G161" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>6209599564.6739998</v>
       </c>
       <c r="H161" s="8">
@@ -29045,11 +29284,11 @@
         <v>152333</v>
       </c>
       <c r="I161" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>4582868089.0839787</v>
       </c>
       <c r="J161" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.35495926218447438</v>
       </c>
       <c r="K161">
@@ -29064,21 +29303,21 @@
         <v>29275.308593999998</v>
       </c>
       <c r="C162" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.844146746273247</v>
       </c>
       <c r="D162" s="10">
         <v>434.60998499999999</v>
       </c>
       <c r="E162" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.7499241822532676</v>
       </c>
       <c r="F162" s="13">
         <v>14221000</v>
       </c>
       <c r="G162" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>6180588596.6849995</v>
       </c>
       <c r="H162" s="8">
@@ -29086,11 +29325,11 @@
         <v>152333</v>
       </c>
       <c r="I162" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>4459595584.0498018</v>
       </c>
       <c r="J162" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.38590786545544731</v>
       </c>
       <c r="K162">
@@ -29105,33 +29344,33 @@
         <v>29041.855468999998</v>
       </c>
       <c r="C163" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.8361723427157095</v>
       </c>
       <c r="D163" s="10">
         <v>376.97000100000002</v>
       </c>
       <c r="E163" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.6172995625036775</v>
       </c>
       <c r="F163" s="13">
         <v>14221000</v>
       </c>
       <c r="G163" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>5360890384.2210007</v>
       </c>
       <c r="H163" s="8">
-        <f>H$162+467</f>
+        <f t="shared" ref="H163:H170" si="25">H$162+467</f>
         <v>152800</v>
       </c>
       <c r="I163" s="4">
-        <f t="shared" ref="I163:I194" si="15">H163*B163</f>
+        <f t="shared" ref="I163:I191" si="26">H163*B163</f>
         <v>4437595515.6631994</v>
       </c>
       <c r="J163" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.2080619707900111</v>
       </c>
       <c r="K163">
@@ -29146,33 +29385,33 @@
         <v>29282.914063</v>
       </c>
       <c r="C164" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.8444727281458801</v>
       </c>
       <c r="D164" s="10">
         <v>384.30999800000001</v>
       </c>
       <c r="E164" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.6367705999351148</v>
       </c>
       <c r="F164" s="13">
         <v>14221000</v>
       </c>
       <c r="G164" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>5465272481.5580006</v>
       </c>
       <c r="H164" s="8">
-        <f>H$162+467</f>
+        <f t="shared" si="25"/>
         <v>152800</v>
       </c>
       <c r="I164" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>4474429268.8263998</v>
       </c>
       <c r="J164" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.22144572038156052</v>
       </c>
       <c r="K164">
@@ -29187,33 +29426,33 @@
         <v>26189.583984000001</v>
       </c>
       <c r="C165" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.7388367223731986</v>
       </c>
       <c r="D165" s="10">
         <v>328.61999500000002</v>
       </c>
       <c r="E165" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.4918615335829042</v>
       </c>
       <c r="F165" s="13">
         <v>14221000</v>
       </c>
       <c r="G165" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>4673304948.8950005</v>
       </c>
       <c r="H165" s="8">
-        <f>H$162+467</f>
+        <f t="shared" si="25"/>
         <v>152800</v>
       </c>
       <c r="I165" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>4001768432.7551999</v>
       </c>
       <c r="J165" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.16780993888680618</v>
       </c>
       <c r="K165">
@@ -29228,33 +29467,33 @@
         <v>26089.693359000001</v>
       </c>
       <c r="C166" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.7350225867587872</v>
       </c>
       <c r="D166" s="10">
         <v>336.04998799999998</v>
       </c>
       <c r="E166" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.5144712138003236</v>
       </c>
       <c r="F166" s="13">
         <v>14221000</v>
       </c>
       <c r="G166" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>4778966879.3479996</v>
       </c>
       <c r="H166" s="8">
-        <f>H$162+467</f>
+        <f t="shared" si="25"/>
         <v>152800</v>
       </c>
       <c r="I166" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>3986505145.2551999</v>
       </c>
       <c r="J166" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.1987860808447719</v>
       </c>
       <c r="K166">
@@ -29269,33 +29508,33 @@
         <v>25969.566406000002</v>
       </c>
       <c r="C167" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.7304182032826372</v>
       </c>
       <c r="D167" s="10">
         <v>351.48001099999999</v>
       </c>
       <c r="E167" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.5603870702234461</v>
       </c>
       <c r="F167" s="13">
         <v>14221000</v>
       </c>
       <c r="G167" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>4998397236.4309998</v>
       </c>
       <c r="H167" s="8">
-        <f>H$162+467</f>
+        <f t="shared" si="25"/>
         <v>152800</v>
       </c>
       <c r="I167" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>3968149746.8368001</v>
       </c>
       <c r="J167" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.25962918622601339</v>
       </c>
       <c r="K167">
@@ -29310,33 +29549,33 @@
         <v>25832.226563</v>
       </c>
       <c r="C168" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.7251297113281368</v>
       </c>
       <c r="D168" s="10">
         <v>356.27999899999998</v>
       </c>
       <c r="E168" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.574043573722304</v>
       </c>
       <c r="F168" s="13">
         <v>14221000</v>
       </c>
       <c r="G168" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>5066657865.7789993</v>
       </c>
       <c r="H168" s="8">
-        <f>H$162+467</f>
+        <f t="shared" si="25"/>
         <v>152800</v>
       </c>
       <c r="I168" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>3947164218.8263998</v>
       </c>
       <c r="J168" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.28361972922561995</v>
       </c>
       <c r="K168">
@@ -29351,33 +29590,33 @@
         <v>26534.1875</v>
       </c>
       <c r="C169" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.752303556961925</v>
       </c>
       <c r="D169" s="10">
         <v>340.77999899999998</v>
       </c>
       <c r="E169" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.5305384652584411</v>
       </c>
       <c r="F169" s="13">
         <v>14221000</v>
       </c>
       <c r="G169" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>4846232365.7789993</v>
       </c>
       <c r="H169" s="8">
-        <f>H$162+467</f>
+        <f t="shared" si="25"/>
         <v>152800</v>
       </c>
       <c r="I169" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>4054423850</v>
       </c>
       <c r="J169" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.19529495313594292</v>
       </c>
       <c r="K169">
@@ -29392,33 +29631,33 @@
         <v>26256.826172000001</v>
       </c>
       <c r="C170" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.7418505770845498</v>
       </c>
       <c r="D170" s="10">
         <v>322.80999800000001</v>
       </c>
       <c r="E170" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.4778064943307694</v>
       </c>
       <c r="F170" s="13">
         <v>14221000</v>
       </c>
       <c r="G170" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>4590680981.5580006</v>
       </c>
       <c r="H170" s="8">
-        <f>H$162+467</f>
+        <f t="shared" si="25"/>
         <v>152800</v>
       </c>
       <c r="I170" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>4012043039.0816002</v>
       </c>
       <c r="J170" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.14422525801439479</v>
       </c>
       <c r="K170">
@@ -29433,33 +29672,33 @@
         <v>27983.75</v>
       </c>
       <c r="C171" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.8076210482255579</v>
       </c>
       <c r="D171" s="10">
         <v>328.27999899999998</v>
       </c>
       <c r="E171" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.49475144967258</v>
       </c>
       <c r="F171" s="13">
         <v>14221000</v>
       </c>
       <c r="G171" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>4668469865.7789993</v>
       </c>
       <c r="H171" s="8">
-        <f>H$170+5445</f>
+        <f t="shared" ref="H171:H176" si="27">H$170+5445</f>
         <v>158245</v>
       </c>
       <c r="I171" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>4428288518.75</v>
       </c>
       <c r="J171" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>5.4237962592554201E-2</v>
       </c>
       <c r="K171">
@@ -29474,33 +29713,33 @@
         <v>27935.089843999998</v>
       </c>
       <c r="C172" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.8058821763445554</v>
       </c>
       <c r="D172" s="10">
         <v>340.63000499999998</v>
       </c>
       <c r="E172" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.5323717921778206</v>
       </c>
       <c r="F172" s="4">
         <v>15336000</v>
       </c>
       <c r="G172" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>5223901756.6799994</v>
       </c>
       <c r="H172" s="8">
-        <f>H$170+5445</f>
+        <f t="shared" si="27"/>
         <v>158245</v>
       </c>
       <c r="I172" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>4420588292.36378</v>
       </c>
       <c r="J172" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.18172094101228109</v>
       </c>
       <c r="K172">
@@ -29515,33 +29754,33 @@
         <v>27159.652343999998</v>
       </c>
       <c r="C173" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.7781236295014868</v>
       </c>
       <c r="D173" s="10">
         <v>318.22000100000002</v>
       </c>
       <c r="E173" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.4665819214352243</v>
       </c>
       <c r="F173" s="4">
         <v>15336000</v>
       </c>
       <c r="G173" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>4880221935.3360004</v>
       </c>
       <c r="H173" s="8">
-        <f>H$170+5445</f>
+        <f t="shared" si="27"/>
         <v>158245</v>
       </c>
       <c r="I173" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>4297879185.17628</v>
       </c>
       <c r="J173" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.13549537459504823</v>
       </c>
       <c r="K173">
@@ -29556,33 +29795,33 @@
         <v>29993.896484000001</v>
       </c>
       <c r="C174" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1.8824785786776363</v>
       </c>
       <c r="D174" s="10">
         <v>348.040009</v>
       </c>
       <c r="E174" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.5602907012299925</v>
       </c>
       <c r="F174" s="4">
         <v>15336000</v>
       </c>
       <c r="G174" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>5337541578.0240002</v>
       </c>
       <c r="H174" s="8">
-        <f>H$170+5445</f>
+        <f t="shared" si="27"/>
         <v>158245</v>
       </c>
       <c r="I174" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>4746384149.1105804</v>
       </c>
       <c r="J174" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.12454900622070308</v>
       </c>
       <c r="K174">
@@ -29597,33 +29836,33 @@
         <v>34538.480469000002</v>
       </c>
       <c r="C175" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.0339955377170953</v>
       </c>
       <c r="D175" s="10">
         <v>406.76001000000002</v>
       </c>
       <c r="E175" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.7290069392530754</v>
       </c>
       <c r="F175" s="4">
         <v>15336000</v>
       </c>
       <c r="G175" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>6238071513.3600006</v>
       </c>
       <c r="H175" s="8">
-        <f>H$170+5445</f>
+        <f t="shared" si="27"/>
         <v>158245</v>
       </c>
       <c r="I175" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>5465541841.816905</v>
       </c>
       <c r="J175" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.14134548666931157</v>
       </c>
       <c r="K175">
@@ -29638,33 +29877,33 @@
         <v>35049.355469000002</v>
       </c>
       <c r="C176" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.0487870106789279</v>
       </c>
       <c r="D176" s="10">
         <v>453.95001200000002</v>
       </c>
       <c r="E176" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.8450212986784278</v>
       </c>
       <c r="F176" s="4">
         <v>15336000</v>
       </c>
       <c r="G176" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>6961777384.0320005</v>
       </c>
       <c r="H176" s="8">
-        <f>H$170+5445</f>
+        <f t="shared" si="27"/>
         <v>158245</v>
       </c>
       <c r="I176" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>5546385256.191905</v>
       </c>
       <c r="J176" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.25519181637445243</v>
       </c>
       <c r="K176">
@@ -29679,21 +29918,21 @@
         <v>37054.519530999998</v>
       </c>
       <c r="C177" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.1059967377956932</v>
       </c>
       <c r="D177" s="10">
         <v>509.17999300000002</v>
       </c>
       <c r="E177" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.9666866352573811</v>
       </c>
       <c r="F177" s="4">
         <v>15336000</v>
       </c>
       <c r="G177" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>7808784372.6480007</v>
       </c>
       <c r="H177" s="8">
@@ -29701,11 +29940,11 @@
         <v>158400</v>
       </c>
       <c r="I177" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>5869435893.7103996</v>
       </c>
       <c r="J177" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.33041479863776657</v>
       </c>
       <c r="K177">
@@ -29720,21 +29959,21 @@
         <v>37386.546875</v>
       </c>
       <c r="C178" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.1149572464786415</v>
       </c>
       <c r="D178" s="10">
         <v>486.22000100000002</v>
       </c>
       <c r="E178" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.9215945414680635</v>
       </c>
       <c r="F178" s="4">
         <v>15336000</v>
       </c>
       <c r="G178" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>7456669935.3360004</v>
       </c>
       <c r="H178" s="8">
@@ -29742,11 +29981,11 @@
         <v>158400</v>
       </c>
       <c r="I178" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>5922029025</v>
       </c>
       <c r="J178" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.25914106531012826</v>
       </c>
       <c r="K178">
@@ -29761,21 +30000,21 @@
         <v>37479.121094000002</v>
       </c>
       <c r="C179" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.1174333836653552</v>
       </c>
       <c r="D179" s="10">
         <v>520.23999000000003</v>
       </c>
       <c r="E179" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.991562845795388</v>
       </c>
       <c r="F179" s="4">
         <v>15336000</v>
       </c>
       <c r="G179" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>7978400486.6400003</v>
       </c>
       <c r="H179" s="8">
@@ -29783,11 +30022,11 @@
         <v>158400</v>
       </c>
       <c r="I179" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>5936692781.2896004</v>
       </c>
       <c r="J179" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.34391331681928294</v>
       </c>
       <c r="K179">
@@ -29802,21 +30041,21 @@
         <v>39978.390625</v>
       </c>
       <c r="C180" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.184117699040085</v>
       </c>
       <c r="D180" s="10">
         <v>527.67999299999997</v>
       </c>
       <c r="E180" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>3.0058639436406338</v>
       </c>
       <c r="F180" s="4">
         <v>15336000</v>
       </c>
       <c r="G180" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>8092500372.6479998</v>
       </c>
       <c r="H180" s="8">
@@ -29824,11 +30063,11 @@
         <v>158400</v>
       </c>
       <c r="I180" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>6332577075</v>
       </c>
       <c r="J180" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.27791581165208323</v>
       </c>
       <c r="K180">
@@ -29843,21 +30082,21 @@
         <v>43779.699219000002</v>
       </c>
       <c r="C181" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.2792017815799888</v>
       </c>
       <c r="D181" s="10">
         <v>599.39001499999995</v>
       </c>
       <c r="E181" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>3.1417607427447836</v>
       </c>
       <c r="F181" s="4">
         <v>15336000</v>
       </c>
       <c r="G181" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>9192245270.039999</v>
       </c>
       <c r="H181" s="8">
@@ -29865,11 +30104,11 @@
         <v>174530</v>
       </c>
       <c r="I181" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>7640870904.69207</v>
       </c>
       <c r="J181" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.20303632723270693</v>
       </c>
       <c r="K181">
@@ -29884,21 +30123,21 @@
         <v>41364.664062999997</v>
       </c>
       <c r="C182" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.2240384250681218</v>
       </c>
       <c r="D182" s="10">
         <v>570.40997300000004</v>
       </c>
       <c r="E182" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>3.0934115189092815</v>
       </c>
       <c r="F182" s="4">
         <v>15336000</v>
       </c>
       <c r="G182" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>8747807345.9280014</v>
       </c>
       <c r="H182" s="8">
@@ -29906,11 +30145,11 @@
         <v>174530</v>
       </c>
       <c r="I182" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>7219374818.9153891</v>
       </c>
       <c r="J182" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.21171258804958937</v>
       </c>
       <c r="K182">
@@ -29925,21 +30164,21 @@
         <v>43016.117187999997</v>
       </c>
       <c r="C183" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.2639626735156559</v>
       </c>
       <c r="D183" s="10">
         <v>619.23999000000003</v>
       </c>
       <c r="E183" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>3.1790166438393115</v>
       </c>
       <c r="F183" s="4">
         <v>15336000</v>
       </c>
       <c r="G183" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>9496664486.6400013</v>
       </c>
       <c r="H183" s="8">
@@ -29947,11 +30186,11 @@
         <v>174530</v>
       </c>
       <c r="I183" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>7507602932.8216391</v>
       </c>
       <c r="J183" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.26493963141319177</v>
       </c>
       <c r="K183">
@@ -29966,21 +30205,21 @@
         <v>42265.1875</v>
       </c>
       <c r="C184" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.2465057355796239</v>
       </c>
       <c r="D184" s="10">
         <v>631.61999500000002</v>
       </c>
       <c r="E184" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>3.1990089007993312</v>
       </c>
       <c r="F184" s="4">
         <v>15336000</v>
       </c>
       <c r="G184" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>9686524243.3199997</v>
       </c>
       <c r="H184" s="8">
@@ -29988,11 +30227,11 @@
         <v>174530</v>
       </c>
       <c r="I184" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>7376543174.375</v>
       </c>
       <c r="J184" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.31315224683690945</v>
       </c>
       <c r="K184">
@@ -30007,33 +30246,33 @@
         <v>43943.097655999998</v>
       </c>
       <c r="C185" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.2862053147190751</v>
       </c>
       <c r="D185" s="10">
         <v>631.080017</v>
       </c>
       <c r="E185" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>3.1981539911950208</v>
       </c>
       <c r="F185" s="4">
         <v>16870000</v>
       </c>
       <c r="G185" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>10646319886.790001</v>
       </c>
       <c r="H185" s="8">
-        <f>H$184+14620</f>
+        <f t="shared" ref="H185:H190" si="28">H$184+14620</f>
         <v>189150</v>
       </c>
       <c r="I185" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>8311836921.6323996</v>
       </c>
       <c r="J185" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.28086246002756288</v>
       </c>
       <c r="K185">
@@ -30048,33 +30287,33 @@
         <v>41796.269530999998</v>
       </c>
       <c r="C186" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.2373505857737914</v>
       </c>
       <c r="D186" s="10">
         <v>485.52999899999998</v>
       </c>
       <c r="E186" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.9675175994868672</v>
       </c>
       <c r="F186" s="4">
         <v>16870000</v>
       </c>
       <c r="G186" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>8190891083.1299992</v>
       </c>
       <c r="H186" s="8">
-        <f>H$184+14620</f>
+        <f t="shared" si="28"/>
         <v>189150</v>
       </c>
       <c r="I186" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>7905764381.7886496</v>
       </c>
       <c r="J186" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>3.6065671524205145E-2</v>
       </c>
       <c r="K186">
@@ -30089,33 +30328,33 @@
         <v>41545.785155999998</v>
       </c>
       <c r="C187" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.2313576017632393</v>
       </c>
       <c r="D187" s="10">
         <v>481</v>
       </c>
       <c r="E187" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.9581875910232709</v>
       </c>
       <c r="F187" s="4">
         <v>16870000</v>
       </c>
       <c r="G187" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>8114470000</v>
       </c>
       <c r="H187" s="8">
-        <f>H$184+14620</f>
+        <f t="shared" si="28"/>
         <v>189150</v>
       </c>
       <c r="I187" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>7858385262.2573996</v>
       </c>
       <c r="J187" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>3.2587450118096939E-2</v>
       </c>
       <c r="K187">
@@ -30130,33 +30369,33 @@
         <v>42035.59375</v>
       </c>
       <c r="C188" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.2431472115193389</v>
       </c>
       <c r="D188" s="10">
         <v>494.5</v>
       </c>
       <c r="E188" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.9862541190897991</v>
       </c>
       <c r="F188" s="4">
         <v>16870000</v>
       </c>
       <c r="G188" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>8342215000</v>
       </c>
       <c r="H188" s="8">
-        <f>H$184+14620</f>
+        <f t="shared" si="28"/>
         <v>189150</v>
       </c>
       <c r="I188" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>7951032557.8125</v>
       </c>
       <c r="J188" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>4.9198948607389825E-2</v>
       </c>
       <c r="K188">
@@ -30171,33 +30410,33 @@
         <v>42583.582030999998</v>
       </c>
       <c r="C189" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.2561835036735327</v>
       </c>
       <c r="D189" s="10">
         <v>500.10000600000001</v>
       </c>
       <c r="E189" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.9975787014962703</v>
       </c>
       <c r="F189" s="4">
         <v>16870000</v>
       </c>
       <c r="G189" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>8436687101.2200003</v>
       </c>
       <c r="H189" s="8">
-        <f>H$184+14620</f>
+        <f t="shared" si="28"/>
         <v>189150</v>
       </c>
       <c r="I189" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>8054684541.1636496</v>
       </c>
       <c r="J189" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>4.742613545001273E-2</v>
       </c>
       <c r="K189">
@@ -30212,33 +30451,33 @@
         <v>45301.566405999998</v>
       </c>
       <c r="C190" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.320010552629193</v>
       </c>
       <c r="D190" s="10">
         <v>587.80999799999995</v>
       </c>
       <c r="E190" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>3.1729636064106685</v>
       </c>
       <c r="F190" s="4">
         <v>16870000</v>
       </c>
       <c r="G190" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>9916354666.2599983</v>
       </c>
       <c r="H190" s="8">
-        <f>H$184+14620</f>
+        <f t="shared" si="28"/>
         <v>189150</v>
       </c>
       <c r="I190" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>8568791285.6948996</v>
       </c>
       <c r="J190" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.15726411528015372</v>
       </c>
       <c r="K190">
@@ -30253,21 +30492,21 @@
         <v>47404.324219000002</v>
       </c>
       <c r="C191" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.3664274423710343</v>
       </c>
       <c r="D191" s="10">
         <v>646.32000000000005</v>
       </c>
       <c r="E191" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>3.2725025768247109</v>
       </c>
       <c r="F191" s="4">
         <v>16870000</v>
       </c>
       <c r="G191" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>10903418400</v>
       </c>
       <c r="H191" s="8">
@@ -30275,11 +30514,11 @@
         <v>190000</v>
       </c>
       <c r="I191" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>9006821601.6100006</v>
       </c>
       <c r="J191" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.21057337230382989</v>
       </c>
       <c r="K191">

--- a/MSTR.xlsx
+++ b/MSTR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4051A0B2-B8E1-4916-9A33-6015A29860FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00686E84-7993-41A2-A7A6-DB1B45FE2D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="108">
   <si>
     <t>Price</t>
   </si>
@@ -361,12 +361,36 @@
   <si>
     <t>Delta MC BTC</t>
   </si>
+  <si>
+    <t>Accrued Interest</t>
+  </si>
+  <si>
+    <t>Current portion of lt. Debt</t>
+  </si>
+  <si>
+    <t>change mc to daily</t>
+  </si>
+  <si>
+    <t>balance sheet</t>
+  </si>
+  <si>
+    <t>EBITDA + Digital Impairment</t>
+  </si>
+  <si>
+    <t>Rev y/y</t>
+  </si>
+  <si>
+    <t>Cost y/y</t>
+  </si>
+  <si>
+    <t>Cogs %</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,8 +427,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,6 +444,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,7 +468,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -459,6 +495,16 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -20245,7 +20291,7 @@
   <dimension ref="B3:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20263,7 +20309,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="6">
-        <v>45331</v>
+        <v>45333</v>
       </c>
       <c r="K3" t="s">
         <v>0</v>
@@ -20277,14 +20323,14 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C4" s="7">
-        <v>0.70000000000000007</v>
+        <v>0.77222222222222225</v>
       </c>
       <c r="K4" t="s">
         <v>1</v>
       </c>
       <c r="L4" s="4">
-        <f>16870000</f>
-        <v>16870000</v>
+        <f>16870</f>
+        <v>16870</v>
       </c>
       <c r="Q4" t="s">
         <v>43</v>
@@ -20302,7 +20348,7 @@
       </c>
       <c r="L5" s="4">
         <f>L3*L4</f>
-        <v>10628100000</v>
+        <v>10628100</v>
       </c>
       <c r="Q5" t="s">
         <v>44</v>
@@ -20318,6 +20364,10 @@
       <c r="K6" t="s">
         <v>3</v>
       </c>
+      <c r="L6" s="4">
+        <f>Model!R32+Model!R33+Model!R57</f>
+        <v>8093489.2015000014</v>
+      </c>
       <c r="Q6" t="s">
         <v>46</v>
       </c>
@@ -20332,6 +20382,10 @@
       <c r="K7" t="s">
         <v>4</v>
       </c>
+      <c r="L7" s="4">
+        <f>Model!R42-Model!R43-Model!R46-Model!R47-Model!R44-Model!R45</f>
+        <v>-2419201</v>
+      </c>
       <c r="Q7" t="s">
         <v>52</v>
       </c>
@@ -20346,6 +20400,10 @@
       <c r="K8" t="s">
         <v>5</v>
       </c>
+      <c r="L8" s="4">
+        <f>Model!R31</f>
+        <v>5588108.2015000014</v>
+      </c>
       <c r="Q8" t="s">
         <v>58</v>
       </c>
@@ -20356,6 +20414,10 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K9" t="s">
         <v>6</v>
+      </c>
+      <c r="L9" s="4">
+        <f>L5-L7-L6</f>
+        <v>4953811.7984999986</v>
       </c>
       <c r="Q9" t="s">
         <v>48</v>
@@ -20394,13 +20456,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596D9E16-B52A-4557-A315-6FB674626433}">
-  <dimension ref="A1:AA60"/>
+  <dimension ref="A1:AA65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20412,6 +20474,9 @@
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
     <col min="9" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -20486,7 +20551,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="8">
-        <v>14816</v>
+        <v>12584</v>
       </c>
       <c r="D3" s="8">
         <v>14816</v>
@@ -20496,7 +20561,7 @@
       </c>
       <c r="F3" s="8">
         <f>X3-E3-D3-C3</f>
-        <v>27538</v>
+        <v>29770</v>
       </c>
       <c r="G3" s="8">
         <v>21280</v>
@@ -20511,19 +20576,43 @@
         <f>Y3-I3-H3-G3</f>
         <v>32543</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
+      <c r="K3" s="8">
+        <v>16513</v>
+      </c>
+      <c r="L3" s="8">
+        <v>20129</v>
+      </c>
+      <c r="M3" s="8">
+        <v>22286</v>
+      </c>
+      <c r="N3" s="8">
+        <f>Z3-M3-L3-K3</f>
+        <v>27570</v>
+      </c>
+      <c r="O3" s="8">
+        <v>17412</v>
+      </c>
+      <c r="P3" s="8">
+        <v>15522</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>24045</v>
+      </c>
+      <c r="R3" s="8">
+        <v>18372</v>
+      </c>
       <c r="X3" s="8">
         <v>86743</v>
       </c>
       <c r="Y3" s="8">
         <v>101804</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>86498</v>
+      </c>
+      <c r="AA3" s="8">
+        <f>SUM(O3:R3)</f>
+        <v>75351</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -20531,7 +20620,7 @@
         <v>66</v>
       </c>
       <c r="C4" s="8">
-        <v>8021</v>
+        <v>7968</v>
       </c>
       <c r="D4" s="8">
         <v>8021</v>
@@ -20541,7 +20630,7 @@
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F21" si="0">X4-E4-D4-C4</f>
-        <v>8735</v>
+        <v>8788</v>
       </c>
       <c r="G4" s="8">
         <v>10026</v>
@@ -20556,19 +20645,43 @@
         <f t="shared" ref="J4:J21" si="1">Y4-I4-H4-G4</f>
         <v>11848</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
+      <c r="K4" s="8">
+        <v>12845</v>
+      </c>
+      <c r="L4" s="8">
+        <v>14017</v>
+      </c>
+      <c r="M4" s="8">
+        <v>16414</v>
+      </c>
+      <c r="N4" s="8">
+        <f t="shared" ref="N4:N21" si="2">Z4-M4-L4-K4</f>
+        <v>17470</v>
+      </c>
+      <c r="O4" s="8">
+        <v>18810</v>
+      </c>
+      <c r="P4" s="8">
+        <v>19878</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>20974</v>
+      </c>
+      <c r="R4" s="8">
+        <v>21517</v>
+      </c>
       <c r="X4" s="8">
         <v>33082</v>
       </c>
       <c r="Y4" s="8">
         <v>43069</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>60746</v>
+      </c>
+      <c r="AA4" s="8">
+        <f t="shared" ref="AA4:AA21" si="3">SUM(O4:R4)</f>
+        <v>81179</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -20576,7 +20689,7 @@
         <v>67</v>
       </c>
       <c r="C5" s="8">
-        <v>70038</v>
+        <v>71158</v>
       </c>
       <c r="D5" s="8">
         <v>70038</v>
@@ -20586,7 +20699,7 @@
       </c>
       <c r="F5" s="8">
         <f t="shared" si="0"/>
-        <v>73006</v>
+        <v>71886</v>
       </c>
       <c r="G5" s="8">
         <v>70649</v>
@@ -20601,19 +20714,43 @@
         <f t="shared" si="1"/>
         <v>69146</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
+      <c r="K5" s="8">
+        <v>67151</v>
+      </c>
+      <c r="L5" s="8">
+        <v>66521</v>
+      </c>
+      <c r="M5" s="8">
+        <v>66010</v>
+      </c>
+      <c r="N5" s="8">
+        <f t="shared" si="2"/>
+        <v>66839</v>
+      </c>
+      <c r="O5" s="8">
+        <v>65481</v>
+      </c>
+      <c r="P5" s="8">
+        <v>66081</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>66860</v>
+      </c>
+      <c r="R5" s="8">
+        <v>65466</v>
+      </c>
       <c r="X5" s="8">
         <v>284434</v>
       </c>
       <c r="Y5" s="8">
         <v>281209</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>266521</v>
+      </c>
+      <c r="AA5" s="8">
+        <f t="shared" si="3"/>
+        <v>263888</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -20621,7 +20758,7 @@
         <v>68</v>
       </c>
       <c r="C6" s="8">
-        <v>17709</v>
+        <v>19714</v>
       </c>
       <c r="D6" s="8">
         <v>17709</v>
@@ -20631,7 +20768,7 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" si="0"/>
-        <v>22880</v>
+        <v>20875</v>
       </c>
       <c r="G6" s="8">
         <v>20947</v>
@@ -20646,19 +20783,43 @@
         <f t="shared" si="1"/>
         <v>20978</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
+      <c r="K6" s="8">
+        <v>22768</v>
+      </c>
+      <c r="L6" s="8">
+        <v>21406</v>
+      </c>
+      <c r="M6" s="8">
+        <v>20650</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" si="2"/>
+        <v>20675</v>
+      </c>
+      <c r="O6" s="8">
+        <v>20212</v>
+      </c>
+      <c r="P6" s="8">
+        <v>18919</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>17583</v>
+      </c>
+      <c r="R6" s="8">
+        <v>19129</v>
+      </c>
       <c r="X6" s="8">
         <v>76476</v>
       </c>
       <c r="Y6" s="8">
         <v>84680</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>85499</v>
+      </c>
+      <c r="AA6" s="8">
+        <f t="shared" si="3"/>
+        <v>75843</v>
       </c>
     </row>
     <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -20667,7 +20828,7 @@
       </c>
       <c r="C7" s="9">
         <f>SUM(C3:C6)</f>
-        <v>110584</v>
+        <v>111424</v>
       </c>
       <c r="D7" s="9">
         <f>SUM(D3:D6)</f>
@@ -20679,55 +20840,55 @@
       </c>
       <c r="F7" s="9">
         <f>SUM(F3:F6)</f>
-        <v>132159</v>
+        <v>131319</v>
       </c>
       <c r="G7" s="9">
         <f>SUM(G3:G6)</f>
         <v>122902</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" ref="H7:R7" si="2">SUM(H3:H6)</f>
+        <f t="shared" ref="H7:R7" si="4">SUM(H3:H6)</f>
         <v>125351</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>127994</v>
       </c>
       <c r="J7" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>134515</v>
       </c>
       <c r="K7" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>119277</v>
       </c>
       <c r="L7" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>122073</v>
       </c>
       <c r="M7" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>125360</v>
       </c>
       <c r="N7" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>132554</v>
       </c>
       <c r="O7" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>121915</v>
       </c>
       <c r="P7" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>120400</v>
       </c>
       <c r="Q7" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>129462</v>
       </c>
       <c r="R7" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>124484</v>
       </c>
       <c r="X7" s="9">
         <f>SUM(X3:X6)</f>
@@ -20737,13 +20898,13 @@
         <f>SUM(Y3:Y6)</f>
         <v>510762</v>
       </c>
-      <c r="Z7" s="2">
-        <f t="shared" ref="Z7" si="3">SUM(Z3:Z6)</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2">
-        <f t="shared" ref="AA7" si="4">SUM(AA3:AA6)</f>
-        <v>0</v>
+      <c r="Z7" s="9">
+        <f t="shared" ref="Z7" si="5">SUM(Z3:Z6)</f>
+        <v>499264</v>
+      </c>
+      <c r="AA7" s="9">
+        <f t="shared" ref="AA7" si="6">SUM(AA3:AA6)</f>
+        <v>496261</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -20751,7 +20912,7 @@
         <v>65</v>
       </c>
       <c r="C8" s="4">
-        <v>514</v>
+        <v>670</v>
       </c>
       <c r="D8" s="4">
         <v>514</v>
@@ -20761,7 +20922,7 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>564</v>
       </c>
       <c r="G8" s="4">
         <v>488</v>
@@ -20776,19 +20937,43 @@
         <f t="shared" si="1"/>
         <v>421</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="K8" s="4">
+        <v>477</v>
+      </c>
+      <c r="L8" s="4">
+        <v>431</v>
+      </c>
+      <c r="M8" s="4">
+        <v>406</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="2"/>
+        <v>358</v>
+      </c>
+      <c r="O8" s="4">
+        <v>534</v>
+      </c>
+      <c r="P8" s="4">
+        <v>444</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>342</v>
+      </c>
+      <c r="R8" s="4">
+        <v>609</v>
+      </c>
       <c r="X8" s="4">
         <v>2293</v>
       </c>
       <c r="Y8" s="4">
         <v>1721</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>1672</v>
+      </c>
+      <c r="AA8" s="8">
+        <f t="shared" si="3"/>
+        <v>1929</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -20796,7 +20981,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="4">
-        <v>3792</v>
+        <v>4064</v>
       </c>
       <c r="D9" s="4">
         <v>3792</v>
@@ -20806,7 +20991,7 @@
       </c>
       <c r="F9" s="8">
         <f t="shared" si="0"/>
-        <v>3593</v>
+        <v>3321</v>
       </c>
       <c r="G9" s="4">
         <v>3628</v>
@@ -20821,19 +21006,43 @@
         <f t="shared" si="1"/>
         <v>5181</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="K9" s="4">
+        <v>5410</v>
+      </c>
+      <c r="L9" s="4">
+        <v>5498</v>
+      </c>
+      <c r="M9" s="4">
+        <v>6395</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" si="2"/>
+        <v>7467</v>
+      </c>
+      <c r="O9" s="4">
+        <v>7856</v>
+      </c>
+      <c r="P9" s="4">
+        <v>7216</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>8028</v>
+      </c>
+      <c r="R9" s="4">
+        <v>8676</v>
+      </c>
       <c r="X9" s="4">
         <v>14833</v>
       </c>
       <c r="Y9" s="4">
         <v>16901</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>24770</v>
+      </c>
+      <c r="AA9" s="8">
+        <f t="shared" si="3"/>
+        <v>31776</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -20841,7 +21050,7 @@
         <v>67</v>
       </c>
       <c r="C10" s="4">
-        <v>6837</v>
+        <v>6718</v>
       </c>
       <c r="D10" s="4">
         <v>6837</v>
@@ -20851,7 +21060,7 @@
       </c>
       <c r="F10" s="8">
         <f t="shared" si="0"/>
-        <v>4624</v>
+        <v>4743</v>
       </c>
       <c r="G10" s="4">
         <v>4812</v>
@@ -20866,19 +21075,44 @@
         <f t="shared" si="1"/>
         <v>4901</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="K10" s="4">
+        <v>5191</v>
+      </c>
+      <c r="L10" s="4">
+        <v>5127</v>
+      </c>
+      <c r="M10" s="4">
+        <v>5224</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="2"/>
+        <v>5722</v>
+      </c>
+      <c r="O10" s="4">
+        <v>5768</v>
+      </c>
+      <c r="P10" s="4">
+        <v>5816</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>5531</v>
+      </c>
+      <c r="R10" s="4">
+        <v>5319</v>
+      </c>
+      <c r="T10" s="20"/>
       <c r="X10" s="4">
         <v>23977</v>
       </c>
       <c r="Y10" s="4">
         <v>19254</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>21264</v>
+      </c>
+      <c r="AA10" s="8">
+        <f t="shared" si="3"/>
+        <v>22434</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -20886,7 +21120,7 @@
         <v>68</v>
       </c>
       <c r="C11" s="4">
-        <v>12846</v>
+        <v>13093</v>
       </c>
       <c r="D11" s="4">
         <v>12846</v>
@@ -20896,7 +21130,7 @@
       </c>
       <c r="F11" s="8">
         <f t="shared" si="0"/>
-        <v>12404</v>
+        <v>12157</v>
       </c>
       <c r="G11" s="4">
         <v>13621</v>
@@ -20911,19 +21145,46 @@
         <f t="shared" si="1"/>
         <v>13490</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="K11" s="4">
+        <v>14599</v>
+      </c>
+      <c r="L11" s="4">
+        <v>14148</v>
+      </c>
+      <c r="M11" s="4">
+        <v>13360</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="2"/>
+        <v>13176</v>
+      </c>
+      <c r="O11" s="4">
+        <v>13783</v>
+      </c>
+      <c r="P11" s="4">
+        <v>13645</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>12760</v>
+      </c>
+      <c r="R11" s="4">
+        <v>13617</v>
+      </c>
+      <c r="T11" s="19" t="s">
+        <v>103</v>
+      </c>
       <c r="X11" s="4">
         <v>49952</v>
       </c>
       <c r="Y11" s="4">
         <v>54033</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>55283</v>
+      </c>
+      <c r="AA11" s="8">
+        <f t="shared" si="3"/>
+        <v>53805</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -20932,75 +21193,90 @@
       </c>
       <c r="C12" s="9">
         <f>SUM(C8:C11)</f>
-        <v>23989</v>
+        <v>24545</v>
       </c>
       <c r="D12" s="9">
         <f>SUM(D8:D11)</f>
         <v>23989</v>
       </c>
       <c r="E12" s="9">
-        <f t="shared" ref="E12:R12" si="5">SUM(E8:E11)</f>
+        <f t="shared" ref="E12:W12" si="7">SUM(E8:E11)</f>
         <v>21736</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" si="5"/>
-        <v>21341</v>
+        <f t="shared" si="7"/>
+        <v>20785</v>
       </c>
       <c r="G12" s="9">
         <f>SUM(G8:G11)</f>
         <v>22549</v>
       </c>
       <c r="H12" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>23038</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>22329</v>
       </c>
       <c r="J12" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>23993</v>
       </c>
       <c r="K12" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>25677</v>
       </c>
       <c r="L12" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>25204</v>
       </c>
       <c r="M12" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>25385</v>
       </c>
       <c r="N12" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>26723</v>
       </c>
       <c r="O12" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>27941</v>
       </c>
       <c r="P12" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>27121</v>
       </c>
       <c r="Q12" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>26661</v>
       </c>
       <c r="R12" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>28221</v>
+      </c>
+      <c r="S12" s="9"/>
+      <c r="T12" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
       <c r="X12" s="9">
-        <f t="shared" ref="X12:Y12" si="6">SUM(X8:X11)</f>
+        <f t="shared" ref="X12:AA12" si="8">SUM(X8:X11)</f>
         <v>91055</v>
       </c>
       <c r="Y12" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>91909</v>
+      </c>
+      <c r="Z12" s="9">
+        <f t="shared" si="8"/>
+        <v>102989</v>
+      </c>
+      <c r="AA12" s="9">
+        <f t="shared" si="8"/>
+        <v>109944</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -21008,7 +21284,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="4">
-        <v>34951</v>
+        <v>39518</v>
       </c>
       <c r="D13" s="4">
         <v>34951</v>
@@ -21018,7 +21294,7 @@
       </c>
       <c r="F13" s="8">
         <f t="shared" si="0"/>
-        <v>43678</v>
+        <v>39111</v>
       </c>
       <c r="G13" s="4">
         <v>38198</v>
@@ -21033,19 +21309,43 @@
         <f t="shared" si="1"/>
         <v>43413</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+      <c r="K13" s="4">
+        <v>33240</v>
+      </c>
+      <c r="L13" s="4">
+        <v>36862</v>
+      </c>
+      <c r="M13" s="4">
+        <v>35409</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="2"/>
+        <v>41371</v>
+      </c>
+      <c r="O13" s="4">
+        <v>36106</v>
+      </c>
+      <c r="P13" s="4">
+        <v>37660</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>35606</v>
+      </c>
+      <c r="R13" s="4">
+        <v>40299</v>
+      </c>
       <c r="X13" s="4">
         <v>148910</v>
       </c>
       <c r="Y13" s="4">
         <v>160141</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>146882</v>
+      </c>
+      <c r="AA13" s="8">
+        <f t="shared" si="3"/>
+        <v>149671</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -21053,7 +21353,7 @@
         <v>62</v>
       </c>
       <c r="C14" s="4">
-        <v>25867</v>
+        <v>26101</v>
       </c>
       <c r="D14" s="4">
         <v>25867</v>
@@ -21063,7 +21363,7 @@
       </c>
       <c r="F14" s="8">
         <f t="shared" si="0"/>
-        <v>25189</v>
+        <v>24955</v>
       </c>
       <c r="G14" s="4">
         <v>29483</v>
@@ -21078,19 +21378,43 @@
         <f t="shared" si="1"/>
         <v>30875</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
+      <c r="K14" s="4">
+        <v>33523</v>
+      </c>
+      <c r="L14" s="4">
+        <v>31790</v>
+      </c>
+      <c r="M14" s="4">
+        <v>30498</v>
+      </c>
+      <c r="N14" s="8">
+        <f t="shared" si="2"/>
+        <v>31617</v>
+      </c>
+      <c r="O14" s="4">
+        <v>31358</v>
+      </c>
+      <c r="P14" s="4">
+        <v>29354</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>29660</v>
+      </c>
+      <c r="R14" s="4">
+        <v>30158</v>
+      </c>
       <c r="X14" s="4">
         <v>103561</v>
       </c>
       <c r="Y14" s="4">
         <v>117117</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>127428</v>
+      </c>
+      <c r="AA14" s="8">
+        <f t="shared" si="3"/>
+        <v>120530</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -21098,7 +21422,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4">
-        <v>19449</v>
+        <v>21332</v>
       </c>
       <c r="D15" s="4">
         <v>19449</v>
@@ -21108,7 +21432,7 @@
       </c>
       <c r="F15" s="8">
         <f t="shared" si="0"/>
-        <v>21505</v>
+        <v>19622</v>
       </c>
       <c r="G15" s="4">
         <v>21729</v>
@@ -21123,19 +21447,43 @@
         <f t="shared" si="1"/>
         <v>27104</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
+      <c r="K15" s="4">
+        <v>26706</v>
+      </c>
+      <c r="L15" s="4">
+        <v>28502</v>
+      </c>
+      <c r="M15" s="4">
+        <v>27283</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" si="2"/>
+        <v>28930</v>
+      </c>
+      <c r="O15" s="4">
+        <v>27906</v>
+      </c>
+      <c r="P15" s="4">
+        <v>28830</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>29223</v>
+      </c>
+      <c r="R15" s="4">
+        <v>29353</v>
+      </c>
       <c r="X15" s="4">
         <v>80136</v>
       </c>
       <c r="Y15" s="4">
         <v>95501</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>111421</v>
+      </c>
+      <c r="AA15" s="8">
+        <f t="shared" si="3"/>
+        <v>115312</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
@@ -21168,104 +21516,136 @@
         <f t="shared" si="1"/>
         <v>146587</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
+      <c r="K16" s="4">
+        <v>170091</v>
+      </c>
+      <c r="L16" s="4">
+        <v>917838</v>
+      </c>
+      <c r="M16" s="4">
+        <v>727</v>
+      </c>
+      <c r="N16" s="8">
+        <f t="shared" si="2"/>
+        <v>197630</v>
+      </c>
+      <c r="O16" s="4">
+        <v>18911</v>
+      </c>
+      <c r="P16" s="4">
+        <v>24143</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>33559</v>
+      </c>
+      <c r="R16" s="4">
+        <v>39238</v>
+      </c>
       <c r="X16" s="4">
         <v>70698</v>
       </c>
       <c r="Y16" s="4">
         <v>830621</v>
       </c>
+      <c r="Z16" s="4">
+        <v>1286286</v>
+      </c>
+      <c r="AA16" s="8">
+        <f t="shared" si="3"/>
+        <v>115851</v>
+      </c>
     </row>
-    <row r="17" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="9">
         <f>C7-C12-C13-C14-C15-C16</f>
-        <v>6328</v>
+        <v>-72</v>
       </c>
       <c r="D17" s="9">
         <f>D7-D12-D13-D14-D15-D16</f>
         <v>6328</v>
       </c>
       <c r="E17" s="9">
-        <f t="shared" ref="E17:R17" si="7">E7-E12-E13-E14-E15-E16</f>
+        <f t="shared" ref="E17:R17" si="9">E7-E12-E13-E14-E15-E16</f>
         <v>-20271</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="7"/>
-        <v>-6010</v>
+        <f t="shared" si="9"/>
+        <v>390</v>
       </c>
       <c r="G17" s="9">
         <f>G7-G12-G13-G14-G15-G16</f>
         <v>-183152</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-414247</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-49671</v>
       </c>
       <c r="J17" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-137457</v>
       </c>
       <c r="K17" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-169960</v>
       </c>
       <c r="L17" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-918123</v>
       </c>
       <c r="M17" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>6058</v>
       </c>
       <c r="N17" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-193717</v>
       </c>
       <c r="O17" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-20307</v>
       </c>
       <c r="P17" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-26708</v>
       </c>
       <c r="Q17" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-25247</v>
       </c>
       <c r="R17" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-42785</v>
       </c>
       <c r="X17" s="9">
-        <f t="shared" ref="X17:Y17" si="8">X7-X12-X13-X14-X15-X16</f>
+        <f t="shared" ref="X17:AA17" si="10">X7-X12-X13-X14-X15-X16</f>
         <v>-13625</v>
       </c>
       <c r="Y17" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-784527</v>
       </c>
+      <c r="Z17" s="9">
+        <f t="shared" si="10"/>
+        <v>-1275742</v>
+      </c>
+      <c r="AA17" s="9">
+        <f t="shared" si="10"/>
+        <v>-115047</v>
+      </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>64</v>
       </c>
       <c r="C18" s="4">
-        <v>563</v>
+        <v>1855</v>
       </c>
       <c r="D18" s="4">
         <v>563</v>
@@ -21275,7 +21655,7 @@
       </c>
       <c r="F18" s="8">
         <f t="shared" si="0"/>
-        <v>-625</v>
+        <v>-1917</v>
       </c>
       <c r="G18" s="4">
         <v>-2396</v>
@@ -21290,27 +21670,51 @@
         <f t="shared" si="1"/>
         <v>-11629</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
+      <c r="K18" s="4">
+        <v>-11039</v>
+      </c>
+      <c r="L18" s="4">
+        <v>-13187</v>
+      </c>
+      <c r="M18" s="4">
+        <v>-14073</v>
+      </c>
+      <c r="N18" s="8">
+        <f t="shared" si="2"/>
+        <v>-14837</v>
+      </c>
+      <c r="O18" s="4">
+        <v>-14930</v>
+      </c>
+      <c r="P18" s="4">
+        <v>-11095</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>-11006</v>
+      </c>
+      <c r="R18" s="4">
+        <v>-11929</v>
+      </c>
       <c r="X18" s="4">
         <v>710</v>
       </c>
       <c r="Y18" s="4">
         <v>-29149</v>
       </c>
+      <c r="Z18" s="4">
+        <v>-53136</v>
+      </c>
+      <c r="AA18" s="8">
+        <f t="shared" si="3"/>
+        <v>-48960</v>
+      </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="4">
-        <v>-1995</v>
+        <v>434</v>
       </c>
       <c r="D19" s="4">
         <v>-1995</v>
@@ -21320,7 +21724,7 @@
       </c>
       <c r="F19" s="8">
         <f t="shared" si="0"/>
-        <v>-77</v>
+        <v>-2506</v>
       </c>
       <c r="G19" s="4">
         <v>1264</v>
@@ -21335,104 +21739,137 @@
         <f t="shared" si="1"/>
         <v>656</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
+      <c r="K19" s="4">
+        <v>2225</v>
+      </c>
+      <c r="L19" s="4">
+        <v>5120</v>
+      </c>
+      <c r="M19" s="4">
+        <v>4897</v>
+      </c>
+      <c r="N19" s="8">
+        <f t="shared" si="2"/>
+        <v>-5829</v>
+      </c>
+      <c r="O19" s="4">
+        <f>44686-1443</f>
+        <v>43243</v>
+      </c>
+      <c r="P19" s="4">
+        <v>-250</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>2419</v>
+      </c>
+      <c r="R19" s="4">
+        <v>-5930</v>
+      </c>
       <c r="X19" s="4">
         <v>-7038</v>
       </c>
       <c r="Y19" s="4">
         <v>2287</v>
       </c>
+      <c r="Z19" s="4">
+        <v>6413</v>
+      </c>
+      <c r="AA19" s="8">
+        <f t="shared" si="3"/>
+        <v>39482</v>
+      </c>
     </row>
-    <row r="20" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="9">
         <f>C17+C18+C19</f>
-        <v>4896</v>
+        <v>2217</v>
       </c>
       <c r="D20" s="9">
         <f>D17+D18+D19</f>
         <v>4896</v>
       </c>
       <c r="E20" s="9">
-        <f t="shared" ref="E20:R20" si="9">E17+E18+E19</f>
+        <f t="shared" ref="E20:R20" si="11">E17+E18+E19</f>
         <v>-23033</v>
       </c>
       <c r="F20" s="9">
-        <f t="shared" si="9"/>
-        <v>-6712</v>
+        <f t="shared" si="11"/>
+        <v>-4033</v>
       </c>
       <c r="G20" s="9">
         <f>G17+G18+G19</f>
         <v>-184284</v>
       </c>
       <c r="H20" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-419545</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-59130</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-148430</v>
       </c>
       <c r="K20" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>-178774</v>
       </c>
       <c r="L20" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>-926190</v>
       </c>
       <c r="M20" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>-3118</v>
       </c>
       <c r="N20" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>-214383</v>
       </c>
       <c r="O20" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>8006</v>
       </c>
       <c r="P20" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>-38053</v>
       </c>
       <c r="Q20" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>-33834</v>
       </c>
       <c r="R20" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>-60644</v>
       </c>
       <c r="X20" s="9">
-        <f t="shared" ref="X20:Y20" si="10">X17+X18+X19</f>
+        <f t="shared" ref="X20:AA20" si="12">X17+X18+X19</f>
         <v>-19953</v>
       </c>
       <c r="Y20" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-811389</v>
       </c>
+      <c r="Z20" s="9">
+        <f t="shared" si="12"/>
+        <v>-1322465</v>
+      </c>
+      <c r="AA20" s="9">
+        <f t="shared" si="12"/>
+        <v>-124525</v>
+      </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="4">
-        <v>1509</v>
+        <v>1560</v>
       </c>
       <c r="D21" s="4">
         <v>1509</v>
@@ -21442,7 +21879,7 @@
       </c>
       <c r="F21" s="8">
         <f t="shared" si="0"/>
-        <v>-6643</v>
+        <v>-6694</v>
       </c>
       <c r="G21" s="4">
         <v>-74264</v>
@@ -21457,104 +21894,136 @@
         <f t="shared" si="1"/>
         <v>-58463</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
+      <c r="K21" s="4">
+        <v>-48023</v>
+      </c>
+      <c r="L21" s="4">
+        <v>136108</v>
+      </c>
+      <c r="M21" s="4">
+        <v>23961</v>
+      </c>
+      <c r="N21" s="8">
+        <f t="shared" si="2"/>
+        <v>35286</v>
+      </c>
+      <c r="O21" s="4">
+        <v>-453187</v>
+      </c>
+      <c r="P21" s="4">
+        <v>-60296</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>109608</v>
+      </c>
+      <c r="R21" s="4">
+        <v>-149770</v>
+      </c>
       <c r="X21" s="4">
         <v>-12429</v>
       </c>
       <c r="Y21" s="4">
         <v>-275909</v>
       </c>
+      <c r="Z21" s="4">
+        <v>147332</v>
+      </c>
+      <c r="AA21" s="8">
+        <f t="shared" si="3"/>
+        <v>-553645</v>
+      </c>
     </row>
-    <row r="22" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="9">
         <f>C20-C21</f>
-        <v>3387</v>
+        <v>657</v>
       </c>
       <c r="D22" s="9">
         <f>D20-D21</f>
         <v>3387</v>
       </c>
       <c r="E22" s="9">
-        <f t="shared" ref="E22:R22" si="11">E20-E21</f>
+        <f t="shared" ref="E22:R22" si="13">E20-E21</f>
         <v>-14229</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" si="11"/>
-        <v>-69</v>
+        <f t="shared" si="13"/>
+        <v>2661</v>
       </c>
       <c r="G22" s="9">
         <f>G20-G21</f>
         <v>-110020</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-299347</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-36146</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-89967</v>
       </c>
       <c r="K22" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>-130751</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>-1062298</v>
       </c>
       <c r="M22" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>-27079</v>
       </c>
       <c r="N22" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>-249669</v>
       </c>
       <c r="O22" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>461193</v>
       </c>
       <c r="P22" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>22243</v>
       </c>
       <c r="Q22" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>-143442</v>
       </c>
       <c r="R22" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>89126</v>
       </c>
       <c r="X22" s="9">
-        <f t="shared" ref="X22:Y22" si="12">X20-X21</f>
+        <f t="shared" ref="X22:AA22" si="14">X20-X21</f>
         <v>-7524</v>
       </c>
       <c r="Y22" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-535480</v>
       </c>
+      <c r="Z22" s="9">
+        <f t="shared" si="14"/>
+        <v>-1469797</v>
+      </c>
+      <c r="AA22" s="9">
+        <f t="shared" si="14"/>
+        <v>429120</v>
+      </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>9741</v>
+        <v>9976</v>
       </c>
       <c r="D23">
         <v>9741</v>
@@ -21596,1216 +22065,2067 @@
         <v>13247</v>
       </c>
       <c r="Q23">
-        <v>15336</v>
+        <v>14221</v>
       </c>
       <c r="R23">
         <v>16870</v>
       </c>
       <c r="X23" s="4">
-        <v>10020</v>
+        <v>9684</v>
       </c>
       <c r="Y23" s="4">
         <v>10020</v>
       </c>
+      <c r="Z23" s="4">
+        <v>11321</v>
+      </c>
+      <c r="AA23" s="8">
+        <v>13671</v>
+      </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="10">
         <f>C22/C23</f>
-        <v>0.34770557437634741</v>
+        <v>6.585805934242181E-2</v>
       </c>
       <c r="D24" s="10">
         <f>D22/D23</f>
         <v>0.34770557437634741</v>
       </c>
       <c r="E24" s="10">
-        <f t="shared" ref="E24:R24" si="13">E22/E23</f>
+        <f t="shared" ref="E24:R24" si="15">E22/E23</f>
         <v>-1.4797212978369385</v>
       </c>
       <c r="F24" s="10">
-        <f t="shared" si="13"/>
-        <v>-7.1251548946716231E-3</v>
+        <f t="shared" si="15"/>
+        <v>0.27478314745972737</v>
       </c>
       <c r="G24" s="10">
         <f>G22/G23</f>
         <v>-11.404581735254483</v>
       </c>
       <c r="H24" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-30.714857377385595</v>
       </c>
       <c r="I24" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-3.6149614961496148</v>
       </c>
       <c r="J24" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-8.9787425149700599</v>
       </c>
       <c r="K24" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
+        <v>-11.582159624413146</v>
+      </c>
+      <c r="L24" s="10">
+        <f t="shared" si="15"/>
+        <v>-94.008672566371686</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" si="15"/>
+        <v>-2.394676335337814</v>
+      </c>
+      <c r="N24" s="10">
+        <f t="shared" si="15"/>
+        <v>-22.053617171627948</v>
+      </c>
+      <c r="O24" s="10">
+        <f t="shared" si="15"/>
+        <v>38.97186074023999</v>
+      </c>
+      <c r="P24" s="10">
+        <f t="shared" si="15"/>
+        <v>1.6790971540726203</v>
+      </c>
+      <c r="Q24" s="10">
+        <f t="shared" si="15"/>
+        <v>-10.08663244497574</v>
+      </c>
+      <c r="R24" s="10">
+        <f t="shared" si="15"/>
+        <v>5.2831061055127444</v>
+      </c>
+      <c r="X24" s="10">
+        <f t="shared" ref="X24:AA24" si="16">X22/X23</f>
+        <v>-0.77695167286245348</v>
+      </c>
+      <c r="Y24" s="10">
+        <f t="shared" si="16"/>
+        <v>-53.441117764471059</v>
+      </c>
+      <c r="Z24" s="10">
+        <f t="shared" si="16"/>
+        <v>-129.82925536613374</v>
+      </c>
+      <c r="AA24" s="10">
+        <f t="shared" si="16"/>
+        <v>31.389071757735351</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="9">
+        <f t="shared" ref="C25:H25" si="17">C20+C16</f>
+        <v>2217</v>
+      </c>
+      <c r="D25" s="9">
+        <f t="shared" si="17"/>
+        <v>4896</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="17"/>
+        <v>21209</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="17"/>
+        <v>22423</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" si="17"/>
+        <v>9811</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="17"/>
+        <v>5229</v>
+      </c>
+      <c r="I25" s="9">
+        <f>I20+I16</f>
+        <v>6035</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" ref="J25:R25" si="18">J20+J16</f>
+        <v>-1843</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="18"/>
+        <v>-8683</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" si="18"/>
+        <v>-8352</v>
+      </c>
+      <c r="M25" s="9">
+        <f t="shared" si="18"/>
+        <v>-2391</v>
+      </c>
+      <c r="N25" s="9">
+        <f t="shared" si="18"/>
+        <v>-16753</v>
+      </c>
+      <c r="O25" s="9">
+        <f t="shared" si="18"/>
+        <v>26917</v>
+      </c>
+      <c r="P25" s="9">
+        <f t="shared" si="18"/>
+        <v>-13910</v>
+      </c>
+      <c r="Q25" s="9">
+        <f t="shared" si="18"/>
+        <v>-275</v>
+      </c>
+      <c r="R25" s="9">
+        <f>R20+R16</f>
+        <v>-21406</v>
+      </c>
+      <c r="X25" s="21">
+        <f>X20+X16</f>
+        <v>50745</v>
+      </c>
+      <c r="Y25" s="21">
+        <f>Y20+Y16</f>
+        <v>19232</v>
+      </c>
+      <c r="Z25" s="21">
+        <f>Z20+Z16</f>
+        <v>-36179</v>
+      </c>
+      <c r="AA25" s="21">
+        <f>AA20+AA16</f>
+        <v>-8674</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="14">
+        <f>G7/C7-1</f>
+        <v>0.10301191843767943</v>
+      </c>
+      <c r="H26" s="14">
+        <f t="shared" ref="H26:R26" si="19">H7/D7-1</f>
+        <v>0.13353649714244376</v>
+      </c>
+      <c r="I26" s="14">
+        <f t="shared" si="19"/>
+        <v>4.5993972121058935E-3</v>
+      </c>
+      <c r="J26" s="14">
+        <f t="shared" si="19"/>
+        <v>2.4337681523618038E-2</v>
+      </c>
+      <c r="K26" s="14">
+        <f t="shared" si="19"/>
+        <v>-2.949504483246812E-2</v>
+      </c>
+      <c r="L26" s="14">
+        <f t="shared" si="19"/>
+        <v>-2.6150569201681684E-2</v>
+      </c>
+      <c r="M26" s="14">
+        <f t="shared" si="19"/>
+        <v>-2.0579089644827131E-2</v>
+      </c>
+      <c r="N26" s="14">
+        <f t="shared" si="19"/>
+        <v>-1.4578299817864182E-2</v>
+      </c>
+      <c r="O26" s="14">
+        <f t="shared" si="19"/>
+        <v>2.211658576255271E-2</v>
+      </c>
+      <c r="P26" s="14">
+        <f t="shared" si="19"/>
+        <v>-1.3704914272607338E-2</v>
+      </c>
+      <c r="Q26" s="14">
+        <f t="shared" si="19"/>
+        <v>3.2721761327377141E-2</v>
+      </c>
+      <c r="R26" s="14">
+        <f t="shared" si="19"/>
+        <v>-6.0880848559832224E-2</v>
+      </c>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14">
+        <f>Y7/X7-1</f>
+        <v>6.2460607195232276E-2</v>
+      </c>
+      <c r="Z26" s="14">
+        <f>Z7/Y7-1</f>
+        <v>-2.2511463264690779E-2</v>
+      </c>
+      <c r="AA26" s="14">
+        <f t="shared" ref="Z26:AA26" si="20">AA7/Z7-1</f>
+        <v>-6.0148538648890915E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="14">
+        <f>C12/C7</f>
+        <v>0.22028467834577828</v>
+      </c>
+      <c r="D27" s="14">
+        <f>D12/D7</f>
+        <v>0.21693011647254576</v>
+      </c>
+      <c r="E27" s="14">
+        <f>E12/E7</f>
+        <v>0.17060153208589726</v>
+      </c>
+      <c r="F27" s="14">
+        <f>F12/F7</f>
+        <v>0.15827869539061371</v>
+      </c>
+      <c r="G27" s="14">
+        <f>G12/G7</f>
+        <v>0.18347138370408944</v>
+      </c>
+      <c r="H27" s="14">
+        <f t="shared" ref="H27:R27" si="21">H12/H7</f>
+        <v>0.18378792351078171</v>
+      </c>
+      <c r="I27" s="14">
+        <f t="shared" si="21"/>
+        <v>0.17445349000734409</v>
+      </c>
+      <c r="J27" s="14">
+        <f t="shared" si="21"/>
+        <v>0.17836672490056871</v>
+      </c>
+      <c r="K27" s="14">
+        <f t="shared" si="21"/>
+        <v>0.21527201388364897</v>
+      </c>
+      <c r="L27" s="14">
+        <f t="shared" si="21"/>
+        <v>0.20646662243084057</v>
+      </c>
+      <c r="M27" s="14">
+        <f t="shared" si="21"/>
+        <v>0.20249680918953414</v>
+      </c>
+      <c r="N27" s="14">
+        <f t="shared" si="21"/>
+        <v>0.2016008570092189</v>
+      </c>
+      <c r="O27" s="14">
+        <f t="shared" si="21"/>
+        <v>0.22918426772751507</v>
+      </c>
+      <c r="P27" s="14">
+        <f t="shared" si="21"/>
+        <v>0.22525747508305649</v>
+      </c>
+      <c r="Q27" s="14">
+        <f t="shared" si="21"/>
+        <v>0.2059368772303842</v>
+      </c>
+      <c r="R27" s="14">
+        <f t="shared" si="21"/>
+        <v>0.22670383342437583</v>
+      </c>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14">
+        <f>Y12/Y7</f>
+        <v>0.17994486668937784</v>
+      </c>
+      <c r="Z27" s="14">
+        <f t="shared" ref="Z27:AA27" si="22">Z12/Z7</f>
+        <v>0.20628164658377132</v>
+      </c>
+      <c r="AA27" s="14">
+        <f t="shared" si="22"/>
+        <v>0.22154471135148643</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="14">
+        <f>SUM(G12:G15)/SUM(C12:C15)-1</f>
+        <v>4.1526153404607413E-3</v>
+      </c>
+      <c r="H28" s="14">
+        <f t="shared" ref="H28:R28" si="23">SUM(H12:H15)/SUM(D12:D15)-1</f>
+        <v>0.1013658686310619</v>
+      </c>
+      <c r="I28" s="14">
+        <f t="shared" si="23"/>
+        <v>8.7618550421995955E-2</v>
+      </c>
+      <c r="J28" s="14">
+        <f t="shared" si="23"/>
+        <v>0.20016655020914498</v>
+      </c>
+      <c r="K28" s="14">
+        <f t="shared" si="23"/>
+        <v>6.4193142132387804E-2</v>
+      </c>
+      <c r="L28" s="14">
+        <f t="shared" si="23"/>
+        <v>6.5613460600571383E-2</v>
+      </c>
+      <c r="M28" s="14">
+        <f t="shared" si="23"/>
+        <v>5.4000000000000048E-2</v>
+      </c>
+      <c r="N28" s="14">
+        <f t="shared" si="23"/>
+        <v>2.596801850301067E-2</v>
+      </c>
+      <c r="O28" s="14">
+        <f t="shared" si="23"/>
+        <v>3.4957111443103317E-2</v>
+      </c>
+      <c r="P28" s="14">
+        <f t="shared" si="23"/>
+        <v>4.9608525801336789E-3</v>
+      </c>
+      <c r="Q28" s="14">
+        <f t="shared" si="23"/>
+        <v>2.1716213367067194E-2</v>
+      </c>
+      <c r="R28" s="14">
+        <f t="shared" si="23"/>
+        <v>-4.7418785612673986E-3</v>
+      </c>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14">
+        <f>SUM(Y12:Y15)/SUM(X12:X15)-1</f>
+        <v>9.6789421756022564E-2</v>
+      </c>
+      <c r="Z28" s="14">
+        <f t="shared" ref="Z28:AA28" si="24">SUM(Z12:Z15)/SUM(Y12:Y15)-1</f>
+        <v>5.1761687914812393E-2</v>
+      </c>
+      <c r="AA28" s="14">
+        <f t="shared" si="24"/>
+        <v>1.3784989359960642E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="9">
+        <f t="shared" ref="C31:Q31" si="25">C32+C33+C57-C42-C43-C46-C47-C44-C45</f>
         <v>0</v>
       </c>
-      <c r="L24" s="10">
-        <f t="shared" si="13"/>
+      <c r="D31" s="9">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M24" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="10">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="X24" s="10">
-        <f t="shared" ref="X24:Y24" si="14">X22/X23</f>
-        <v>-0.75089820359281434</v>
-      </c>
-      <c r="Y24" s="10">
-        <f t="shared" si="14"/>
-        <v>-53.441117764471059</v>
+      <c r="E31" s="9">
+        <f t="shared" si="25"/>
+        <v>409504.5</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="25"/>
+        <v>1330998.3310500002</v>
+      </c>
+      <c r="G31" s="9">
+        <f t="shared" si="25"/>
+        <v>5351820.4972799998</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" si="25"/>
+        <v>1284798.2449500002</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" si="25"/>
+        <v>4964768.2915199995</v>
+      </c>
+      <c r="J31" s="9">
+        <f>J32+J33+J57-J42-J43-J46-J47-J44-J45</f>
+        <v>3304353.3482700009</v>
+      </c>
+      <c r="K31" s="9">
+        <f t="shared" si="25"/>
+        <v>5892701.3182200007</v>
+      </c>
+      <c r="L31" s="9">
+        <f t="shared" si="25"/>
+        <v>2450665.1989799999</v>
+      </c>
+      <c r="M31" s="9">
+        <f t="shared" si="25"/>
+        <v>2532466.2999999998</v>
+      </c>
+      <c r="N31" s="9">
+        <f t="shared" si="25"/>
+        <v>-451382.60000000009</v>
+      </c>
+      <c r="O31" s="9">
+        <f t="shared" si="25"/>
+        <v>3985581.6</v>
+      </c>
+      <c r="P31" s="9">
+        <f t="shared" si="25"/>
+        <v>4625059.90283</v>
+      </c>
+      <c r="Q31" s="9">
+        <f t="shared" si="25"/>
+        <v>4277436.7251500003</v>
+      </c>
+      <c r="R31" s="9">
+        <f>R32+R33+R57-R42-R43-R46-R47-R44-R45</f>
+        <v>5588108.2015000014</v>
+      </c>
+      <c r="X31" s="9">
+        <f>X32+X33+X57-X42-X43-X46-X47-X44-X45</f>
+        <v>2042223.3310499999</v>
+      </c>
+      <c r="Y31" s="9">
+        <f>Y32+Y33+Y57-Y42-Y43-Y46-Y47-Y44-Y45</f>
+        <v>3304353.34827</v>
+      </c>
+      <c r="Z31" s="9">
+        <f t="shared" ref="Z31:AA31" si="26">Z32+Z33+Z57-Z42-Z43-Z46-Z47-Z44-Z45</f>
+        <v>-451382.60000000009</v>
+      </c>
+      <c r="AA31" s="9">
+        <f t="shared" si="26"/>
+        <v>5588108.2010000004</v>
       </c>
     </row>
-    <row r="28" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="9">
-        <f>F29+F30+F33-F39-F40-F41-F42</f>
-        <v>343077</v>
-      </c>
-      <c r="G28" s="9">
-        <f t="shared" ref="G28:R28" si="15">G29+G30+G33-G39-G40-G41-G42</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="9">
-        <f>H29+H30+H33-H39-H40-H41-H42</f>
-        <v>-317282</v>
-      </c>
-      <c r="I28" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>3</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8">
-        <v>59675</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8">
-        <v>56399</v>
-      </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-    </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8">
-        <v>1084</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8">
-        <v>1205</v>
-      </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-    </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8">
-        <v>197461</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8">
-        <v>131516</v>
-      </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-    </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>19</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8">
-        <v>14400</v>
+        <v>59675</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8">
-        <v>19338</v>
+        <v>56399</v>
       </c>
       <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
+      <c r="J32" s="8">
+        <f>Y32</f>
+        <v>63356</v>
+      </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
+      <c r="N32" s="8">
+        <f t="shared" ref="N32:N39" si="27">Z32</f>
+        <v>43835</v>
+      </c>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
+      <c r="R32" s="8">
+        <v>46817</v>
+      </c>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8">
+        <v>63356</v>
+      </c>
+      <c r="Z32" s="8">
+        <v>43835</v>
+      </c>
+      <c r="AA32" s="8">
+        <f>R32</f>
+        <v>46817</v>
+      </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8">
-        <v>1054302</v>
+        <v>1084</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8">
-        <v>2051039</v>
+        <v>1205</v>
       </c>
       <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
+      <c r="J33" s="8">
+        <f t="shared" ref="J33:J51" si="28">Y33</f>
+        <v>1078</v>
+      </c>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
+      <c r="N33" s="8">
+        <f t="shared" si="27"/>
+        <v>7033</v>
+      </c>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
+      <c r="R33" s="8">
+        <v>1856</v>
+      </c>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8">
+        <v>1078</v>
+      </c>
+      <c r="Z33" s="8">
+        <v>7033</v>
+      </c>
+      <c r="AA33" s="8">
+        <f t="shared" ref="AA33:AA40" si="29">R33</f>
+        <v>1856</v>
+      </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8">
-        <v>42975</v>
+        <v>197461</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8">
-        <v>39659</v>
+        <v>131516</v>
       </c>
       <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
+      <c r="J34" s="8">
+        <f t="shared" si="28"/>
+        <v>189280</v>
+      </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
+      <c r="N34" s="8">
+        <f t="shared" si="27"/>
+        <v>189280</v>
+      </c>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
+      <c r="R34" s="8">
+        <v>183815</v>
+      </c>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8">
+        <v>189280</v>
+      </c>
+      <c r="Z34" s="8">
+        <v>189280</v>
+      </c>
+      <c r="AA34" s="8">
+        <f t="shared" si="29"/>
+        <v>183815</v>
+      </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8">
-        <v>73597</v>
+        <v>14400</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8">
-        <v>70340</v>
+        <v>19338</v>
       </c>
       <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
+      <c r="J35" s="8">
+        <f t="shared" si="28"/>
+        <v>14251</v>
+      </c>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
+      <c r="N35" s="8">
+        <f t="shared" si="27"/>
+        <v>24418</v>
+      </c>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
+      <c r="R35" s="8">
+        <v>35407</v>
+      </c>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8">
+        <v>14251</v>
+      </c>
+      <c r="Z35" s="8">
+        <v>24418</v>
+      </c>
+      <c r="AA35" s="8">
+        <f t="shared" si="29"/>
+        <v>35407</v>
+      </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8">
-        <v>15615</v>
+        <v>1054302</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8">
-        <v>15756</v>
+        <v>2051039</v>
       </c>
       <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
+      <c r="J36" s="8">
+        <f t="shared" si="28"/>
+        <v>2850210</v>
+      </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
+      <c r="N36" s="8">
+        <f t="shared" si="27"/>
+        <v>1840028</v>
+      </c>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
+      <c r="R36" s="8">
+        <v>3626476</v>
+      </c>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8">
+        <v>2850210</v>
+      </c>
+      <c r="Z36" s="8">
+        <v>1840028</v>
+      </c>
+      <c r="AA36" s="8">
+        <f t="shared" si="29"/>
+        <v>3626476</v>
+      </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8">
-        <v>6503</v>
+        <v>42975</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8">
-        <v>239107</v>
+        <v>39659</v>
       </c>
       <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
+      <c r="J37" s="8">
+        <f t="shared" si="28"/>
+        <v>36587</v>
+      </c>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
+      <c r="N37" s="8">
+        <f t="shared" si="27"/>
+        <v>32311</v>
+      </c>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
+      <c r="R37" s="8">
+        <v>28941</v>
+      </c>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8">
+        <v>36587</v>
+      </c>
+      <c r="Z37" s="8">
+        <v>32311</v>
+      </c>
+      <c r="AA37" s="8">
+        <f t="shared" si="29"/>
+        <v>28941</v>
+      </c>
     </row>
-    <row r="38" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11">
-        <f>SUM(D29:D37)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="11">
-        <f t="shared" ref="E38:R38" si="16">SUM(E29:E37)</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="11">
-        <f t="shared" si="16"/>
-        <v>1465612</v>
-      </c>
-      <c r="G38" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="11">
-        <f t="shared" si="16"/>
-        <v>2624359</v>
-      </c>
-      <c r="I38" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8">
+        <v>73597</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8">
+        <v>70340</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8">
+        <f t="shared" si="28"/>
+        <v>66760</v>
+      </c>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8">
+        <f t="shared" si="27"/>
+        <v>61299</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8">
+        <v>57343</v>
+      </c>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8">
+        <v>66760</v>
+      </c>
+      <c r="Z38" s="8">
+        <v>61299</v>
+      </c>
+      <c r="AA38" s="8">
+        <f t="shared" si="29"/>
+        <v>57343</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8">
-        <v>45119</v>
+        <v>15615</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8">
-        <v>41236</v>
+        <v>15756</v>
       </c>
       <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
+      <c r="J39" s="8">
+        <f t="shared" si="28"/>
+        <v>15820</v>
+      </c>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
+      <c r="N39" s="8">
+        <f t="shared" si="27"/>
+        <v>23916</v>
+      </c>
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
+      <c r="R39" s="8">
+        <v>24300</v>
+      </c>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8">
+        <v>15820</v>
+      </c>
+      <c r="Z39" s="8">
+        <v>23916</v>
+      </c>
+      <c r="AA39" s="8">
+        <f t="shared" si="29"/>
+        <v>24300</v>
+      </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8">
-        <v>49249</v>
+        <v>6503</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8">
-        <v>50944</v>
+        <v>239107</v>
       </c>
       <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
+      <c r="J40" s="8">
+        <f t="shared" si="28"/>
+        <v>319782</v>
+      </c>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
+      <c r="N40" s="8">
+        <f>Z40</f>
+        <v>188152</v>
+      </c>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
+      <c r="R40" s="8">
+        <v>757573</v>
+      </c>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8">
+        <v>319782</v>
+      </c>
+      <c r="Z40" s="8">
+        <v>188152</v>
+      </c>
+      <c r="AA40" s="8">
+        <f t="shared" si="29"/>
+        <v>757573</v>
+      </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8">
-        <v>191250</v>
-      </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8">
-        <v>182818</v>
-      </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
+    <row r="41" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11">
+        <f>SUM(D32:D40)</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="11">
+        <f t="shared" ref="E41:R41" si="30">SUM(E32:E40)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="11">
+        <f t="shared" si="30"/>
+        <v>1465612</v>
+      </c>
+      <c r="G41" s="11">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
+        <f t="shared" si="30"/>
+        <v>2624359</v>
+      </c>
+      <c r="I41" s="11">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="11">
+        <f>SUM(J32:J40)</f>
+        <v>3557124</v>
+      </c>
+      <c r="K41" s="11">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="11">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="11">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="11">
+        <f t="shared" si="30"/>
+        <v>2410272</v>
+      </c>
+      <c r="O41" s="11">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="11">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="11">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="11">
+        <f t="shared" si="30"/>
+        <v>4762528</v>
+      </c>
+      <c r="X41" s="11">
+        <f t="shared" ref="X41:AA41" si="31">SUM(X32:X40)</f>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="11">
+        <f t="shared" si="31"/>
+        <v>3557124</v>
+      </c>
+      <c r="Z41" s="11">
+        <f t="shared" si="31"/>
+        <v>2410272</v>
+      </c>
+      <c r="AA41" s="11">
+        <f t="shared" si="31"/>
+        <v>4762528</v>
+      </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8">
-        <v>486366</v>
+        <v>45119</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8">
-        <v>2150927</v>
+        <v>41236</v>
       </c>
       <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
+      <c r="J42" s="8">
+        <f>Y42</f>
+        <v>46084</v>
+      </c>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
+      <c r="N42" s="8">
+        <f>Z42</f>
+        <v>42976</v>
+      </c>
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
+      <c r="R42" s="8">
+        <v>43090</v>
+      </c>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8">
+        <v>46084</v>
+      </c>
+      <c r="Z42" s="8">
+        <v>42976</v>
+      </c>
+      <c r="AA42" s="8">
+        <f>R42</f>
+        <v>43090</v>
+      </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8">
-        <v>14662</v>
+        <v>49249</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8">
-        <v>7262</v>
+        <v>50944</v>
       </c>
       <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
+      <c r="J43" s="8">
+        <f t="shared" si="28"/>
+        <v>54548</v>
+      </c>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
+      <c r="N43" s="8">
+        <f t="shared" ref="N43:N51" si="32">Z43</f>
+        <v>53716</v>
+      </c>
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
+      <c r="R43" s="8">
+        <v>50045</v>
+      </c>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8">
+        <v>54548</v>
+      </c>
+      <c r="Z43" s="8">
+        <v>53716</v>
+      </c>
+      <c r="AA43" s="8">
+        <f t="shared" ref="AA43:AA51" si="33">R43</f>
+        <v>50045</v>
+      </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="8">
-        <v>84328</v>
-      </c>
+      <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="8">
-        <v>80900</v>
-      </c>
+      <c r="H44" s="8"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
+      <c r="J44" s="8">
+        <f t="shared" si="28"/>
+        <v>1493</v>
+      </c>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
+      <c r="N44" s="8">
+        <f t="shared" si="32"/>
+        <v>2829</v>
+      </c>
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
+      <c r="R44" s="8">
+        <v>1493</v>
+      </c>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8">
+        <v>1493</v>
+      </c>
+      <c r="Z44" s="8">
+        <v>2829</v>
+      </c>
+      <c r="AA44" s="8">
+        <f t="shared" si="33"/>
+        <v>1493</v>
+      </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="8">
-        <v>33382</v>
-      </c>
+      <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="8">
-        <v>31040</v>
-      </c>
+      <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
+      <c r="J45" s="8">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
+      <c r="N45" s="8">
+        <f t="shared" si="32"/>
+        <v>454</v>
+      </c>
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
+      <c r="R45" s="8">
+        <v>483</v>
+      </c>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="8">
+        <v>454</v>
+      </c>
+      <c r="AA45" s="8">
+        <f t="shared" si="33"/>
+        <v>483</v>
+      </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8">
-        <v>8211</v>
+        <v>191250</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8">
-        <v>1813</v>
+        <v>182818</v>
       </c>
       <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
+      <c r="J46" s="8">
+        <f t="shared" si="28"/>
+        <v>209860</v>
+      </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
+      <c r="N46" s="8">
+        <f t="shared" si="32"/>
+        <v>217428</v>
+      </c>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
+      <c r="R46" s="8">
+        <v>228162</v>
+      </c>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8">
+        <v>209860</v>
+      </c>
+      <c r="Z46" s="8">
+        <v>217428</v>
+      </c>
+      <c r="AA46" s="8">
+        <f t="shared" si="33"/>
+        <v>228162</v>
+      </c>
     </row>
-    <row r="47" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11">
-        <f>SUM(D39:D46)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="11">
-        <f t="shared" ref="E47:R47" si="17">SUM(E39:E46)</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="11">
-        <f t="shared" si="17"/>
-        <v>912567</v>
-      </c>
-      <c r="G47" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="11">
-        <f t="shared" si="17"/>
-        <v>2546940</v>
-      </c>
-      <c r="I47" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O47" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8">
+        <v>486366</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8">
+        <v>2150927</v>
+      </c>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8">
+        <f t="shared" si="28"/>
+        <v>2155151</v>
+      </c>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8">
+        <f t="shared" si="32"/>
+        <v>2378560</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8">
+        <v>2182108</v>
+      </c>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8">
+        <v>2155151</v>
+      </c>
+      <c r="Z47" s="8">
+        <v>2378560</v>
+      </c>
+      <c r="AA47" s="8">
+        <f t="shared" si="33"/>
+        <v>2182108</v>
       </c>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8">
+        <v>14662</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8">
+        <v>7262</v>
+      </c>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8">
+        <f t="shared" si="28"/>
+        <v>8089</v>
+      </c>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8">
+        <f t="shared" si="32"/>
+        <v>12763</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8">
+        <v>8524</v>
+      </c>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8">
+        <v>8089</v>
+      </c>
+      <c r="Z48" s="8">
+        <v>12763</v>
+      </c>
+      <c r="AA48" s="8">
+        <f t="shared" si="33"/>
+        <v>8524</v>
+      </c>
+    </row>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8">
+        <v>84328</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8">
+        <v>80900</v>
+      </c>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8">
+        <f t="shared" si="28"/>
+        <v>76608</v>
+      </c>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8">
+        <f t="shared" si="32"/>
+        <v>67344</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8">
+        <v>61086</v>
+      </c>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8">
+        <v>76608</v>
+      </c>
+      <c r="Z49" s="8">
+        <v>67344</v>
+      </c>
+      <c r="AA49" s="8">
+        <f t="shared" si="33"/>
+        <v>61086</v>
+      </c>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
-      <c r="E50" s="8">
-        <v>38250</v>
-      </c>
-      <c r="F50">
-        <v>70469</v>
-      </c>
-      <c r="G50" s="8">
-        <v>91326</v>
-      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8">
+        <v>33382</v>
+      </c>
+      <c r="G50" s="8"/>
       <c r="H50" s="8">
-        <v>105085</v>
-      </c>
-      <c r="I50" s="8">
-        <v>114042</v>
-      </c>
+        <v>31040</v>
+      </c>
+      <c r="I50" s="8"/>
       <c r="J50" s="8">
-        <v>124391</v>
-      </c>
-      <c r="K50" s="8">
-        <v>129218</v>
-      </c>
-      <c r="L50" s="8">
-        <v>129699</v>
-      </c>
-      <c r="M50" s="8">
-        <v>130000</v>
-      </c>
+        <f t="shared" si="28"/>
+        <v>26224</v>
+      </c>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
       <c r="N50" s="8">
-        <v>132500</v>
-      </c>
-      <c r="O50" s="8">
-        <v>140000</v>
-      </c>
-      <c r="P50" s="8">
-        <v>152333</v>
-      </c>
-      <c r="Q50" s="8">
-        <v>158245</v>
-      </c>
+        <f t="shared" si="32"/>
+        <v>17124</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
       <c r="R50" s="8">
-        <v>189150</v>
+        <v>22208</v>
+      </c>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8">
+        <v>26224</v>
+      </c>
+      <c r="Z50" s="8">
+        <v>17124</v>
+      </c>
+      <c r="AA50" s="8">
+        <f t="shared" si="33"/>
+        <v>22208</v>
       </c>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51">
-        <v>10706</v>
-      </c>
-      <c r="F51">
-        <v>28980.45</v>
-      </c>
-      <c r="G51">
-        <v>58601.279999999999</v>
-      </c>
-      <c r="H51">
-        <v>34763.47</v>
-      </c>
-      <c r="I51">
-        <v>43534.559999999998</v>
-      </c>
-      <c r="J51">
-        <v>45879.97</v>
-      </c>
-      <c r="K51">
-        <v>45602.79</v>
-      </c>
-      <c r="L51">
-        <v>18895.02</v>
-      </c>
-      <c r="M51">
-        <v>19480.509999999998</v>
-      </c>
-      <c r="N51">
-        <v>16556.32</v>
-      </c>
-      <c r="O51">
-        <v>28468.44</v>
-      </c>
-      <c r="P51">
-        <v>30361.51</v>
-      </c>
-      <c r="Q51">
-        <v>27030.47</v>
-      </c>
-      <c r="R51">
-        <v>42531.41</v>
+        <v>78</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8">
+        <v>8211</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8">
+        <v>1813</v>
+      </c>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8">
+        <f t="shared" si="28"/>
+        <v>109</v>
+      </c>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8">
+        <f t="shared" si="32"/>
+        <v>198</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8">
+        <v>357</v>
+      </c>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8">
+        <v>109</v>
+      </c>
+      <c r="Z51" s="8">
+        <v>198</v>
+      </c>
+      <c r="AA51" s="8">
+        <f t="shared" si="33"/>
+        <v>357</v>
       </c>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8">
-        <f>E50*E51</f>
-        <v>409504500</v>
-      </c>
-      <c r="F52" s="8">
-        <f>F50*F51</f>
-        <v>2042223331.05</v>
-      </c>
-      <c r="G52" s="8">
-        <f t="shared" ref="G52:R52" si="18">G50*G51</f>
-        <v>5351820497.2799997</v>
-      </c>
-      <c r="H52" s="8">
-        <f t="shared" si="18"/>
-        <v>3653119244.9500003</v>
-      </c>
-      <c r="I52" s="8">
-        <f t="shared" si="18"/>
-        <v>4964768291.5199995</v>
-      </c>
-      <c r="J52" s="8">
-        <f t="shared" si="18"/>
-        <v>5707055348.2700005</v>
-      </c>
-      <c r="K52" s="8">
-        <f t="shared" si="18"/>
-        <v>5892701318.2200003</v>
-      </c>
-      <c r="L52" s="8">
-        <f t="shared" si="18"/>
-        <v>2450665198.98</v>
-      </c>
-      <c r="M52" s="8">
-        <f t="shared" si="18"/>
-        <v>2532466300</v>
-      </c>
-      <c r="N52" s="8">
-        <f t="shared" si="18"/>
-        <v>2193712400</v>
-      </c>
-      <c r="O52" s="8">
-        <f t="shared" si="18"/>
-        <v>3985581600</v>
-      </c>
-      <c r="P52" s="8">
-        <f t="shared" si="18"/>
-        <v>4625059902.8299999</v>
-      </c>
-      <c r="Q52" s="8">
-        <f t="shared" si="18"/>
-        <v>4277436725.1500001</v>
-      </c>
-      <c r="R52" s="8">
-        <f t="shared" si="18"/>
-        <v>8044816201.500001</v>
+    <row r="52" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11">
+        <f>SUM(D42:D51)</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="11">
+        <f t="shared" ref="E52:R52" si="34">SUM(E42:E51)</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="11">
+        <f t="shared" si="34"/>
+        <v>912567</v>
+      </c>
+      <c r="G52" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="11">
+        <f t="shared" si="34"/>
+        <v>2546940</v>
+      </c>
+      <c r="I52" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="11">
+        <f t="shared" si="34"/>
+        <v>2578166</v>
+      </c>
+      <c r="K52" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="11">
+        <f t="shared" si="34"/>
+        <v>2793392</v>
+      </c>
+      <c r="O52" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="11">
+        <f t="shared" si="34"/>
+        <v>2597556</v>
+      </c>
+      <c r="X52" s="11">
+        <f t="shared" ref="X52:AA52" si="35">SUM(X42:X51)</f>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="11">
+        <f t="shared" si="35"/>
+        <v>2578166</v>
+      </c>
+      <c r="Z52" s="11">
+        <f t="shared" si="35"/>
+        <v>2793392</v>
+      </c>
+      <c r="AA52" s="11">
+        <f t="shared" si="35"/>
+        <v>2597556</v>
       </c>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="12">
-        <f>F52-F55</f>
-        <v>917223331.04999995</v>
-      </c>
-      <c r="G53" s="12">
-        <f>G52-G55</f>
-        <v>3140445497.2799997</v>
-      </c>
-      <c r="H53" s="12">
-        <f>H52-H55</f>
-        <v>912513244.95000029</v>
-      </c>
-      <c r="I53" s="12">
-        <f t="shared" ref="I53:R53" si="19">I52-I55</f>
-        <v>1804297291.5199995</v>
-      </c>
-      <c r="J53" s="12">
-        <f t="shared" si="19"/>
-        <v>1955526348.2700005</v>
-      </c>
-      <c r="K53" s="12">
-        <f t="shared" si="19"/>
-        <v>1926172318.2200003</v>
-      </c>
-      <c r="L53" s="12">
-        <f t="shared" si="19"/>
-        <v>-1525863801.02</v>
-      </c>
-      <c r="M53" s="12">
-        <f t="shared" si="19"/>
-        <v>-1450040700</v>
-      </c>
-      <c r="N53" s="12">
-        <f t="shared" si="19"/>
-        <v>-1845237600</v>
-      </c>
-      <c r="O53" s="12">
-        <f t="shared" si="19"/>
-        <v>-232643400</v>
-      </c>
-      <c r="P53" s="12">
-        <f t="shared" si="19"/>
-        <v>59831902.829999924</v>
-      </c>
-      <c r="Q53" s="12">
-        <f t="shared" si="19"/>
-        <v>-449472274.8499999</v>
-      </c>
-      <c r="R53" s="12">
-        <f t="shared" si="19"/>
-        <v>2149816201.500001</v>
-      </c>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8">
-        <f>E55/E50</f>
-        <v>11111.111111111111</v>
-      </c>
-      <c r="F54" s="8">
-        <f t="shared" ref="F54:R54" si="20">F55/F50</f>
-        <v>15964.46664490769</v>
-      </c>
-      <c r="G54" s="8">
-        <f t="shared" si="20"/>
-        <v>24214.079232639117</v>
-      </c>
-      <c r="H54" s="8">
-        <f t="shared" si="20"/>
-        <v>26079.897226055098</v>
-      </c>
-      <c r="I54" s="8">
-        <f t="shared" si="20"/>
-        <v>27713.219690991038</v>
-      </c>
-      <c r="J54" s="8">
-        <f t="shared" si="20"/>
-        <v>30159.167463884041</v>
-      </c>
-      <c r="K54" s="8">
-        <f t="shared" si="20"/>
-        <v>30696.412264545186</v>
-      </c>
-      <c r="L54" s="8">
-        <f t="shared" si="20"/>
-        <v>30659.67355183926</v>
-      </c>
-      <c r="M54" s="8">
-        <f t="shared" si="20"/>
-        <v>30634.669230769232</v>
-      </c>
-      <c r="N54" s="8">
-        <f t="shared" si="20"/>
-        <v>30482.641509433961</v>
-      </c>
-      <c r="O54" s="8">
-        <f t="shared" si="20"/>
-        <v>30130.178571428572</v>
-      </c>
-      <c r="P54" s="8">
-        <f t="shared" si="20"/>
-        <v>29968.739537723279</v>
-      </c>
-      <c r="Q54" s="8">
-        <f t="shared" si="20"/>
-        <v>29870.826882365953</v>
-      </c>
-      <c r="R54" s="8">
-        <f t="shared" si="20"/>
-        <v>31165.741475019826</v>
-      </c>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8">
-        <v>425000000</v>
-      </c>
-      <c r="F55" s="8">
-        <f>E55+F59</f>
-        <v>1125000000</v>
+        <v>38250</v>
+      </c>
+      <c r="F55">
+        <v>70469</v>
       </c>
       <c r="G55" s="8">
-        <f>F55+G59</f>
-        <v>2211375000</v>
+        <v>91326</v>
       </c>
       <c r="H55" s="8">
-        <f>G55+H59</f>
-        <v>2740606000</v>
+        <v>105085</v>
       </c>
       <c r="I55" s="8">
-        <f>H55+I59</f>
-        <v>3160471000</v>
+        <v>114042</v>
       </c>
       <c r="J55" s="8">
-        <f t="shared" ref="J55:R55" si="21">I55+J59</f>
-        <v>3751529000</v>
+        <v>124391</v>
       </c>
       <c r="K55" s="8">
-        <f>J55+K59</f>
-        <v>3966529000</v>
+        <v>129218</v>
       </c>
       <c r="L55" s="8">
-        <f>K55+L59</f>
-        <v>3976529000</v>
+        <v>129699</v>
       </c>
       <c r="M55" s="8">
-        <f t="shared" si="21"/>
-        <v>3982507000</v>
+        <v>130000</v>
       </c>
       <c r="N55" s="8">
-        <f t="shared" si="21"/>
-        <v>4038950000</v>
+        <v>132500</v>
       </c>
       <c r="O55" s="8">
-        <f t="shared" si="21"/>
-        <v>4218225000</v>
+        <v>140000</v>
       </c>
       <c r="P55" s="8">
-        <f t="shared" si="21"/>
-        <v>4565228000</v>
+        <v>152333</v>
       </c>
       <c r="Q55" s="8">
-        <f t="shared" si="21"/>
-        <v>4726909000</v>
+        <v>158245</v>
       </c>
       <c r="R55" s="8">
-        <f t="shared" si="21"/>
-        <v>5895000000</v>
+        <v>189150</v>
+      </c>
+      <c r="X55" s="8">
+        <v>70469</v>
+      </c>
+      <c r="Y55" s="8">
+        <v>124391</v>
+      </c>
+      <c r="Z55" s="8">
+        <v>132500</v>
+      </c>
+      <c r="AA55" s="8">
+        <v>189150</v>
       </c>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56">
+        <v>10706</v>
+      </c>
+      <c r="F56">
+        <v>28980.45</v>
+      </c>
+      <c r="G56">
+        <v>58601.279999999999</v>
+      </c>
+      <c r="H56">
+        <v>34763.47</v>
+      </c>
+      <c r="I56">
+        <v>43534.559999999998</v>
+      </c>
+      <c r="J56">
+        <v>45879.97</v>
+      </c>
+      <c r="K56">
+        <v>45602.79</v>
+      </c>
+      <c r="L56">
+        <v>18895.02</v>
+      </c>
+      <c r="M56">
+        <v>19480.509999999998</v>
+      </c>
+      <c r="N56">
+        <v>16556.32</v>
+      </c>
+      <c r="O56">
+        <v>28468.44</v>
+      </c>
+      <c r="P56">
+        <v>30361.51</v>
+      </c>
+      <c r="Q56">
+        <v>27030.47</v>
+      </c>
+      <c r="R56">
+        <v>42531.41</v>
+      </c>
+      <c r="X56">
+        <v>28980.45</v>
+      </c>
+      <c r="Y56">
+        <v>45879.97</v>
+      </c>
+      <c r="Z56">
+        <v>16556.32</v>
+      </c>
+      <c r="AA56">
+        <v>42531.41</v>
+      </c>
+    </row>
+    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8">
+        <f>E55*E56/1000</f>
+        <v>409504.5</v>
+      </c>
+      <c r="F57" s="8">
+        <f t="shared" ref="F57:R57" si="36">F55*F56/1000</f>
+        <v>2042223.3310499999</v>
+      </c>
+      <c r="G57" s="8">
+        <f t="shared" si="36"/>
+        <v>5351820.4972799998</v>
+      </c>
+      <c r="H57" s="8">
+        <f t="shared" si="36"/>
+        <v>3653119.2449500002</v>
+      </c>
+      <c r="I57" s="8">
+        <f t="shared" si="36"/>
+        <v>4964768.2915199995</v>
+      </c>
+      <c r="J57" s="8">
+        <f t="shared" si="36"/>
+        <v>5707055.3482700009</v>
+      </c>
+      <c r="K57" s="8">
+        <f t="shared" si="36"/>
+        <v>5892701.3182200007</v>
+      </c>
+      <c r="L57" s="8">
+        <f t="shared" si="36"/>
+        <v>2450665.1989799999</v>
+      </c>
+      <c r="M57" s="8">
+        <f t="shared" si="36"/>
+        <v>2532466.2999999998</v>
+      </c>
+      <c r="N57" s="8">
+        <f t="shared" si="36"/>
+        <v>2193712.4</v>
+      </c>
+      <c r="O57" s="8">
+        <f t="shared" si="36"/>
+        <v>3985581.6</v>
+      </c>
+      <c r="P57" s="8">
+        <f t="shared" si="36"/>
+        <v>4625059.90283</v>
+      </c>
+      <c r="Q57" s="8">
+        <f t="shared" si="36"/>
+        <v>4277436.7251500003</v>
+      </c>
+      <c r="R57" s="8">
+        <f t="shared" si="36"/>
+        <v>8044816.2015000014</v>
+      </c>
+      <c r="X57" s="8">
+        <v>2042223.3310499999</v>
+      </c>
+      <c r="Y57" s="8">
+        <v>5707055.34827</v>
+      </c>
+      <c r="Z57" s="8">
+        <v>2193712.4</v>
+      </c>
+      <c r="AA57" s="8">
+        <v>8044816.2010000004</v>
+      </c>
+    </row>
+    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8">
-        <f t="shared" ref="F58:M58" si="22">F50-E50</f>
-        <v>32219</v>
-      </c>
-      <c r="G58" s="8">
-        <f t="shared" si="22"/>
-        <v>20857</v>
-      </c>
-      <c r="H58" s="8">
-        <f t="shared" si="22"/>
-        <v>13759</v>
-      </c>
-      <c r="I58" s="8">
-        <f t="shared" si="22"/>
-        <v>8957</v>
-      </c>
-      <c r="J58" s="8">
-        <f t="shared" si="22"/>
-        <v>10349</v>
-      </c>
-      <c r="K58" s="8">
-        <f t="shared" si="22"/>
-        <v>4827</v>
-      </c>
-      <c r="L58" s="8">
-        <f t="shared" si="22"/>
-        <v>481</v>
-      </c>
-      <c r="M58" s="8">
-        <f t="shared" si="22"/>
-        <v>301</v>
-      </c>
-      <c r="N58" s="8">
-        <f t="shared" ref="N58:R58" si="23">N50-M50</f>
-        <v>2500</v>
-      </c>
-      <c r="O58" s="8">
-        <f t="shared" si="23"/>
-        <v>7500</v>
-      </c>
-      <c r="P58" s="8">
-        <f t="shared" si="23"/>
-        <v>12333</v>
-      </c>
-      <c r="Q58" s="8">
-        <f t="shared" si="23"/>
-        <v>5912</v>
-      </c>
-      <c r="R58" s="8">
-        <f t="shared" si="23"/>
-        <v>30905</v>
+      <c r="E58" s="12">
+        <f>E57-E60</f>
+        <v>-15495.5</v>
+      </c>
+      <c r="F58" s="12">
+        <f>F57-F60</f>
+        <v>917223.33104999992</v>
+      </c>
+      <c r="G58" s="12">
+        <f t="shared" ref="F58:R58" si="37">G57-G60</f>
+        <v>3140445.4972799998</v>
+      </c>
+      <c r="H58" s="12">
+        <f t="shared" si="37"/>
+        <v>912513.2449500002</v>
+      </c>
+      <c r="I58" s="12">
+        <f t="shared" si="37"/>
+        <v>1804297.2915199995</v>
+      </c>
+      <c r="J58" s="12">
+        <f t="shared" si="37"/>
+        <v>1955526.3482700009</v>
+      </c>
+      <c r="K58" s="12">
+        <f t="shared" si="37"/>
+        <v>1926172.3182200007</v>
+      </c>
+      <c r="L58" s="17">
+        <f t="shared" si="37"/>
+        <v>-1525863.8010200001</v>
+      </c>
+      <c r="M58" s="17">
+        <f t="shared" si="37"/>
+        <v>-1450040.7000000002</v>
+      </c>
+      <c r="N58" s="17">
+        <f t="shared" si="37"/>
+        <v>-1845237.6</v>
+      </c>
+      <c r="O58" s="17">
+        <f t="shared" si="37"/>
+        <v>-232643.39999999991</v>
+      </c>
+      <c r="P58" s="12">
+        <f t="shared" si="37"/>
+        <v>59831.902830000035</v>
+      </c>
+      <c r="Q58" s="17">
+        <f t="shared" si="37"/>
+        <v>-449472.2748499997</v>
+      </c>
+      <c r="R58" s="12">
+        <f t="shared" si="37"/>
+        <v>2149816.2015000014</v>
+      </c>
+      <c r="X58" s="12">
+        <v>917223.33105000004</v>
+      </c>
+      <c r="Y58" s="12">
+        <v>1955526.34827</v>
+      </c>
+      <c r="Z58" s="16">
+        <v>-1845237.6</v>
+      </c>
+      <c r="AA58" s="12">
+        <v>2149816.2015</v>
       </c>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
+      <c r="E59" s="8">
+        <f>E60/E55</f>
+        <v>11.111111111111111</v>
+      </c>
       <c r="F59" s="8">
-        <v>700000000</v>
+        <f t="shared" ref="F59:R59" si="38">F60/F55</f>
+        <v>15.96446664490769</v>
       </c>
       <c r="G59" s="8">
-        <v>1086375000</v>
+        <f t="shared" si="38"/>
+        <v>24.214079232639119</v>
       </c>
       <c r="H59" s="8">
-        <v>529231000</v>
+        <f t="shared" si="38"/>
+        <v>26.079897226055099</v>
       </c>
       <c r="I59" s="8">
-        <v>419865000</v>
+        <f t="shared" si="38"/>
+        <v>27.713219690991039</v>
       </c>
       <c r="J59" s="8">
-        <v>591058000</v>
+        <f t="shared" si="38"/>
+        <v>30.159167463884042</v>
       </c>
       <c r="K59" s="8">
-        <v>215000000</v>
+        <f t="shared" si="38"/>
+        <v>30.696412264545188</v>
       </c>
       <c r="L59" s="8">
-        <v>10000000</v>
+        <f t="shared" si="38"/>
+        <v>30.659673551839258</v>
       </c>
       <c r="M59" s="8">
-        <v>5978000</v>
+        <f t="shared" si="38"/>
+        <v>30.63466923076923</v>
       </c>
       <c r="N59" s="8">
-        <v>56443000</v>
+        <f t="shared" si="38"/>
+        <v>30.482641509433961</v>
       </c>
       <c r="O59" s="8">
-        <v>179275000</v>
+        <f t="shared" si="38"/>
+        <v>30.130178571428573</v>
       </c>
       <c r="P59" s="8">
-        <v>347003000</v>
+        <f t="shared" si="38"/>
+        <v>29.968739537723277</v>
       </c>
       <c r="Q59" s="8">
-        <v>161681000</v>
+        <f t="shared" si="38"/>
+        <v>29.87082688236595</v>
       </c>
       <c r="R59" s="8">
-        <f>5895000000-Q55</f>
-        <v>1168091000</v>
+        <f t="shared" si="38"/>
+        <v>31.165741475019825</v>
+      </c>
+      <c r="X59" s="8">
+        <v>15964.46664490769</v>
+      </c>
+      <c r="Y59" s="8">
+        <v>30159.167463884041</v>
+      </c>
+      <c r="Z59" s="8">
+        <v>30482.641509433961</v>
+      </c>
+      <c r="AA59" s="8">
+        <v>31165.741475019826</v>
       </c>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8">
+        <v>425000</v>
+      </c>
+      <c r="F60" s="8">
+        <f>E60+F64</f>
+        <v>1125000</v>
+      </c>
+      <c r="G60" s="8">
+        <f>F60+G64</f>
+        <v>2211375</v>
+      </c>
+      <c r="H60" s="8">
+        <f>G60+H64</f>
+        <v>2740606</v>
+      </c>
+      <c r="I60" s="8">
+        <f>H60+I64</f>
+        <v>3160471</v>
+      </c>
+      <c r="J60" s="8">
+        <f t="shared" ref="J60:R60" si="39">I60+J64</f>
+        <v>3751529</v>
+      </c>
+      <c r="K60" s="8">
+        <f>J60+K64</f>
+        <v>3966529</v>
+      </c>
+      <c r="L60" s="8">
+        <f>K60+L64</f>
+        <v>3976529</v>
+      </c>
+      <c r="M60" s="8">
+        <f t="shared" si="39"/>
+        <v>3982507</v>
+      </c>
+      <c r="N60" s="8">
+        <f t="shared" si="39"/>
+        <v>4038950</v>
+      </c>
+      <c r="O60" s="8">
+        <f t="shared" si="39"/>
+        <v>4218225</v>
+      </c>
+      <c r="P60" s="8">
+        <f t="shared" si="39"/>
+        <v>4565228</v>
+      </c>
+      <c r="Q60" s="8">
+        <f t="shared" si="39"/>
+        <v>4726909</v>
+      </c>
+      <c r="R60" s="8">
+        <f>Q60+R64</f>
+        <v>5895000</v>
+      </c>
+      <c r="X60" s="8">
+        <v>1125000</v>
+      </c>
+      <c r="Y60" s="8">
+        <v>3751529</v>
+      </c>
+      <c r="Z60" s="8">
+        <v>4038950</v>
+      </c>
+      <c r="AA60" s="8">
+        <v>5895000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8">
+        <f t="shared" ref="F63:M63" si="40">F55-E55</f>
+        <v>32219</v>
+      </c>
+      <c r="G63" s="8">
+        <f t="shared" si="40"/>
+        <v>20857</v>
+      </c>
+      <c r="H63" s="8">
+        <f t="shared" si="40"/>
+        <v>13759</v>
+      </c>
+      <c r="I63" s="8">
+        <f t="shared" si="40"/>
+        <v>8957</v>
+      </c>
+      <c r="J63" s="8">
+        <f t="shared" si="40"/>
+        <v>10349</v>
+      </c>
+      <c r="K63" s="8">
+        <f t="shared" si="40"/>
+        <v>4827</v>
+      </c>
+      <c r="L63" s="8">
+        <f t="shared" si="40"/>
+        <v>481</v>
+      </c>
+      <c r="M63" s="8">
+        <f t="shared" si="40"/>
+        <v>301</v>
+      </c>
+      <c r="N63" s="8">
+        <f t="shared" ref="N63:R63" si="41">N55-M55</f>
+        <v>2500</v>
+      </c>
+      <c r="O63" s="8">
+        <f t="shared" si="41"/>
+        <v>7500</v>
+      </c>
+      <c r="P63" s="8">
+        <f t="shared" si="41"/>
+        <v>12333</v>
+      </c>
+      <c r="Q63" s="8">
+        <f t="shared" si="41"/>
+        <v>5912</v>
+      </c>
+      <c r="R63" s="8">
+        <f t="shared" si="41"/>
+        <v>30905</v>
+      </c>
+    </row>
+    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8">
+        <v>700000</v>
+      </c>
+      <c r="G64" s="8">
+        <v>1086375</v>
+      </c>
+      <c r="H64" s="8">
+        <v>529231</v>
+      </c>
+      <c r="I64" s="8">
+        <v>419865</v>
+      </c>
+      <c r="J64" s="8">
+        <v>591058</v>
+      </c>
+      <c r="K64" s="8">
+        <v>215000</v>
+      </c>
+      <c r="L64" s="8">
+        <v>10000</v>
+      </c>
+      <c r="M64" s="8">
+        <v>5978</v>
+      </c>
+      <c r="N64" s="8">
+        <v>56443</v>
+      </c>
+      <c r="O64" s="8">
+        <v>179275</v>
+      </c>
+      <c r="P64" s="8">
+        <v>347003</v>
+      </c>
+      <c r="Q64" s="8">
+        <v>161681</v>
+      </c>
+      <c r="R64" s="8">
+        <f>5895000-Q60</f>
+        <v>1168091</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>87</v>
       </c>
-      <c r="F60" s="10">
-        <f t="shared" ref="F60:L60" si="24">F59/F58</f>
+      <c r="F65" s="10">
+        <f>F64/F63*1000</f>
         <v>21726.310562090694</v>
       </c>
-      <c r="G60" s="10">
-        <f t="shared" si="24"/>
-        <v>52086.829361844946</v>
-      </c>
-      <c r="H60" s="10">
-        <f t="shared" si="24"/>
+      <c r="G65" s="10">
+        <f t="shared" ref="G65:R65" si="42">G64/G63*1000</f>
+        <v>52086.829361844939</v>
+      </c>
+      <c r="H65" s="10">
+        <f t="shared" si="42"/>
         <v>38464.350606875501</v>
       </c>
-      <c r="I60" s="10">
-        <f t="shared" si="24"/>
-        <v>46875.628000446581</v>
-      </c>
-      <c r="J60" s="10">
-        <f t="shared" si="24"/>
+      <c r="I65" s="10">
+        <f t="shared" si="42"/>
+        <v>46875.628000446573</v>
+      </c>
+      <c r="J65" s="10">
+        <f t="shared" si="42"/>
         <v>57112.571262923957</v>
       </c>
-      <c r="K60" s="10">
-        <f t="shared" si="24"/>
+      <c r="K65" s="10">
+        <f t="shared" si="42"/>
         <v>44541.122850631866</v>
       </c>
-      <c r="L60" s="10">
-        <f t="shared" si="24"/>
+      <c r="L65" s="10">
+        <f t="shared" si="42"/>
         <v>20790.02079002079</v>
       </c>
-      <c r="M60" s="10">
-        <f t="shared" ref="M60:R60" si="25">M59/M58</f>
+      <c r="M65" s="10">
+        <f t="shared" si="42"/>
         <v>19860.465116279069</v>
       </c>
-      <c r="N60" s="10">
-        <f t="shared" si="25"/>
+      <c r="N65" s="10">
+        <f t="shared" si="42"/>
         <v>22577.200000000001</v>
       </c>
-      <c r="O60" s="10">
-        <f t="shared" si="25"/>
+      <c r="O65" s="10">
+        <f t="shared" si="42"/>
         <v>23903.333333333332</v>
       </c>
-      <c r="P60" s="10">
-        <f t="shared" si="25"/>
+      <c r="P65" s="10">
+        <f>P64/P63*1000</f>
         <v>28136.138814562557</v>
       </c>
-      <c r="Q60" s="10">
-        <f t="shared" si="25"/>
+      <c r="Q65" s="10">
+        <f t="shared" si="42"/>
         <v>27347.936400541272</v>
       </c>
-      <c r="R60" s="10">
-        <f t="shared" si="25"/>
-        <v>37796.18184759748</v>
+      <c r="R65" s="10">
+        <f t="shared" si="42"/>
+        <v>37796.181847597472</v>
       </c>
     </row>
   </sheetData>
@@ -22820,8 +24140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85EA0FE-1A7B-4E67-A576-244712A3E077}">
   <dimension ref="A1:K191"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="AB63" sqref="AB63"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MSTR.xlsx
+++ b/MSTR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00686E84-7993-41A2-A7A6-DB1B45FE2D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6612697E-AF7D-47DB-B75F-B671EC4B5FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
   <si>
     <t>Price</t>
   </si>
@@ -371,9 +371,6 @@
     <t>change mc to daily</t>
   </si>
   <si>
-    <t>balance sheet</t>
-  </si>
-  <si>
     <t>EBITDA + Digital Impairment</t>
   </si>
   <si>
@@ -468,7 +465,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -502,9 +499,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -20458,11 +20454,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596D9E16-B52A-4557-A315-6FB674626433}">
   <dimension ref="A1:AA65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I9" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U23" sqref="U23"/>
+      <selection pane="bottomRight" activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21100,7 +21096,6 @@
       <c r="R10" s="4">
         <v>5319</v>
       </c>
-      <c r="T10" s="20"/>
       <c r="X10" s="4">
         <v>23977</v>
       </c>
@@ -21170,9 +21165,7 @@
       <c r="R11" s="4">
         <v>13617</v>
       </c>
-      <c r="T11" s="19" t="s">
-        <v>103</v>
-      </c>
+      <c r="T11" s="20"/>
       <c r="X11" s="4">
         <v>49952</v>
       </c>
@@ -21200,7 +21193,7 @@
         <v>23989</v>
       </c>
       <c r="E12" s="9">
-        <f t="shared" ref="E12:W12" si="7">SUM(E8:E11)</f>
+        <f t="shared" ref="E12:R12" si="7">SUM(E8:E11)</f>
         <v>21736</v>
       </c>
       <c r="F12" s="9">
@@ -22170,7 +22163,7 @@
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" ref="C25:H25" si="17">C20+C16</f>
@@ -22201,7 +22194,7 @@
         <v>6035</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" ref="J25:R25" si="18">J20+J16</f>
+        <f t="shared" ref="J25:Q25" si="18">J20+J16</f>
         <v>-1843</v>
       </c>
       <c r="K25" s="9">
@@ -22236,26 +22229,26 @@
         <f>R20+R16</f>
         <v>-21406</v>
       </c>
-      <c r="X25" s="21">
+      <c r="X25" s="19">
         <f>X20+X16</f>
         <v>50745</v>
       </c>
-      <c r="Y25" s="21">
+      <c r="Y25" s="19">
         <f>Y20+Y16</f>
         <v>19232</v>
       </c>
-      <c r="Z25" s="21">
+      <c r="Z25" s="19">
         <f>Z20+Z16</f>
         <v>-36179</v>
       </c>
-      <c r="AA25" s="21">
+      <c r="AA25" s="19">
         <f>AA20+AA16</f>
         <v>-8674</v>
       </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G26" s="14">
         <f>G7/C7-1</f>
@@ -22315,13 +22308,13 @@
         <v>-2.2511463264690779E-2</v>
       </c>
       <c r="AA26" s="14">
-        <f t="shared" ref="Z26:AA26" si="20">AA7/Z7-1</f>
+        <f t="shared" ref="AA26" si="20">AA7/Z7-1</f>
         <v>-6.0148538648890915E-3</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" s="14">
         <f>C12/C7</f>
@@ -22403,7 +22396,7 @@
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G28" s="14">
         <f>SUM(G12:G15)/SUM(C12:C15)-1</f>
@@ -22473,15 +22466,15 @@
       </c>
       <c r="C31" s="9">
         <f t="shared" ref="C31:Q31" si="25">C32+C33+C57-C42-C43-C46-C47-C44-C45</f>
-        <v>0</v>
+        <v>289327</v>
       </c>
       <c r="D31" s="9">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f>D32+D33+D57-D42-D43-D46-D47-D44-D45</f>
+        <v>292175</v>
       </c>
       <c r="E31" s="9">
         <f t="shared" si="25"/>
-        <v>409504.5</v>
+        <v>219698.5</v>
       </c>
       <c r="F31" s="9">
         <f t="shared" si="25"/>
@@ -22489,7 +22482,7 @@
       </c>
       <c r="G31" s="9">
         <f t="shared" si="25"/>
-        <v>5351820.4972799998</v>
+        <v>3490024.4972799998</v>
       </c>
       <c r="H31" s="9">
         <f t="shared" si="25"/>
@@ -22497,7 +22490,7 @@
       </c>
       <c r="I31" s="9">
         <f t="shared" si="25"/>
-        <v>4964768.2915199995</v>
+        <v>2615948.2915199995</v>
       </c>
       <c r="J31" s="9">
         <f>J32+J33+J57-J42-J43-J46-J47-J44-J45</f>
@@ -22505,31 +22498,31 @@
       </c>
       <c r="K31" s="9">
         <f t="shared" si="25"/>
-        <v>5892701.3182200007</v>
-      </c>
-      <c r="L31" s="9">
+        <v>3324903.3182200007</v>
+      </c>
+      <c r="L31" s="18">
         <f t="shared" si="25"/>
-        <v>2450665.1989799999</v>
-      </c>
-      <c r="M31" s="9">
+        <v>-122756.80102000013</v>
+      </c>
+      <c r="M31" s="18">
         <f t="shared" si="25"/>
-        <v>2532466.2999999998</v>
-      </c>
-      <c r="N31" s="9">
+        <v>-38020.700000000186</v>
+      </c>
+      <c r="N31" s="18">
         <f t="shared" si="25"/>
         <v>-451382.60000000009</v>
       </c>
       <c r="O31" s="9">
         <f t="shared" si="25"/>
-        <v>3985581.6</v>
+        <v>1593728.6</v>
       </c>
       <c r="P31" s="9">
         <f t="shared" si="25"/>
-        <v>4625059.90283</v>
+        <v>2242208.90283</v>
       </c>
       <c r="Q31" s="9">
         <f t="shared" si="25"/>
-        <v>4277436.7251500003</v>
+        <v>1876551.7251500003</v>
       </c>
       <c r="R31" s="9">
         <f>R32+R33+R57-R42-R43-R46-R47-R44-R45</f>
@@ -22556,31 +22549,53 @@
       <c r="B32" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="C32" s="8">
+        <v>429276</v>
+      </c>
+      <c r="D32" s="8">
+        <v>420899</v>
+      </c>
+      <c r="E32" s="8">
+        <v>52653</v>
+      </c>
       <c r="F32" s="8">
         <v>59675</v>
       </c>
-      <c r="G32" s="8"/>
+      <c r="G32" s="8">
+        <v>82544</v>
+      </c>
       <c r="H32" s="8">
         <v>56399</v>
       </c>
-      <c r="I32" s="8"/>
+      <c r="I32" s="8">
+        <v>56975</v>
+      </c>
       <c r="J32" s="8">
         <f>Y32</f>
         <v>63356</v>
       </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
+      <c r="K32" s="8">
+        <v>92677</v>
+      </c>
+      <c r="L32" s="8">
+        <v>69386</v>
+      </c>
+      <c r="M32" s="8">
+        <v>60390</v>
+      </c>
       <c r="N32" s="8">
         <f t="shared" ref="N32:N39" si="27">Z32</f>
         <v>43835</v>
       </c>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
+      <c r="O32" s="8">
+        <v>94311</v>
+      </c>
+      <c r="P32" s="8">
+        <v>65968</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>45009</v>
+      </c>
       <c r="R32" s="8">
         <v>46817</v>
       </c>
@@ -22600,31 +22615,55 @@
       <c r="B33" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="C33" s="8">
+        <f>2742+109946</f>
+        <v>112688</v>
+      </c>
+      <c r="D33" s="8">
+        <f>1221+109972</f>
+        <v>111193</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1231</v>
+      </c>
       <c r="F33" s="8">
         <v>1084</v>
       </c>
-      <c r="G33" s="8"/>
+      <c r="G33" s="8">
+        <v>1194</v>
+      </c>
       <c r="H33" s="8">
         <v>1205</v>
       </c>
-      <c r="I33" s="8"/>
+      <c r="I33" s="8">
+        <v>1149</v>
+      </c>
       <c r="J33" s="8">
         <f t="shared" ref="J33:J51" si="28">Y33</f>
         <v>1078</v>
       </c>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
+      <c r="K33" s="8">
+        <v>6265</v>
+      </c>
+      <c r="L33" s="8">
+        <v>6155</v>
+      </c>
+      <c r="M33" s="8">
+        <v>6578</v>
+      </c>
       <c r="N33" s="8">
         <f t="shared" si="27"/>
         <v>7033</v>
       </c>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
+      <c r="O33" s="8">
+        <v>2153</v>
+      </c>
+      <c r="P33" s="8">
+        <v>2085</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>1865</v>
+      </c>
       <c r="R33" s="8">
         <v>1856</v>
       </c>
@@ -22644,31 +22683,53 @@
       <c r="B34" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="C34" s="8">
+        <v>124935</v>
+      </c>
+      <c r="D34" s="8">
+        <v>123794</v>
+      </c>
+      <c r="E34" s="8">
+        <v>148512</v>
+      </c>
       <c r="F34" s="8">
         <v>197461</v>
       </c>
-      <c r="G34" s="8"/>
+      <c r="G34" s="8">
+        <v>150626</v>
+      </c>
       <c r="H34" s="8">
         <v>131516</v>
       </c>
-      <c r="I34" s="8"/>
+      <c r="I34" s="8">
+        <v>123748</v>
+      </c>
       <c r="J34" s="8">
         <f t="shared" si="28"/>
         <v>189280</v>
       </c>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
+      <c r="K34" s="8">
+        <v>126930</v>
+      </c>
+      <c r="L34" s="8">
+        <v>118645</v>
+      </c>
+      <c r="M34" s="8">
+        <v>109926</v>
+      </c>
       <c r="N34" s="8">
         <f t="shared" si="27"/>
         <v>189280</v>
       </c>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
+      <c r="O34" s="8">
+        <v>139178</v>
+      </c>
+      <c r="P34" s="8">
+        <v>121901</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>128650</v>
+      </c>
       <c r="R34" s="8">
         <v>183815</v>
       </c>
@@ -22688,31 +22749,53 @@
       <c r="B35" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="C35" s="8">
+        <v>26163</v>
+      </c>
+      <c r="D35" s="8">
+        <v>16887</v>
+      </c>
+      <c r="E35" s="8">
+        <v>16040</v>
+      </c>
       <c r="F35" s="8">
         <v>14400</v>
       </c>
-      <c r="G35" s="8"/>
+      <c r="G35" s="8">
+        <v>16390</v>
+      </c>
       <c r="H35" s="8">
         <v>19338</v>
       </c>
-      <c r="I35" s="8"/>
+      <c r="I35" s="8">
+        <v>15750</v>
+      </c>
       <c r="J35" s="8">
         <f t="shared" si="28"/>
         <v>14251</v>
       </c>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
+      <c r="K35" s="8">
+        <v>21116</v>
+      </c>
+      <c r="L35" s="8">
+        <v>25496</v>
+      </c>
+      <c r="M35" s="8">
+        <v>25399</v>
+      </c>
       <c r="N35" s="8">
         <f t="shared" si="27"/>
         <v>24418</v>
       </c>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
+      <c r="O35" s="8">
+        <v>24034</v>
+      </c>
+      <c r="P35" s="8">
+        <v>19680</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>24041</v>
+      </c>
       <c r="R35" s="8">
         <v>35407</v>
       </c>
@@ -22732,31 +22815,53 @@
       <c r="B36" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="C36" s="8">
+        <v>0</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
+        <v>380758</v>
+      </c>
       <c r="F36" s="8">
         <v>1054302</v>
       </c>
-      <c r="G36" s="8"/>
+      <c r="G36" s="8">
+        <v>1946582</v>
+      </c>
       <c r="H36" s="8">
         <v>2051039</v>
       </c>
-      <c r="I36" s="8"/>
+      <c r="I36" s="8">
+        <v>2405739</v>
+      </c>
       <c r="J36" s="8">
         <f t="shared" si="28"/>
         <v>2850210</v>
       </c>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
+      <c r="K36" s="8">
+        <v>2895619</v>
+      </c>
+      <c r="L36" s="8">
+        <v>1987781</v>
+      </c>
+      <c r="M36" s="8">
+        <v>1993032</v>
+      </c>
       <c r="N36" s="8">
         <f t="shared" si="27"/>
         <v>1840028</v>
       </c>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
+      <c r="O36" s="8">
+        <v>2000392</v>
+      </c>
+      <c r="P36" s="8">
+        <v>2323252</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>2451374</v>
+      </c>
       <c r="R36" s="8">
         <v>3626476</v>
       </c>
@@ -22776,31 +22881,53 @@
       <c r="B37" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="C37" s="8">
+        <v>47623</v>
+      </c>
+      <c r="D37" s="8">
+        <v>45300</v>
+      </c>
+      <c r="E37" s="8">
+        <v>45473</v>
+      </c>
       <c r="F37" s="8">
         <v>42975</v>
       </c>
-      <c r="G37" s="8"/>
+      <c r="G37" s="8">
+        <v>41091</v>
+      </c>
       <c r="H37" s="8">
         <v>39659</v>
       </c>
-      <c r="I37" s="8"/>
+      <c r="I37" s="8">
+        <v>38133</v>
+      </c>
       <c r="J37" s="8">
         <f t="shared" si="28"/>
         <v>36587</v>
       </c>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
+      <c r="K37" s="8">
+        <v>35680</v>
+      </c>
+      <c r="L37" s="8">
+        <v>34580</v>
+      </c>
+      <c r="M37" s="8">
+        <v>33033</v>
+      </c>
       <c r="N37" s="8">
         <f t="shared" si="27"/>
         <v>32311</v>
       </c>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
+      <c r="O37" s="8">
+        <v>31338</v>
+      </c>
+      <c r="P37" s="8">
+        <v>30507</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>30192</v>
+      </c>
       <c r="R37" s="8">
         <v>28941</v>
       </c>
@@ -22820,31 +22947,53 @@
       <c r="B38" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="C38" s="8">
+        <v>82690</v>
+      </c>
+      <c r="D38" s="8">
+        <v>81543</v>
+      </c>
+      <c r="E38" s="8">
+        <v>79296</v>
+      </c>
       <c r="F38" s="8">
         <v>73597</v>
       </c>
-      <c r="G38" s="8"/>
+      <c r="G38" s="8">
+        <v>71357</v>
+      </c>
       <c r="H38" s="8">
         <v>70340</v>
       </c>
-      <c r="I38" s="8"/>
+      <c r="I38" s="8">
+        <v>68755</v>
+      </c>
       <c r="J38" s="8">
         <f t="shared" si="28"/>
         <v>66760</v>
       </c>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
+      <c r="K38" s="8">
+        <v>64637</v>
+      </c>
+      <c r="L38" s="8">
+        <v>65169</v>
+      </c>
+      <c r="M38" s="8">
+        <v>62902</v>
+      </c>
       <c r="N38" s="8">
         <f t="shared" si="27"/>
         <v>61299</v>
       </c>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
+      <c r="O38" s="8">
+        <v>59655</v>
+      </c>
+      <c r="P38" s="8">
+        <v>58264</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>54542</v>
+      </c>
       <c r="R38" s="8">
         <v>57343</v>
       </c>
@@ -22864,31 +23013,53 @@
       <c r="B39" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="C39" s="8">
+        <v>7757</v>
+      </c>
+      <c r="D39" s="8">
+        <v>14596</v>
+      </c>
+      <c r="E39" s="8">
+        <v>15405</v>
+      </c>
       <c r="F39" s="8">
         <v>15615</v>
       </c>
-      <c r="G39" s="8"/>
+      <c r="G39" s="8">
+        <v>15013</v>
+      </c>
       <c r="H39" s="8">
         <v>15756</v>
       </c>
-      <c r="I39" s="8"/>
+      <c r="I39" s="8">
+        <v>14857</v>
+      </c>
       <c r="J39" s="8">
         <f t="shared" si="28"/>
         <v>15820</v>
       </c>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
+      <c r="K39" s="8">
+        <v>18181</v>
+      </c>
+      <c r="L39" s="8">
+        <v>17786</v>
+      </c>
+      <c r="M39" s="8">
+        <v>20992</v>
+      </c>
       <c r="N39" s="8">
         <f t="shared" si="27"/>
         <v>23916</v>
       </c>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
+      <c r="O39" s="8">
+        <v>23825</v>
+      </c>
+      <c r="P39" s="8">
+        <v>22421</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>24156</v>
+      </c>
       <c r="R39" s="8">
         <v>24300</v>
       </c>
@@ -22908,31 +23079,53 @@
       <c r="B40" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="C40" s="8">
+        <v>18139</v>
+      </c>
+      <c r="D40" s="8">
+        <v>18834</v>
+      </c>
+      <c r="E40" s="8">
+        <v>33537</v>
+      </c>
       <c r="F40" s="8">
         <v>6503</v>
       </c>
-      <c r="G40" s="8"/>
+      <c r="G40" s="8">
+        <v>118272</v>
+      </c>
       <c r="H40" s="8">
         <v>239107</v>
       </c>
-      <c r="I40" s="8"/>
+      <c r="I40" s="8">
+        <v>261138</v>
+      </c>
       <c r="J40" s="8">
         <f t="shared" si="28"/>
         <v>319782</v>
       </c>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
+      <c r="K40" s="8">
+        <v>377282</v>
+      </c>
+      <c r="L40" s="8">
+        <v>243367</v>
+      </c>
+      <c r="M40" s="8">
+        <v>233034</v>
+      </c>
       <c r="N40" s="8">
         <f>Z40</f>
         <v>188152</v>
       </c>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
+      <c r="O40" s="8">
+        <v>651516</v>
+      </c>
+      <c r="P40" s="8">
+        <v>719026</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>614112</v>
+      </c>
       <c r="R40" s="8">
         <v>757573</v>
       </c>
@@ -22952,14 +23145,17 @@
       <c r="B41" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="11"/>
+      <c r="C41" s="11">
+        <f>SUM(C32:C40)</f>
+        <v>849271</v>
+      </c>
       <c r="D41" s="11">
         <f>SUM(D32:D40)</f>
-        <v>0</v>
+        <v>833046</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" ref="E41:R41" si="30">SUM(E32:E40)</f>
-        <v>0</v>
+        <v>772905</v>
       </c>
       <c r="F41" s="11">
         <f t="shared" si="30"/>
@@ -22967,15 +23163,15 @@
       </c>
       <c r="G41" s="11">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>2443069</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="30"/>
         <v>2624359</v>
       </c>
       <c r="I41" s="11">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f>SUM(I32:I40)</f>
+        <v>2986244</v>
       </c>
       <c r="J41" s="11">
         <f>SUM(J32:J40)</f>
@@ -22983,15 +23179,15 @@
       </c>
       <c r="K41" s="11">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>3638387</v>
       </c>
       <c r="L41" s="11">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>2568365</v>
       </c>
       <c r="M41" s="11">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>2545286</v>
       </c>
       <c r="N41" s="11">
         <f t="shared" si="30"/>
@@ -22999,15 +23195,15 @@
       </c>
       <c r="O41" s="11">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>3026402</v>
       </c>
       <c r="P41" s="11">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>3363104</v>
       </c>
       <c r="Q41" s="11">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>3373941</v>
       </c>
       <c r="R41" s="11">
         <f t="shared" si="30"/>
@@ -23034,31 +23230,53 @@
       <c r="B42" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="C42" s="8">
+        <v>32539</v>
+      </c>
+      <c r="D42" s="8">
+        <v>31468</v>
+      </c>
+      <c r="E42" s="8">
+        <v>38668</v>
+      </c>
       <c r="F42" s="8">
         <v>45119</v>
       </c>
-      <c r="G42" s="8"/>
+      <c r="G42" s="8">
+        <v>39816</v>
+      </c>
       <c r="H42" s="8">
         <v>41236</v>
       </c>
-      <c r="I42" s="8"/>
+      <c r="I42" s="8">
+        <v>45454</v>
+      </c>
       <c r="J42" s="8">
         <f>Y42</f>
         <v>46084</v>
       </c>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
+      <c r="K42" s="8">
+        <v>44388</v>
+      </c>
+      <c r="L42" s="8">
+        <v>35960</v>
+      </c>
+      <c r="M42" s="8">
+        <v>36846</v>
+      </c>
       <c r="N42" s="8">
         <f>Z42</f>
         <v>42976</v>
       </c>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
+      <c r="O42" s="8">
+        <v>50604</v>
+      </c>
+      <c r="P42" s="8">
+        <v>33660</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>34306</v>
+      </c>
       <c r="R42" s="8">
         <v>43090</v>
       </c>
@@ -23078,31 +23296,53 @@
       <c r="B43" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="C43" s="8">
+        <v>35207</v>
+      </c>
+      <c r="D43" s="8">
+        <v>40806</v>
+      </c>
+      <c r="E43" s="8">
+        <v>44177</v>
+      </c>
       <c r="F43" s="8">
         <v>49249</v>
       </c>
-      <c r="G43" s="8"/>
+      <c r="G43" s="8">
+        <v>44824</v>
+      </c>
       <c r="H43" s="8">
         <v>50944</v>
       </c>
-      <c r="I43" s="8"/>
+      <c r="I43" s="8">
+        <v>47759</v>
+      </c>
       <c r="J43" s="8">
         <f t="shared" si="28"/>
         <v>54548</v>
       </c>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
+      <c r="K43" s="8">
+        <v>43726</v>
+      </c>
+      <c r="L43" s="8">
+        <v>47773</v>
+      </c>
+      <c r="M43" s="8">
+        <v>46346</v>
+      </c>
       <c r="N43" s="8">
         <f t="shared" ref="N43:N51" si="32">Z43</f>
         <v>53716</v>
       </c>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
+      <c r="O43" s="8">
+        <v>39199</v>
+      </c>
+      <c r="P43" s="8">
+        <v>41492</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>43405</v>
+      </c>
       <c r="R43" s="8">
         <v>50045</v>
       </c>
@@ -23133,16 +23373,28 @@
         <f t="shared" si="28"/>
         <v>1493</v>
       </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
+      <c r="K44" s="8">
+        <v>10544</v>
+      </c>
+      <c r="L44" s="8">
+        <v>2269</v>
+      </c>
+      <c r="M44" s="8">
+        <v>11394</v>
+      </c>
       <c r="N44" s="8">
         <f t="shared" si="32"/>
         <v>2829</v>
       </c>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
+      <c r="O44" s="8">
+        <v>10368</v>
+      </c>
+      <c r="P44" s="8">
+        <v>1493</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>10368</v>
+      </c>
       <c r="R44" s="8">
         <v>1493</v>
       </c>
@@ -23169,20 +23421,25 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="8">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
+      <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
+      <c r="M45" s="8">
+        <v>0</v>
+      </c>
       <c r="N45" s="8">
         <f t="shared" si="32"/>
         <v>454</v>
       </c>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
+      <c r="O45" s="8">
+        <v>460</v>
+      </c>
+      <c r="P45" s="8">
+        <v>468</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>475</v>
+      </c>
       <c r="R45" s="8">
         <v>483</v>
       </c>
@@ -23202,31 +23459,53 @@
       <c r="B46" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="C46" s="8">
+        <v>184891</v>
+      </c>
+      <c r="D46" s="8">
+        <v>167643</v>
+      </c>
+      <c r="E46" s="8">
+        <v>160845</v>
+      </c>
       <c r="F46" s="8">
         <v>191250</v>
       </c>
-      <c r="G46" s="8"/>
+      <c r="G46" s="8">
+        <v>198980</v>
+      </c>
       <c r="H46" s="8">
         <v>182818</v>
       </c>
-      <c r="I46" s="8"/>
+      <c r="I46" s="8">
+        <v>160697</v>
+      </c>
       <c r="J46" s="8">
         <f t="shared" si="28"/>
         <v>209860</v>
       </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
+      <c r="K46" s="8">
+        <v>206217</v>
+      </c>
+      <c r="L46" s="8">
+        <v>188098</v>
+      </c>
+      <c r="M46" s="8">
+        <v>165934</v>
+      </c>
       <c r="N46" s="8">
         <f t="shared" si="32"/>
         <v>217428</v>
       </c>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
+      <c r="O46" s="8">
+        <v>211768</v>
+      </c>
+      <c r="P46" s="8">
+        <v>195817</v>
+      </c>
+      <c r="Q46" s="8">
+        <v>179167</v>
+      </c>
       <c r="R46" s="8">
         <v>228162</v>
       </c>
@@ -23252,25 +23531,41 @@
       <c r="F47" s="8">
         <v>486366</v>
       </c>
-      <c r="G47" s="8"/>
+      <c r="G47" s="8">
+        <v>1661914</v>
+      </c>
       <c r="H47" s="8">
         <v>2150927</v>
       </c>
-      <c r="I47" s="8"/>
+      <c r="I47" s="8">
+        <v>2153034</v>
+      </c>
       <c r="J47" s="8">
         <f t="shared" si="28"/>
         <v>2155151</v>
       </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
+      <c r="K47" s="8">
+        <v>2361865</v>
+      </c>
+      <c r="L47" s="8">
+        <v>2374863</v>
+      </c>
+      <c r="M47" s="8">
+        <v>2376935</v>
+      </c>
       <c r="N47" s="8">
         <f t="shared" si="32"/>
         <v>2378560</v>
       </c>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
+      <c r="O47" s="8">
+        <v>2175918</v>
+      </c>
+      <c r="P47" s="8">
+        <v>2177974</v>
+      </c>
+      <c r="Q47" s="8">
+        <v>2180038</v>
+      </c>
       <c r="R47" s="8">
         <v>2182108</v>
       </c>
@@ -23290,31 +23585,53 @@
       <c r="B48" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="C48" s="8">
+        <v>3660</v>
+      </c>
+      <c r="D48" s="8">
+        <v>5910</v>
+      </c>
+      <c r="E48" s="8">
+        <v>11657</v>
+      </c>
       <c r="F48" s="8">
         <v>14662</v>
       </c>
-      <c r="G48" s="8"/>
+      <c r="G48" s="8">
+        <v>14517</v>
+      </c>
       <c r="H48" s="8">
         <v>7262</v>
       </c>
-      <c r="I48" s="8"/>
+      <c r="I48" s="8">
+        <v>8302</v>
+      </c>
       <c r="J48" s="8">
         <f t="shared" si="28"/>
         <v>8089</v>
       </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
+      <c r="K48" s="8">
+        <v>8236</v>
+      </c>
+      <c r="L48" s="8">
+        <v>8497</v>
+      </c>
+      <c r="M48" s="8">
+        <v>8754</v>
+      </c>
       <c r="N48" s="8">
         <f t="shared" si="32"/>
         <v>12763</v>
       </c>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
+      <c r="O48" s="8">
+        <v>11646</v>
+      </c>
+      <c r="P48" s="8">
+        <v>11244</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>7638</v>
+      </c>
       <c r="R48" s="8">
         <v>8524</v>
       </c>
@@ -23334,31 +23651,53 @@
       <c r="B49" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
+      <c r="C49" s="8">
+        <v>100251</v>
+      </c>
+      <c r="D49" s="8">
+        <v>98283</v>
+      </c>
+      <c r="E49" s="8">
+        <v>95591</v>
+      </c>
       <c r="F49" s="8">
         <v>84328</v>
       </c>
-      <c r="G49" s="8"/>
+      <c r="G49" s="8">
+        <v>81849</v>
+      </c>
       <c r="H49" s="8">
         <v>80900</v>
       </c>
-      <c r="I49" s="8"/>
+      <c r="I49" s="8">
+        <v>78939</v>
+      </c>
       <c r="J49" s="8">
         <f t="shared" si="28"/>
         <v>76608</v>
       </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
+      <c r="K49" s="8">
+        <v>73956</v>
+      </c>
+      <c r="L49" s="8">
+        <v>72162</v>
+      </c>
+      <c r="M49" s="8">
+        <v>69278</v>
+      </c>
       <c r="N49" s="8">
         <f t="shared" si="32"/>
         <v>67344</v>
       </c>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
+      <c r="O49" s="8">
+        <v>65355</v>
+      </c>
+      <c r="P49" s="8">
+        <v>63814</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>59720</v>
+      </c>
       <c r="R49" s="8">
         <v>61086</v>
       </c>
@@ -23378,31 +23717,53 @@
       <c r="B50" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
+      <c r="C50" s="8">
+        <v>31273</v>
+      </c>
+      <c r="D50" s="8">
+        <v>30452</v>
+      </c>
+      <c r="E50" s="8">
+        <v>32651</v>
+      </c>
       <c r="F50" s="8">
         <v>33382</v>
       </c>
-      <c r="G50" s="8"/>
+      <c r="G50" s="8">
+        <v>34329</v>
+      </c>
       <c r="H50" s="8">
         <v>31040</v>
       </c>
-      <c r="I50" s="8"/>
+      <c r="I50" s="8">
+        <v>28934</v>
+      </c>
       <c r="J50" s="8">
         <f t="shared" si="28"/>
         <v>26224</v>
       </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
+      <c r="K50" s="8">
+        <v>26347</v>
+      </c>
+      <c r="L50" s="8">
+        <v>25706</v>
+      </c>
+      <c r="M50" s="8">
+        <v>30088</v>
+      </c>
       <c r="N50" s="8">
         <f t="shared" si="32"/>
         <v>17124</v>
       </c>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
+      <c r="O50" s="8">
+        <v>17675</v>
+      </c>
+      <c r="P50" s="8">
+        <v>17826</v>
+      </c>
+      <c r="Q50" s="8">
+        <v>18231</v>
+      </c>
       <c r="R50" s="8">
         <v>22208</v>
       </c>
@@ -23422,31 +23783,53 @@
       <c r="B51" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
+      <c r="C51" s="8">
+        <v>24</v>
+      </c>
+      <c r="D51" s="8">
+        <v>24</v>
+      </c>
+      <c r="E51" s="8">
+        <v>24</v>
+      </c>
       <c r="F51" s="8">
         <v>8211</v>
       </c>
-      <c r="G51" s="8"/>
+      <c r="G51" s="8">
+        <v>1812</v>
+      </c>
       <c r="H51" s="8">
         <v>1813</v>
       </c>
-      <c r="I51" s="8"/>
+      <c r="I51" s="8">
+        <v>1811</v>
+      </c>
       <c r="J51" s="8">
         <f t="shared" si="28"/>
         <v>109</v>
       </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
+      <c r="K51" s="8">
+        <v>109</v>
+      </c>
+      <c r="L51" s="8">
+        <v>105</v>
+      </c>
+      <c r="M51" s="8">
+        <v>0</v>
+      </c>
       <c r="N51" s="8">
         <f t="shared" si="32"/>
         <v>198</v>
       </c>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
+      <c r="O51" s="8">
+        <v>198</v>
+      </c>
+      <c r="P51" s="8">
+        <v>198</v>
+      </c>
+      <c r="Q51" s="8">
+        <v>198</v>
+      </c>
       <c r="R51" s="8">
         <v>357</v>
       </c>
@@ -23466,14 +23849,17 @@
       <c r="B52" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="11"/>
+      <c r="C52" s="11">
+        <f>SUM(C42:C51)</f>
+        <v>387845</v>
+      </c>
       <c r="D52" s="11">
         <f>SUM(D42:D51)</f>
-        <v>0</v>
+        <v>374586</v>
       </c>
       <c r="E52" s="11">
         <f t="shared" ref="E52:R52" si="34">SUM(E42:E51)</f>
-        <v>0</v>
+        <v>383613</v>
       </c>
       <c r="F52" s="11">
         <f t="shared" si="34"/>
@@ -23481,7 +23867,7 @@
       </c>
       <c r="G52" s="11">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2078041</v>
       </c>
       <c r="H52" s="11">
         <f t="shared" si="34"/>
@@ -23489,7 +23875,7 @@
       </c>
       <c r="I52" s="11">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2524930</v>
       </c>
       <c r="J52" s="11">
         <f t="shared" si="34"/>
@@ -23497,15 +23883,15 @@
       </c>
       <c r="K52" s="11">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2775388</v>
       </c>
       <c r="L52" s="11">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2755433</v>
       </c>
       <c r="M52" s="11">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2745575</v>
       </c>
       <c r="N52" s="11">
         <f t="shared" si="34"/>
@@ -23513,15 +23899,15 @@
       </c>
       <c r="O52" s="11">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2583191</v>
       </c>
       <c r="P52" s="11">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2543986</v>
       </c>
       <c r="Q52" s="11">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2533546</v>
       </c>
       <c r="R52" s="11">
         <f t="shared" si="34"/>
@@ -23754,7 +24140,7 @@
         <v>917223.33104999992</v>
       </c>
       <c r="G58" s="12">
-        <f t="shared" ref="F58:R58" si="37">G57-G60</f>
+        <f t="shared" ref="G58:R58" si="37">G57-G60</f>
         <v>3140445.4972799998</v>
       </c>
       <c r="H58" s="12">
@@ -23915,7 +24301,7 @@
         <v>3160471</v>
       </c>
       <c r="J60" s="8">
-        <f t="shared" ref="J60:R60" si="39">I60+J64</f>
+        <f t="shared" ref="J60:Q60" si="39">I60+J64</f>
         <v>3751529</v>
       </c>
       <c r="K60" s="8">
@@ -24133,6 +24519,9 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{FFD6FC28-FD87-4776-93D1-3783D6C7039D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="N41 J41" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -24140,7 +24529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85EA0FE-1A7B-4E67-A576-244712A3E077}">
   <dimension ref="A1:K191"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
